--- a/doc/formal_language.xlsx
+++ b/doc/formal_language.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CA3B23F-E30C-4C4B-9B9F-92CB17BB1146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64F7F9DB-E057-4C07-9513-DFF9335D1352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="606" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -971,10 +971,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Bisector(Line($),Triangle($))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>全等</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1350,6 +1346,10 @@
   </si>
   <si>
     <t>theorem_43_midpoint_judgment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bisector(Line($),Angle($))</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1460,7 +1460,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1510,12 +1510,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1531,13 +1525,10 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1551,6 +1542,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1834,8 +1831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="95.5" defaultRowHeight="20.25" x14ac:dyDescent="0.2"/>
@@ -1848,12 +1845,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
     </row>
     <row r="2" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -1898,12 +1895,12 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
     </row>
     <row r="8" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -2026,12 +2023,12 @@
       <c r="D16" s="3"/>
     </row>
     <row r="19" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
@@ -2110,12 +2107,12 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
@@ -2183,25 +2180,25 @@
       <c r="A34" s="3">
         <v>5</v>
       </c>
-      <c r="B34" s="19" t="s">
+      <c r="B34" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="19" t="s">
+      <c r="C34" s="17" t="s">
         <v>87</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>6</v>
       </c>
-      <c r="B35" s="19" t="s">
+      <c r="B35" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="19" t="s">
-        <v>237</v>
+      <c r="C35" s="17" t="s">
+        <v>347</v>
       </c>
       <c r="D35" s="3"/>
     </row>
@@ -2209,10 +2206,10 @@
       <c r="A36" s="3">
         <v>7</v>
       </c>
-      <c r="B36" s="19" t="s">
+      <c r="B36" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C36" s="19" t="s">
+      <c r="C36" s="17" t="s">
         <v>88</v>
       </c>
       <c r="D36" s="3"/>
@@ -2221,10 +2218,10 @@
       <c r="A37" s="3">
         <v>8</v>
       </c>
-      <c r="B37" s="19" t="s">
+      <c r="B37" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="C37" s="30" t="s">
+      <c r="C37" s="27" t="s">
         <v>126</v>
       </c>
       <c r="D37" s="5"/>
@@ -2245,10 +2242,10 @@
       <c r="A39" s="3">
         <v>10</v>
       </c>
-      <c r="B39" s="19" t="s">
+      <c r="B39" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C39" s="19" t="s">
+      <c r="C39" s="17" t="s">
         <v>82</v>
       </c>
       <c r="D39" s="3" t="s">
@@ -2259,10 +2256,10 @@
       <c r="A40" s="3">
         <v>11</v>
       </c>
-      <c r="B40" s="19" t="s">
+      <c r="B40" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C40" s="19" t="s">
+      <c r="C40" s="17" t="s">
         <v>83</v>
       </c>
       <c r="D40" s="3" t="s">
@@ -2273,10 +2270,10 @@
       <c r="A41" s="3">
         <v>12</v>
       </c>
-      <c r="B41" s="19" t="s">
+      <c r="B41" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C41" s="19" t="s">
+      <c r="C41" s="17" t="s">
         <v>84</v>
       </c>
       <c r="D41" s="3" t="s">
@@ -2287,10 +2284,10 @@
       <c r="A42" s="3">
         <v>13</v>
       </c>
-      <c r="B42" s="19" t="s">
+      <c r="B42" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C42" s="19" t="s">
+      <c r="C42" s="17" t="s">
         <v>85</v>
       </c>
       <c r="D42" s="3" t="s">
@@ -2302,7 +2299,7 @@
         <v>14</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>89</v>
@@ -2314,7 +2311,7 @@
         <v>15</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>90</v>
@@ -2326,13 +2323,13 @@
         <v>14</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -2340,13 +2337,13 @@
         <v>15</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -2356,12 +2353,12 @@
       <c r="B48" s="6"/>
     </row>
     <row r="49" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A49" s="17" t="s">
+      <c r="A49" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B49" s="17"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="17"/>
+      <c r="B49" s="28"/>
+      <c r="C49" s="28"/>
+      <c r="D49" s="28"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
@@ -2570,12 +2567,12 @@
       </c>
     </row>
     <row r="67" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A67" s="17" t="s">
+      <c r="A67" s="28" t="s">
         <v>212</v>
       </c>
-      <c r="B67" s="17"/>
-      <c r="C67" s="17"/>
-      <c r="D67" s="17"/>
+      <c r="B67" s="28"/>
+      <c r="C67" s="28"/>
+      <c r="D67" s="28"/>
     </row>
     <row r="68" spans="1:4" ht="60.75" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
@@ -2610,7 +2607,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62602098-5D29-4DB6-92C7-0F20F150EACE}">
   <dimension ref="A1:H90"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
@@ -2628,10 +2625,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>198</v>
@@ -2714,16 +2711,16 @@
         <v>4</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>203</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G5" s="3"/>
     </row>
@@ -2735,16 +2732,16 @@
         <v>5</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>203</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G6" s="3"/>
     </row>
@@ -2756,7 +2753,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>203</v>
@@ -3032,7 +3029,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>205</v>
@@ -3041,7 +3038,7 @@
         <v>133</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -3052,7 +3049,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>205</v>
@@ -3073,7 +3070,7 @@
         <v>24</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>205</v>
@@ -3082,7 +3079,7 @@
         <v>136</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G25" s="3"/>
     </row>
@@ -3094,7 +3091,7 @@
         <v>25</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>205</v>
@@ -3103,7 +3100,7 @@
         <v>136</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G26" s="3"/>
     </row>
@@ -3115,7 +3112,7 @@
         <v>26</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>205</v>
@@ -3124,7 +3121,7 @@
         <v>137</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G27" s="3"/>
     </row>
@@ -3136,7 +3133,7 @@
         <v>27</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>205</v>
@@ -3145,7 +3142,7 @@
         <v>137</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G28" s="3"/>
     </row>
@@ -3157,7 +3154,7 @@
         <v>28</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>205</v>
@@ -3178,7 +3175,7 @@
         <v>29</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>205</v>
@@ -3199,7 +3196,7 @@
         <v>30</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>205</v>
@@ -3220,7 +3217,7 @@
         <v>31</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>205</v>
@@ -3241,7 +3238,7 @@
         <v>32</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>205</v>
@@ -3262,7 +3259,7 @@
         <v>33</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>205</v>
@@ -3283,7 +3280,7 @@
         <v>34</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>205</v>
@@ -3304,7 +3301,7 @@
         <v>35</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>205</v>
@@ -3325,7 +3322,7 @@
         <v>36</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>205</v>
@@ -3346,7 +3343,7 @@
         <v>37</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>205</v>
@@ -3367,7 +3364,7 @@
         <v>38</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>205</v>
@@ -3389,7 +3386,7 @@
         <v>39</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>205</v>
@@ -3398,10 +3395,10 @@
         <v>130</v>
       </c>
       <c r="F40" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="G40" s="3" t="s">
         <v>267</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
@@ -3412,7 +3409,7 @@
         <v>40</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>205</v>
@@ -3421,7 +3418,7 @@
         <v>129</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G41" s="3"/>
     </row>
@@ -3433,7 +3430,7 @@
         <v>41</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>205</v>
@@ -3454,7 +3451,7 @@
         <v>42</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>205</v>
@@ -3467,215 +3464,215 @@
       </c>
       <c r="G43" s="3"/>
     </row>
-    <row r="44" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>43</v>
       </c>
-      <c r="B44" s="24">
+      <c r="B44" s="22">
         <v>43</v>
       </c>
-      <c r="C44" s="25" t="s">
-        <v>347</v>
-      </c>
-      <c r="D44" s="24" t="s">
-        <v>205</v>
-      </c>
-      <c r="E44" s="24" t="s">
+      <c r="C44" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="D44" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="E44" s="22" t="s">
+        <v>252</v>
+      </c>
+      <c r="F44" s="22" t="s">
         <v>253</v>
       </c>
-      <c r="F44" s="24" t="s">
+      <c r="G44" s="22"/>
+    </row>
+    <row r="45" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="17">
+        <v>44</v>
+      </c>
+      <c r="B45" s="17">
+        <v>44</v>
+      </c>
+      <c r="C45" s="18" t="s">
+        <v>289</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="E45" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="F45" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="G45" s="17"/>
+    </row>
+    <row r="46" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="17">
+        <v>45</v>
+      </c>
+      <c r="B46" s="17">
+        <v>45</v>
+      </c>
+      <c r="C46" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="E46" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="F46" s="17" t="s">
         <v>254</v>
       </c>
-      <c r="G44" s="24"/>
-    </row>
-    <row r="45" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="19">
-        <v>44</v>
-      </c>
-      <c r="B45" s="19">
-        <v>44</v>
-      </c>
-      <c r="C45" s="20" t="s">
-        <v>290</v>
-      </c>
-      <c r="D45" s="19" t="s">
-        <v>205</v>
-      </c>
-      <c r="E45" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="F45" s="19" t="s">
-        <v>201</v>
-      </c>
-      <c r="G45" s="19"/>
-    </row>
-    <row r="46" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="19">
-        <v>45</v>
-      </c>
-      <c r="B46" s="19">
-        <v>45</v>
-      </c>
-      <c r="C46" s="20" t="s">
+      <c r="G46" s="17"/>
+    </row>
+    <row r="47" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="17">
+        <v>46</v>
+      </c>
+      <c r="B47" s="17">
+        <v>46</v>
+      </c>
+      <c r="C47" s="24" t="s">
         <v>291</v>
       </c>
-      <c r="D46" s="19" t="s">
-        <v>205</v>
-      </c>
-      <c r="E46" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="F46" s="19" t="s">
-        <v>255</v>
-      </c>
-      <c r="G46" s="19"/>
-    </row>
-    <row r="47" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="19">
-        <v>46</v>
-      </c>
-      <c r="B47" s="19">
-        <v>46</v>
-      </c>
-      <c r="C47" s="27" t="s">
+      <c r="D47" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="E47" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="F47" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="G47" s="17"/>
+    </row>
+    <row r="48" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="17">
+        <v>47</v>
+      </c>
+      <c r="B48" s="17">
+        <v>47</v>
+      </c>
+      <c r="C48" s="24" t="s">
         <v>292</v>
       </c>
-      <c r="D47" s="19" t="s">
-        <v>205</v>
-      </c>
-      <c r="E47" s="19" t="s">
+      <c r="D48" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="E48" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="F47" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="G47" s="19"/>
-    </row>
-    <row r="48" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="19">
-        <v>47</v>
-      </c>
-      <c r="B48" s="19">
-        <v>47</v>
-      </c>
-      <c r="C48" s="27" t="s">
+      <c r="F48" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="G48" s="17"/>
+    </row>
+    <row r="49" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="17">
+        <v>48</v>
+      </c>
+      <c r="B49" s="17">
+        <v>48</v>
+      </c>
+      <c r="C49" s="24" t="s">
         <v>293</v>
       </c>
-      <c r="D48" s="19" t="s">
-        <v>205</v>
-      </c>
-      <c r="E48" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="F48" s="19" t="s">
+      <c r="D49" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="E49" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="F49" s="17" t="s">
         <v>200</v>
       </c>
-      <c r="G48" s="19"/>
-    </row>
-    <row r="49" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="19">
-        <v>48</v>
-      </c>
-      <c r="B49" s="19">
-        <v>48</v>
-      </c>
-      <c r="C49" s="27" t="s">
+      <c r="G49" s="17"/>
+    </row>
+    <row r="50" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="17">
+        <v>49</v>
+      </c>
+      <c r="B50" s="25">
+        <v>49</v>
+      </c>
+      <c r="C50" s="24" t="s">
         <v>294</v>
       </c>
-      <c r="D49" s="19" t="s">
-        <v>205</v>
-      </c>
-      <c r="E49" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="F49" s="19" t="s">
-        <v>200</v>
-      </c>
-      <c r="G49" s="19"/>
-    </row>
-    <row r="50" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="19">
-        <v>49</v>
-      </c>
-      <c r="B50" s="28">
-        <v>49</v>
-      </c>
-      <c r="C50" s="27" t="s">
+      <c r="D50" s="25" t="s">
+        <v>205</v>
+      </c>
+      <c r="E50" s="25" t="s">
+        <v>249</v>
+      </c>
+      <c r="F50" s="25" t="s">
+        <v>345</v>
+      </c>
+      <c r="G50" s="25"/>
+    </row>
+    <row r="51" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="17">
+        <v>50</v>
+      </c>
+      <c r="B51" s="25">
+        <v>50</v>
+      </c>
+      <c r="C51" s="24" t="s">
         <v>295</v>
       </c>
-      <c r="D50" s="28" t="s">
-        <v>205</v>
-      </c>
-      <c r="E50" s="28" t="s">
+      <c r="D51" s="25" t="s">
+        <v>205</v>
+      </c>
+      <c r="E51" s="25" t="s">
         <v>250</v>
       </c>
-      <c r="F50" s="28" t="s">
-        <v>346</v>
-      </c>
-      <c r="G50" s="28"/>
-    </row>
-    <row r="51" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="19">
-        <v>50</v>
-      </c>
-      <c r="B51" s="28">
-        <v>50</v>
-      </c>
-      <c r="C51" s="27" t="s">
+      <c r="F51" s="25" t="s">
+        <v>345</v>
+      </c>
+      <c r="G51" s="25"/>
+    </row>
+    <row r="52" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="17">
+        <v>51</v>
+      </c>
+      <c r="B52" s="17">
+        <v>51</v>
+      </c>
+      <c r="C52" s="18" t="s">
         <v>296</v>
       </c>
-      <c r="D51" s="28" t="s">
-        <v>205</v>
-      </c>
-      <c r="E51" s="28" t="s">
-        <v>251</v>
-      </c>
-      <c r="F51" s="28" t="s">
-        <v>346</v>
-      </c>
-      <c r="G51" s="28"/>
-    </row>
-    <row r="52" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="19">
-        <v>51</v>
-      </c>
-      <c r="B52" s="19">
-        <v>51</v>
-      </c>
-      <c r="C52" s="20" t="s">
+      <c r="D52" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="E52" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="F52" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="G52" s="17"/>
+    </row>
+    <row r="53" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="17">
+        <v>52</v>
+      </c>
+      <c r="B53" s="17">
+        <v>52</v>
+      </c>
+      <c r="C53" s="24" t="s">
         <v>297</v>
       </c>
-      <c r="D52" s="19" t="s">
-        <v>205</v>
-      </c>
-      <c r="E52" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="F52" s="19" t="s">
+      <c r="D53" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="E53" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="F53" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="G52" s="19"/>
-    </row>
-    <row r="53" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="19">
-        <v>52</v>
-      </c>
-      <c r="B53" s="19">
-        <v>52</v>
-      </c>
-      <c r="C53" s="27" t="s">
-        <v>298</v>
-      </c>
-      <c r="D53" s="19" t="s">
-        <v>205</v>
-      </c>
-      <c r="E53" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="F53" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="G53" s="19"/>
+      <c r="G53" s="17"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
@@ -3685,7 +3682,7 @@
         <v>53</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>205</v>
@@ -3706,7 +3703,7 @@
         <v>54</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>205</v>
@@ -3727,7 +3724,7 @@
         <v>55</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>205</v>
@@ -3748,7 +3745,7 @@
         <v>56</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>205</v>
@@ -3761,254 +3758,254 @@
       </c>
       <c r="G57" s="3"/>
     </row>
-    <row r="58" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <v>57</v>
       </c>
-      <c r="B58" s="19">
+      <c r="B58" s="17">
         <v>57</v>
       </c>
-      <c r="C58" s="22" t="s">
-        <v>303</v>
-      </c>
-      <c r="D58" s="23" t="s">
-        <v>205</v>
-      </c>
-      <c r="E58" s="23" t="s">
+      <c r="C58" s="20" t="s">
+        <v>302</v>
+      </c>
+      <c r="D58" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="E58" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="F58" s="23" t="s">
+      <c r="F58" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="G58" s="19"/>
-    </row>
-    <row r="59" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G58" s="17"/>
+    </row>
+    <row r="59" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <v>58</v>
       </c>
-      <c r="B59" s="19">
+      <c r="B59" s="17">
         <v>58</v>
       </c>
-      <c r="C59" s="22" t="s">
-        <v>304</v>
-      </c>
-      <c r="D59" s="23" t="s">
-        <v>205</v>
-      </c>
-      <c r="E59" s="23" t="s">
+      <c r="C59" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="D59" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="E59" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="F59" s="23" t="s">
+      <c r="F59" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="G59" s="19"/>
-    </row>
-    <row r="60" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G59" s="17"/>
+    </row>
+    <row r="60" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>59</v>
       </c>
-      <c r="B60" s="19">
+      <c r="B60" s="17">
         <v>59</v>
       </c>
-      <c r="C60" s="22" t="s">
-        <v>313</v>
-      </c>
-      <c r="D60" s="23" t="s">
-        <v>205</v>
-      </c>
-      <c r="E60" s="23" t="s">
-        <v>310</v>
-      </c>
-      <c r="F60" s="23" t="s">
+      <c r="C60" s="20" t="s">
+        <v>312</v>
+      </c>
+      <c r="D60" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="E60" s="21" t="s">
+        <v>309</v>
+      </c>
+      <c r="F60" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="G60" s="19"/>
-    </row>
-    <row r="61" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G60" s="17"/>
+    </row>
+    <row r="61" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>60</v>
       </c>
-      <c r="B61" s="19">
+      <c r="B61" s="17">
         <v>60</v>
       </c>
-      <c r="C61" s="22" t="s">
-        <v>314</v>
-      </c>
-      <c r="D61" s="23" t="s">
-        <v>205</v>
-      </c>
-      <c r="E61" s="23" t="s">
+      <c r="C61" s="20" t="s">
+        <v>313</v>
+      </c>
+      <c r="D61" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="E61" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="F61" s="23" t="s">
+      <c r="F61" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="G61" s="19"/>
-    </row>
-    <row r="62" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G61" s="17"/>
+    </row>
+    <row r="62" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
         <v>61</v>
       </c>
-      <c r="B62" s="19">
+      <c r="B62" s="17">
         <v>61</v>
       </c>
-      <c r="C62" s="27" t="s">
-        <v>312</v>
-      </c>
-      <c r="D62" s="19" t="s">
-        <v>205</v>
-      </c>
-      <c r="E62" s="19" t="s">
+      <c r="C62" s="24" t="s">
+        <v>311</v>
+      </c>
+      <c r="D62" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="E62" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="F62" s="19" t="s">
-        <v>264</v>
-      </c>
-      <c r="G62" s="19"/>
-    </row>
-    <row r="63" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F62" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="G62" s="17"/>
+    </row>
+    <row r="63" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
         <v>62</v>
       </c>
-      <c r="B63" s="19">
+      <c r="B63" s="17">
         <v>62</v>
       </c>
-      <c r="C63" s="20" t="s">
-        <v>340</v>
-      </c>
-      <c r="D63" s="19" t="s">
-        <v>205</v>
-      </c>
-      <c r="E63" s="19" t="s">
-        <v>309</v>
-      </c>
-      <c r="F63" s="19" t="s">
+      <c r="C63" s="18" t="s">
+        <v>339</v>
+      </c>
+      <c r="D63" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="E63" s="17" t="s">
+        <v>308</v>
+      </c>
+      <c r="F63" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="G63" s="19"/>
-    </row>
-    <row r="64" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G63" s="17"/>
+    </row>
+    <row r="64" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
         <v>63</v>
       </c>
-      <c r="B64" s="19">
+      <c r="B64" s="17">
         <v>63</v>
       </c>
-      <c r="C64" s="27" t="s">
-        <v>315</v>
-      </c>
-      <c r="D64" s="19" t="s">
-        <v>205</v>
-      </c>
-      <c r="E64" s="19" t="s">
+      <c r="C64" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="D64" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="E64" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="F64" s="19" t="s">
+      <c r="F64" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="G64" s="19"/>
-    </row>
-    <row r="65" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G64" s="17"/>
+    </row>
+    <row r="65" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
         <v>64</v>
       </c>
-      <c r="B65" s="19">
+      <c r="B65" s="17">
         <v>64</v>
       </c>
-      <c r="C65" s="27" t="s">
-        <v>316</v>
-      </c>
-      <c r="D65" s="19" t="s">
-        <v>205</v>
-      </c>
-      <c r="E65" s="19" t="s">
+      <c r="C65" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="D65" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="E65" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="F65" s="19" t="s">
-        <v>261</v>
-      </c>
-      <c r="G65" s="19"/>
-    </row>
-    <row r="66" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F65" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="G65" s="17"/>
+    </row>
+    <row r="66" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
         <v>65</v>
       </c>
-      <c r="B66" s="19">
+      <c r="B66" s="17">
         <v>65</v>
       </c>
-      <c r="C66" s="20" t="s">
-        <v>341</v>
-      </c>
-      <c r="D66" s="19" t="s">
-        <v>205</v>
-      </c>
-      <c r="E66" s="19" t="s">
-        <v>308</v>
-      </c>
-      <c r="F66" s="19" t="s">
-        <v>261</v>
-      </c>
-      <c r="G66" s="19"/>
-    </row>
-    <row r="67" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C66" s="18" t="s">
+        <v>340</v>
+      </c>
+      <c r="D66" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="E66" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="F66" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="G66" s="17"/>
+    </row>
+    <row r="67" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
         <v>66</v>
       </c>
-      <c r="B67" s="19">
+      <c r="B67" s="17">
         <v>66</v>
       </c>
-      <c r="C67" s="20" t="s">
-        <v>317</v>
-      </c>
-      <c r="D67" s="19" t="s">
-        <v>205</v>
-      </c>
-      <c r="E67" s="19" t="s">
+      <c r="C67" s="18" t="s">
+        <v>316</v>
+      </c>
+      <c r="D67" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="E67" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="F67" s="19" t="s">
+      <c r="F67" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="G67" s="19"/>
-    </row>
-    <row r="68" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G67" s="17"/>
+    </row>
+    <row r="68" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
         <v>67</v>
       </c>
-      <c r="B68" s="19">
+      <c r="B68" s="17">
         <v>67</v>
       </c>
-      <c r="C68" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="D68" s="19" t="s">
-        <v>205</v>
-      </c>
-      <c r="E68" s="19" t="s">
+      <c r="C68" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="D68" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="E68" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="F68" s="19" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F68" s="17" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
         <v>68</v>
       </c>
-      <c r="B69" s="19">
+      <c r="B69" s="17">
         <v>68</v>
       </c>
-      <c r="C69" s="20" t="s">
-        <v>342</v>
-      </c>
-      <c r="D69" s="19" t="s">
-        <v>205</v>
-      </c>
-      <c r="E69" s="19" t="s">
-        <v>307</v>
-      </c>
-      <c r="F69" s="19" t="s">
-        <v>262</v>
+      <c r="C69" s="18" t="s">
+        <v>341</v>
+      </c>
+      <c r="D69" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="E69" s="17" t="s">
+        <v>306</v>
+      </c>
+      <c r="F69" s="17" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
@@ -4019,13 +4016,13 @@
         <v>69</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>205</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F70" s="3" t="s">
         <v>171</v>
@@ -4039,13 +4036,13 @@
         <v>70</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>205</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F71" s="3" t="s">
         <v>164</v>
@@ -4060,13 +4057,13 @@
         <v>71</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>205</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>172</v>
@@ -4081,13 +4078,13 @@
         <v>72</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>205</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F73" s="3" t="s">
         <v>161</v>
@@ -4102,13 +4099,13 @@
         <v>73</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>205</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F74" s="3" t="s">
         <v>162</v>
@@ -4123,13 +4120,13 @@
         <v>74</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>205</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F75" s="3" t="s">
         <v>169</v>
@@ -4144,13 +4141,13 @@
         <v>75</v>
       </c>
       <c r="C76" s="14" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>205</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>170</v>
@@ -4165,13 +4162,13 @@
         <v>76</v>
       </c>
       <c r="C77" s="14" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>205</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F77" s="3" t="s">
         <v>168</v>
@@ -4186,13 +4183,13 @@
         <v>77</v>
       </c>
       <c r="C78" s="14" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>205</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F78" s="3" t="s">
         <v>164</v>
@@ -4207,13 +4204,13 @@
         <v>78</v>
       </c>
       <c r="C79" s="14" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>205</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F79" s="3" t="s">
         <v>167</v>
@@ -4228,13 +4225,13 @@
         <v>79</v>
       </c>
       <c r="C80" s="14" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>205</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F80" s="3" t="s">
         <v>166</v>
@@ -4249,13 +4246,13 @@
         <v>80</v>
       </c>
       <c r="C81" s="14" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>205</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>165</v>
@@ -4270,13 +4267,13 @@
         <v>81</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>205</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F82" s="3" t="s">
         <v>161</v>
@@ -4291,13 +4288,13 @@
         <v>82</v>
       </c>
       <c r="C83" s="14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>205</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>162</v>
@@ -4312,13 +4309,13 @@
         <v>83</v>
       </c>
       <c r="C84" s="14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>205</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F84" s="3" t="s">
         <v>163</v>
@@ -4333,7 +4330,7 @@
         <v>84</v>
       </c>
       <c r="C85" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>205</v>
@@ -4354,7 +4351,7 @@
         <v>85</v>
       </c>
       <c r="C86" s="14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D86" s="3" t="s">
         <v>205</v>
@@ -4375,7 +4372,7 @@
         <v>86</v>
       </c>
       <c r="C87" s="14" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>205</v>
@@ -4396,7 +4393,7 @@
         <v>87</v>
       </c>
       <c r="C88" s="14" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>205</v>
@@ -4417,7 +4414,7 @@
         <v>88</v>
       </c>
       <c r="C89" s="14" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>205</v>
@@ -4438,7 +4435,7 @@
         <v>89</v>
       </c>
       <c r="C90" s="14" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D90" s="3" t="s">
         <v>205</v>
@@ -4463,7 +4460,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.2"/>
@@ -4480,12 +4477,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
       <c r="F1" s="10" t="s">
         <v>37</v>
       </c>

--- a/doc/formal_language.xlsx
+++ b/doc/formal_language.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64F7F9DB-E057-4C07-9513-DFF9335D1352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55AA0949-0BE5-4F72-B7F0-1586CEDAA934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="606" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="606" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="formal_language" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="350">
   <si>
     <t>#</t>
   </si>
@@ -239,18 +239,6 @@
   </si>
   <si>
     <t>幂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cos</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tan</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -275,22 +263,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Mul(Var1,Var2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Div(Var1,Var2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tan(Var)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sin(Var)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Point(A)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -331,30 +303,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Add(Var1,Var2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pow(Var1,Var2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cos(Var)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Sum(Var1,Var2,...)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Average(Var1,Var2,...)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sub(Var1,Var2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Literal templates</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1350,6 +1302,62 @@
   </si>
   <si>
     <t>Bisector(Line($),Angle($))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add(expr1,expr2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sub(expr1,expr2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mul(expr1,expr2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Div(expr1,expr2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pow(expr1,expr2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sin(expr)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cos(expr)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tan(expr)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自由变量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正弦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>余弦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正切</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Avg(Var1,Var2,...)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1829,10 +1837,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D68"/>
+  <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+    <sheetView topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="95.5" defaultRowHeight="20.25" x14ac:dyDescent="0.2"/>
@@ -1846,7 +1854,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A1" s="28" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
@@ -1871,13 +1879,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1885,13 +1893,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
@@ -1924,7 +1932,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D9" s="3"/>
     </row>
@@ -1936,10 +1944,10 @@
         <v>7</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -1950,21 +1958,21 @@
         <v>25</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>45</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>46</v>
@@ -1972,13 +1980,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>47</v>
@@ -1986,13 +1994,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>35</v>
@@ -2000,25 +2008,25 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="D16" s="3"/>
     </row>
@@ -2049,10 +2057,10 @@
         <v>1</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="D21" s="5"/>
     </row>
@@ -2061,10 +2069,10 @@
         <v>2</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="D22" s="5"/>
     </row>
@@ -2073,10 +2081,10 @@
         <v>3</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="D23" s="5"/>
     </row>
@@ -2085,10 +2093,10 @@
         <v>4</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="D24" s="5"/>
     </row>
@@ -2097,13 +2105,13 @@
         <v>5</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
@@ -2122,7 +2130,7 @@
         <v>4</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>5</v>
@@ -2136,7 +2144,7 @@
         <v>8</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="D30" s="3"/>
     </row>
@@ -2148,7 +2156,7 @@
         <v>30</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="D31" s="5"/>
     </row>
@@ -2160,7 +2168,7 @@
         <v>14</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="D32" s="3"/>
     </row>
@@ -2184,10 +2192,10 @@
         <v>18</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -2198,7 +2206,7 @@
         <v>17</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="D35" s="3"/>
     </row>
@@ -2210,7 +2218,7 @@
         <v>19</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="D36" s="3"/>
     </row>
@@ -2219,10 +2227,10 @@
         <v>8</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C37" s="27" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="D37" s="5"/>
     </row>
@@ -2231,10 +2239,10 @@
         <v>9</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="D38" s="3"/>
     </row>
@@ -2246,7 +2254,7 @@
         <v>9</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>26</v>
@@ -2260,7 +2268,7 @@
         <v>10</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>27</v>
@@ -2274,7 +2282,7 @@
         <v>11</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>29</v>
@@ -2288,7 +2296,7 @@
         <v>12</v>
       </c>
       <c r="C42" s="17" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>28</v>
@@ -2299,10 +2307,10 @@
         <v>14</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="D43" s="3"/>
     </row>
@@ -2311,39 +2319,39 @@
         <v>15</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="D44" s="3"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -2382,10 +2390,10 @@
         <v>48</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>74</v>
+        <v>336</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -2396,10 +2404,10 @@
         <v>49</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>79</v>
+        <v>337</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -2410,10 +2418,10 @@
         <v>50</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>60</v>
+        <v>338</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -2424,10 +2432,10 @@
         <v>51</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>61</v>
+        <v>339</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -2438,10 +2446,10 @@
         <v>52</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>75</v>
+        <v>340</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -2449,13 +2457,13 @@
         <v>6</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>53</v>
+        <v>346</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>63</v>
+        <v>341</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -2463,13 +2471,13 @@
         <v>7</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>54</v>
+        <v>347</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>76</v>
+        <v>342</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -2477,13 +2485,13 @@
         <v>8</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>55</v>
+        <v>348</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>62</v>
+        <v>343</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -2491,13 +2499,13 @@
         <v>9</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -2505,93 +2513,107 @@
         <v>10</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>72</v>
+        <v>344</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>93</v>
+        <v>345</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>123</v>
+        <v>345</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>11</v>
       </c>
-      <c r="B61" s="4" t="s">
-        <v>58</v>
+      <c r="B61" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D61" s="3"/>
+        <v>81</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
         <v>12</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="D62" s="3"/>
     </row>
-    <row r="63" spans="1:4" ht="81" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
         <v>13</v>
       </c>
       <c r="B63" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="D63" s="3"/>
+    </row>
+    <row r="64" spans="1:4" ht="81" x14ac:dyDescent="0.2">
+      <c r="A64" s="3">
+        <v>14</v>
+      </c>
+      <c r="B64" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C64" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D63" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="3">
-        <v>13</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>214</v>
-      </c>
       <c r="D64" s="5" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A67" s="28" t="s">
-        <v>212</v>
-      </c>
-      <c r="B67" s="28"/>
-      <c r="C67" s="28"/>
-      <c r="D67" s="28"/>
-    </row>
-    <row r="68" spans="1:4" ht="60.75" x14ac:dyDescent="0.2">
-      <c r="A68" s="3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="3">
+        <v>15</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A68" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="B68" s="28"/>
+      <c r="C68" s="28"/>
+      <c r="D68" s="28"/>
+    </row>
+    <row r="69" spans="1:4" ht="60.75" x14ac:dyDescent="0.2">
+      <c r="A69" s="3">
         <v>14</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="B69" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="C69" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D68" s="5" t="s">
-        <v>57</v>
+      <c r="D69" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A67:D67"/>
+    <mergeCell ref="A68:D68"/>
     <mergeCell ref="A7:D7"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A19:D19"/>
@@ -2607,8 +2629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62602098-5D29-4DB6-92C7-0F20F150EACE}">
   <dimension ref="A1:H90"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.2"/>
@@ -2625,22 +2647,22 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>3</v>
@@ -2654,13 +2676,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -2673,13 +2695,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -2692,13 +2714,13 @@
         <v>3</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -2711,16 +2733,16 @@
         <v>4</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="G5" s="3"/>
     </row>
@@ -2732,16 +2754,16 @@
         <v>5</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="G6" s="3"/>
     </row>
@@ -2753,10 +2775,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -2770,10 +2792,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -2787,10 +2809,10 @@
         <v>8</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -2804,10 +2826,10 @@
         <v>9</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -2821,10 +2843,10 @@
         <v>10</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -2838,10 +2860,10 @@
         <v>11</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -2855,10 +2877,10 @@
         <v>12</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -2872,10 +2894,10 @@
         <v>13</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -2889,10 +2911,10 @@
         <v>14</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -2906,10 +2928,10 @@
         <v>15</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -2923,10 +2945,10 @@
         <v>16</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -2940,10 +2962,10 @@
         <v>17</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -2957,10 +2979,10 @@
         <v>18</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -2974,10 +2996,10 @@
         <v>19</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -2991,10 +3013,10 @@
         <v>20</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -3008,16 +3030,16 @@
         <v>21</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="G22" s="3"/>
     </row>
@@ -3029,16 +3051,16 @@
         <v>22</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -3049,16 +3071,16 @@
         <v>23</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="G24" s="3"/>
     </row>
@@ -3070,16 +3092,16 @@
         <v>24</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="G25" s="3"/>
     </row>
@@ -3091,16 +3113,16 @@
         <v>25</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="G26" s="3"/>
     </row>
@@ -3112,16 +3134,16 @@
         <v>26</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="G27" s="3"/>
     </row>
@@ -3133,16 +3155,16 @@
         <v>27</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="G28" s="3"/>
     </row>
@@ -3154,16 +3176,16 @@
         <v>28</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="G29" s="3"/>
     </row>
@@ -3175,16 +3197,16 @@
         <v>29</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="G30" s="3"/>
     </row>
@@ -3196,16 +3218,16 @@
         <v>30</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="G31" s="3"/>
     </row>
@@ -3217,16 +3239,16 @@
         <v>31</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="G32" s="3"/>
     </row>
@@ -3238,16 +3260,16 @@
         <v>32</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="G33" s="3"/>
     </row>
@@ -3259,16 +3281,16 @@
         <v>33</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="G34" s="3"/>
     </row>
@@ -3280,16 +3302,16 @@
         <v>34</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="G35" s="3"/>
     </row>
@@ -3301,16 +3323,16 @@
         <v>35</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="G36" s="3"/>
     </row>
@@ -3322,16 +3344,16 @@
         <v>36</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="G37" s="3"/>
     </row>
@@ -3343,16 +3365,16 @@
         <v>37</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="G38" s="3"/>
     </row>
@@ -3364,16 +3386,16 @@
         <v>38</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="G39" s="3"/>
       <c r="H39" s="7"/>
@@ -3386,19 +3408,19 @@
         <v>39</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
@@ -3409,16 +3431,16 @@
         <v>40</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="G41" s="3"/>
     </row>
@@ -3430,16 +3452,16 @@
         <v>41</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="G42" s="3"/>
     </row>
@@ -3451,16 +3473,16 @@
         <v>42</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="G43" s="3"/>
     </row>
@@ -3472,16 +3494,16 @@
         <v>43</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="D44" s="22" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="E44" s="22" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="F44" s="22" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="G44" s="22"/>
     </row>
@@ -3493,16 +3515,16 @@
         <v>44</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="E45" s="17" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="F45" s="17" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="G45" s="17"/>
     </row>
@@ -3514,16 +3536,16 @@
         <v>45</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="E46" s="17" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="F46" s="17" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="G46" s="17"/>
     </row>
@@ -3535,16 +3557,16 @@
         <v>46</v>
       </c>
       <c r="C47" s="24" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="E47" s="17" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="F47" s="17" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="G47" s="17"/>
     </row>
@@ -3556,16 +3578,16 @@
         <v>47</v>
       </c>
       <c r="C48" s="24" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="E48" s="17" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="F48" s="17" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="G48" s="17"/>
     </row>
@@ -3577,16 +3599,16 @@
         <v>48</v>
       </c>
       <c r="C49" s="24" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="E49" s="17" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="F49" s="17" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="G49" s="17"/>
     </row>
@@ -3598,16 +3620,16 @@
         <v>49</v>
       </c>
       <c r="C50" s="24" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="D50" s="25" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="E50" s="25" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="F50" s="25" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="G50" s="25"/>
     </row>
@@ -3619,16 +3641,16 @@
         <v>50</v>
       </c>
       <c r="C51" s="24" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="D51" s="25" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="E51" s="25" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="F51" s="25" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="G51" s="25"/>
     </row>
@@ -3640,16 +3662,16 @@
         <v>51</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="E52" s="17" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="F52" s="17" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="G52" s="17"/>
     </row>
@@ -3661,16 +3683,16 @@
         <v>52</v>
       </c>
       <c r="C53" s="24" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="E53" s="17" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="F53" s="17" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="G53" s="17"/>
     </row>
@@ -3682,16 +3704,16 @@
         <v>53</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="G54" s="3"/>
     </row>
@@ -3703,16 +3725,16 @@
         <v>54</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="G55" s="3"/>
     </row>
@@ -3724,16 +3746,16 @@
         <v>55</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="G56" s="3"/>
     </row>
@@ -3745,16 +3767,16 @@
         <v>56</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="G57" s="3"/>
     </row>
@@ -3766,16 +3788,16 @@
         <v>57</v>
       </c>
       <c r="C58" s="20" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="D58" s="21" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="E58" s="21" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="F58" s="21" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="G58" s="17"/>
     </row>
@@ -3787,13 +3809,13 @@
         <v>58</v>
       </c>
       <c r="C59" s="20" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="D59" s="21" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="E59" s="21" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="F59" s="21" t="s">
         <v>26</v>
@@ -3808,13 +3830,13 @@
         <v>59</v>
       </c>
       <c r="C60" s="20" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="D60" s="21" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="E60" s="21" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="F60" s="21" t="s">
         <v>26</v>
@@ -3829,16 +3851,16 @@
         <v>60</v>
       </c>
       <c r="C61" s="20" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="D61" s="21" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="E61" s="21" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="F61" s="21" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="G61" s="17"/>
     </row>
@@ -3850,16 +3872,16 @@
         <v>61</v>
       </c>
       <c r="C62" s="24" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="E62" s="17" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="F62" s="17" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="G62" s="17"/>
     </row>
@@ -3871,13 +3893,13 @@
         <v>62</v>
       </c>
       <c r="C63" s="18" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="E63" s="17" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="F63" s="17" t="s">
         <v>27</v>
@@ -3892,16 +3914,16 @@
         <v>63</v>
       </c>
       <c r="C64" s="24" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="E64" s="17" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="F64" s="17" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="G64" s="17"/>
     </row>
@@ -3913,16 +3935,16 @@
         <v>64</v>
       </c>
       <c r="C65" s="24" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="E65" s="17" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="F65" s="17" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="G65" s="17"/>
     </row>
@@ -3934,16 +3956,16 @@
         <v>65</v>
       </c>
       <c r="C66" s="18" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="E66" s="17" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="F66" s="17" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="G66" s="17"/>
     </row>
@@ -3955,16 +3977,16 @@
         <v>66</v>
       </c>
       <c r="C67" s="18" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="E67" s="17" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="F67" s="17" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="G67" s="17"/>
     </row>
@@ -3976,16 +3998,16 @@
         <v>67</v>
       </c>
       <c r="C68" s="18" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="E68" s="17" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="F68" s="17" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
     </row>
     <row r="69" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
@@ -3996,16 +4018,16 @@
         <v>68</v>
       </c>
       <c r="C69" s="18" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="E69" s="17" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="F69" s="17" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
@@ -4016,16 +4038,16 @@
         <v>69</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
@@ -4036,16 +4058,16 @@
         <v>70</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="G71" s="3"/>
     </row>
@@ -4057,16 +4079,16 @@
         <v>71</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="G72" s="3"/>
     </row>
@@ -4078,16 +4100,16 @@
         <v>72</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="G73" s="3"/>
     </row>
@@ -4099,16 +4121,16 @@
         <v>73</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="G74" s="3"/>
     </row>
@@ -4120,16 +4142,16 @@
         <v>74</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="G75" s="3"/>
     </row>
@@ -4141,16 +4163,16 @@
         <v>75</v>
       </c>
       <c r="C76" s="14" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="G76" s="3"/>
     </row>
@@ -4162,16 +4184,16 @@
         <v>76</v>
       </c>
       <c r="C77" s="14" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="G77" s="3"/>
     </row>
@@ -4183,16 +4205,16 @@
         <v>77</v>
       </c>
       <c r="C78" s="14" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="G78" s="3"/>
     </row>
@@ -4204,16 +4226,16 @@
         <v>78</v>
       </c>
       <c r="C79" s="14" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="G79" s="3"/>
     </row>
@@ -4225,16 +4247,16 @@
         <v>79</v>
       </c>
       <c r="C80" s="14" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="G80" s="3"/>
     </row>
@@ -4246,16 +4268,16 @@
         <v>80</v>
       </c>
       <c r="C81" s="14" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="G81" s="3"/>
     </row>
@@ -4267,16 +4289,16 @@
         <v>81</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="G82" s="3"/>
     </row>
@@ -4288,16 +4310,16 @@
         <v>82</v>
       </c>
       <c r="C83" s="14" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="G83" s="3"/>
     </row>
@@ -4309,16 +4331,16 @@
         <v>83</v>
       </c>
       <c r="C84" s="14" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="G84" s="3"/>
     </row>
@@ -4330,16 +4352,16 @@
         <v>84</v>
       </c>
       <c r="C85" s="14" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="G85" s="3"/>
     </row>
@@ -4351,16 +4373,16 @@
         <v>85</v>
       </c>
       <c r="C86" s="14" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="G86" s="3"/>
     </row>
@@ -4372,16 +4394,16 @@
         <v>86</v>
       </c>
       <c r="C87" s="14" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="G87" s="3"/>
     </row>
@@ -4393,16 +4415,16 @@
         <v>87</v>
       </c>
       <c r="C88" s="14" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="G88" s="3"/>
     </row>
@@ -4414,16 +4436,16 @@
         <v>88</v>
       </c>
       <c r="C89" s="14" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="G89" s="3"/>
     </row>
@@ -4435,16 +4457,16 @@
         <v>89</v>
       </c>
       <c r="C90" s="14" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="G90" s="3"/>
     </row>
@@ -4498,7 +4520,7 @@
         <v>41</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>42</v>
@@ -4513,40 +4535,40 @@
         <v>-1</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F3" s="10" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="G3" s="10">
         <v>-2</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F4" s="10" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F5" s="10" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="G5" s="10">
         <v>-3</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/doc/formal_language.xlsx
+++ b/doc/formal_language.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55AA0949-0BE5-4F72-B7F0-1586CEDAA934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB6B7C42-FEDC-4FEE-9B6D-61C682310ED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="606" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="352">
   <si>
     <t>#</t>
   </si>
@@ -1031,14 +1031,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>nous_4_intersect_extend</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nous_5_perpendicular_extend</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>内错角相等、同旁内角互补</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1358,6 +1350,22 @@
   </si>
   <si>
     <t>Avg(Var1,Var2,...)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nous_5_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nous_4_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点到直线的距离(扩展属性)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Distance(Point(O), Line(AB))</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1365,7 +1373,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1418,27 +1426,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="16"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1468,7 +1462,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1518,44 +1512,38 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1837,28 +1825,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D69"/>
+  <dimension ref="A1:D70"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="95.5" defaultRowHeight="20.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.25" style="8" customWidth="1"/>
     <col min="3" max="3" width="58.375" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="83.625" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="95.5" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
     </row>
     <row r="2" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -1903,12 +1891,12 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
     </row>
     <row r="8" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -2031,12 +2019,12 @@
       <c r="D16" s="3"/>
     </row>
     <row r="19" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="28" t="s">
+      <c r="A19" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
@@ -2114,510 +2102,525 @@
         <v>104</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="28" t="s">
+    <row r="26" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="17">
+        <v>6</v>
+      </c>
+      <c r="B26" s="27" t="s">
+        <v>350</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>351</v>
+      </c>
+      <c r="D26" s="17"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="25"/>
+    </row>
+    <row r="29" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A29" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B30" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="3">
-        <v>1</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D31" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" s="3"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D32" s="3"/>
+        <v>30</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D32" s="5"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="D33" s="3"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
-        <v>5</v>
-      </c>
-      <c r="B34" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C34" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>239</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D34" s="3"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
-        <v>6</v>
-      </c>
-      <c r="B35" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C35" s="17" t="s">
-        <v>335</v>
-      </c>
-      <c r="D35" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="B35" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
-        <v>7</v>
-      </c>
-      <c r="B36" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C36" s="17" t="s">
-        <v>76</v>
+        <v>6</v>
+      </c>
+      <c r="B36" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="21" t="s">
+        <v>333</v>
       </c>
       <c r="D36" s="3"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
-        <v>8</v>
-      </c>
-      <c r="B37" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="C37" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="D37" s="5"/>
+        <v>7</v>
+      </c>
+      <c r="B37" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="D37" s="3"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
-        <v>9</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D38" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="B38" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C38" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="D38" s="5"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
-        <v>10</v>
-      </c>
-      <c r="B39" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C39" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="B39" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="C39" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="D39" s="3"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
-        <v>11</v>
-      </c>
-      <c r="B40" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C40" s="17" t="s">
-        <v>71</v>
+      <c r="B40" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="21" t="s">
+        <v>70</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
-        <v>12</v>
-      </c>
-      <c r="B41" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C41" s="17" t="s">
-        <v>72</v>
+      <c r="B41" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="21" t="s">
+        <v>71</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
-        <v>13</v>
-      </c>
-      <c r="B42" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C42" s="17" t="s">
-        <v>73</v>
+      <c r="B42" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="21" t="s">
+        <v>72</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
-        <v>14</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D43" s="3"/>
+        <v>13</v>
+      </c>
+      <c r="B43" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D44" s="3"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>235</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="D45" s="3"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
+        <v>16</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="3">
         <v>17</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B47" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C47" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D47" s="3" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B47" s="6"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B48" s="6"/>
     </row>
-    <row r="49" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A49" s="28" t="s">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B49" s="6"/>
+    </row>
+    <row r="50" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A50" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B49" s="28"/>
-      <c r="C49" s="28"/>
-      <c r="D49" s="28"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
+      <c r="B50" s="19"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="19"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B51" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C51" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D51" s="1" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="3">
-        <v>1</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>346</v>
+        <v>52</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>81</v>
+        <v>340</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
-        <v>9</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>66</v>
+        <v>8</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>346</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>80</v>
+        <v>341</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>344</v>
+        <v>66</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>345</v>
+        <v>80</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>345</v>
+        <v>80</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>65</v>
+        <v>342</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>81</v>
+        <v>343</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>111</v>
+        <v>343</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
-        <v>12</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>55</v>
+        <v>11</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D62" s="3"/>
+        <v>81</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
+        <v>12</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D63" s="3"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="3">
         <v>13</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B64" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C63" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="D63" s="3"/>
-    </row>
-    <row r="64" spans="1:4" ht="81" x14ac:dyDescent="0.2">
-      <c r="A64" s="3">
+      <c r="C64" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="D64" s="3"/>
+    </row>
+    <row r="65" spans="1:4" ht="81" x14ac:dyDescent="0.2">
+      <c r="A65" s="3">
         <v>14</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="B65" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="C65" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D64" s="5" t="s">
+      <c r="D65" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="3">
         <v>15</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="B66" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="C66" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="D65" s="5" t="s">
+      <c r="D66" s="5" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A68" s="28" t="s">
+    <row r="69" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A69" s="19" t="s">
         <v>200</v>
       </c>
-      <c r="B68" s="28"/>
-      <c r="C68" s="28"/>
-      <c r="D68" s="28"/>
-    </row>
-    <row r="69" spans="1:4" ht="60.75" x14ac:dyDescent="0.2">
-      <c r="A69" s="3">
+      <c r="B69" s="19"/>
+      <c r="C69" s="19"/>
+      <c r="D69" s="19"/>
+    </row>
+    <row r="70" spans="1:4" ht="60.75" x14ac:dyDescent="0.2">
+      <c r="A70" s="3">
         <v>14</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="B70" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="C70" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D69" s="5" t="s">
+      <c r="D70" s="5" t="s">
         <v>54</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A68:D68"/>
+    <mergeCell ref="A69:D69"/>
     <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A29:D29"/>
     <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A50:D50"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2629,8 +2632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62602098-5D29-4DB6-92C7-0F20F150EACE}">
   <dimension ref="A1:H90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.2"/>
@@ -2650,7 +2653,7 @@
         <v>247</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>186</v>
@@ -2733,7 +2736,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>252</v>
+        <v>349</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>191</v>
@@ -2754,7 +2757,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>253</v>
+        <v>348</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>191</v>
@@ -2775,7 +2778,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>191</v>
@@ -3051,7 +3054,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>193</v>
@@ -3060,7 +3063,7 @@
         <v>121</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -3071,7 +3074,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>193</v>
@@ -3092,7 +3095,7 @@
         <v>24</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>193</v>
@@ -3101,7 +3104,7 @@
         <v>124</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G25" s="3"/>
     </row>
@@ -3113,7 +3116,7 @@
         <v>25</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>193</v>
@@ -3122,7 +3125,7 @@
         <v>124</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G26" s="3"/>
     </row>
@@ -3134,7 +3137,7 @@
         <v>26</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>193</v>
@@ -3155,7 +3158,7 @@
         <v>27</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>193</v>
@@ -3164,7 +3167,7 @@
         <v>125</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G28" s="3"/>
     </row>
@@ -3176,7 +3179,7 @@
         <v>28</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>193</v>
@@ -3197,7 +3200,7 @@
         <v>29</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>193</v>
@@ -3218,7 +3221,7 @@
         <v>30</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>193</v>
@@ -3239,7 +3242,7 @@
         <v>31</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>193</v>
@@ -3260,7 +3263,7 @@
         <v>32</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>193</v>
@@ -3281,7 +3284,7 @@
         <v>33</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>193</v>
@@ -3302,7 +3305,7 @@
         <v>34</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>193</v>
@@ -3323,7 +3326,7 @@
         <v>35</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>193</v>
@@ -3344,7 +3347,7 @@
         <v>36</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>193</v>
@@ -3365,7 +3368,7 @@
         <v>37</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>193</v>
@@ -3386,7 +3389,7 @@
         <v>38</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>193</v>
@@ -3408,7 +3411,7 @@
         <v>39</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>193</v>
@@ -3417,10 +3420,10 @@
         <v>118</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
@@ -3431,7 +3434,7 @@
         <v>40</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>193</v>
@@ -3440,7 +3443,7 @@
         <v>117</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G41" s="3"/>
     </row>
@@ -3451,8 +3454,8 @@
       <c r="B42" s="3">
         <v>41</v>
       </c>
-      <c r="C42" s="13" t="s">
-        <v>275</v>
+      <c r="C42" s="14" t="s">
+        <v>273</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>193</v>
@@ -3473,7 +3476,7 @@
         <v>42</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>193</v>
@@ -3486,215 +3489,215 @@
       </c>
       <c r="G43" s="3"/>
     </row>
-    <row r="44" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>43</v>
       </c>
-      <c r="B44" s="22">
+      <c r="B44" s="3">
         <v>43</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="D44" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="E44" s="22" t="s">
+        <v>332</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E44" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="F44" s="22" t="s">
+      <c r="F44" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="G44" s="22"/>
-    </row>
-    <row r="45" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="17">
+      <c r="G44" s="3"/>
+    </row>
+    <row r="45" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="3">
         <v>44</v>
       </c>
-      <c r="B45" s="17">
+      <c r="B45" s="3">
         <v>44</v>
       </c>
-      <c r="C45" s="18" t="s">
+      <c r="C45" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="D45" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="E45" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="F45" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="G45" s="21"/>
+    </row>
+    <row r="46" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="3">
+        <v>45</v>
+      </c>
+      <c r="B46" s="3">
+        <v>45</v>
+      </c>
+      <c r="C46" s="24" t="s">
+        <v>276</v>
+      </c>
+      <c r="D46" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="E46" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="F46" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="G46" s="21"/>
+    </row>
+    <row r="47" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="3">
+        <v>46</v>
+      </c>
+      <c r="B47" s="3">
+        <v>46</v>
+      </c>
+      <c r="C47" s="24" t="s">
         <v>277</v>
       </c>
-      <c r="D45" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="E45" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="F45" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="G45" s="17"/>
-    </row>
-    <row r="46" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="17">
-        <v>45</v>
-      </c>
-      <c r="B46" s="17">
-        <v>45</v>
-      </c>
-      <c r="C46" s="18" t="s">
+      <c r="D47" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="E47" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="F47" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="G47" s="21"/>
+    </row>
+    <row r="48" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="3">
+        <v>47</v>
+      </c>
+      <c r="B48" s="3">
+        <v>47</v>
+      </c>
+      <c r="C48" s="24" t="s">
         <v>278</v>
       </c>
-      <c r="D46" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="E46" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="F46" s="17" t="s">
-        <v>242</v>
-      </c>
-      <c r="G46" s="17"/>
-    </row>
-    <row r="47" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="17">
-        <v>46</v>
-      </c>
-      <c r="B47" s="17">
-        <v>46</v>
-      </c>
-      <c r="C47" s="24" t="s">
+      <c r="D48" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="E48" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="F48" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="G48" s="21"/>
+    </row>
+    <row r="49" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="3">
+        <v>48</v>
+      </c>
+      <c r="B49" s="3">
+        <v>48</v>
+      </c>
+      <c r="C49" s="24" t="s">
         <v>279</v>
       </c>
-      <c r="D47" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="E47" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="F47" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="G47" s="17"/>
-    </row>
-    <row r="48" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="17">
-        <v>47</v>
-      </c>
-      <c r="B48" s="17">
-        <v>47</v>
-      </c>
-      <c r="C48" s="24" t="s">
+      <c r="D49" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="E49" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="F49" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="G49" s="21"/>
+    </row>
+    <row r="50" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="3">
+        <v>49</v>
+      </c>
+      <c r="B50" s="3">
+        <v>49</v>
+      </c>
+      <c r="C50" s="24" t="s">
         <v>280</v>
       </c>
-      <c r="D48" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="E48" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="F48" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="G48" s="17"/>
-    </row>
-    <row r="49" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="17">
-        <v>48</v>
-      </c>
-      <c r="B49" s="17">
-        <v>48</v>
-      </c>
-      <c r="C49" s="24" t="s">
+      <c r="D50" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="E50" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="F50" s="21" t="s">
+        <v>331</v>
+      </c>
+      <c r="G50" s="21"/>
+    </row>
+    <row r="51" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="3">
+        <v>50</v>
+      </c>
+      <c r="B51" s="3">
+        <v>50</v>
+      </c>
+      <c r="C51" s="24" t="s">
         <v>281</v>
       </c>
-      <c r="D49" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="E49" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="F49" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="G49" s="17"/>
-    </row>
-    <row r="50" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="17">
-        <v>49</v>
-      </c>
-      <c r="B50" s="25">
-        <v>49</v>
-      </c>
-      <c r="C50" s="24" t="s">
+      <c r="D51" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="E51" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="F51" s="21" t="s">
+        <v>331</v>
+      </c>
+      <c r="G51" s="21"/>
+    </row>
+    <row r="52" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="3">
+        <v>51</v>
+      </c>
+      <c r="B52" s="3">
+        <v>51</v>
+      </c>
+      <c r="C52" s="24" t="s">
         <v>282</v>
       </c>
-      <c r="D50" s="25" t="s">
-        <v>193</v>
-      </c>
-      <c r="E50" s="25" t="s">
-        <v>237</v>
-      </c>
-      <c r="F50" s="25" t="s">
-        <v>333</v>
-      </c>
-      <c r="G50" s="25"/>
-    </row>
-    <row r="51" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="17">
-        <v>50</v>
-      </c>
-      <c r="B51" s="25">
-        <v>50</v>
-      </c>
-      <c r="C51" s="24" t="s">
+      <c r="D52" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="E52" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="F52" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="G52" s="21"/>
+    </row>
+    <row r="53" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="3">
+        <v>52</v>
+      </c>
+      <c r="B53" s="3">
+        <v>52</v>
+      </c>
+      <c r="C53" s="24" t="s">
         <v>283</v>
       </c>
-      <c r="D51" s="25" t="s">
-        <v>193</v>
-      </c>
-      <c r="E51" s="25" t="s">
-        <v>238</v>
-      </c>
-      <c r="F51" s="25" t="s">
-        <v>333</v>
-      </c>
-      <c r="G51" s="25"/>
-    </row>
-    <row r="52" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="17">
-        <v>51</v>
-      </c>
-      <c r="B52" s="17">
-        <v>51</v>
-      </c>
-      <c r="C52" s="18" t="s">
-        <v>284</v>
-      </c>
-      <c r="D52" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="E52" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="F52" s="17" t="s">
+      <c r="D53" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="E53" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="F53" s="21" t="s">
         <v>178</v>
       </c>
-      <c r="G52" s="17"/>
-    </row>
-    <row r="53" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="17">
-        <v>52</v>
-      </c>
-      <c r="B53" s="17">
-        <v>52</v>
-      </c>
-      <c r="C53" s="24" t="s">
-        <v>285</v>
-      </c>
-      <c r="D53" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="E53" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="F53" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="G53" s="17"/>
+      <c r="G53" s="21"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
@@ -3704,7 +3707,7 @@
         <v>53</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>193</v>
@@ -3725,7 +3728,7 @@
         <v>54</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>193</v>
@@ -3746,7 +3749,7 @@
         <v>55</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>193</v>
@@ -3767,7 +3770,7 @@
         <v>56</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>193</v>
@@ -3780,15 +3783,15 @@
       </c>
       <c r="G57" s="3"/>
     </row>
-    <row r="58" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" s="23" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <v>57</v>
       </c>
-      <c r="B58" s="17">
+      <c r="B58" s="3">
         <v>57</v>
       </c>
-      <c r="C58" s="20" t="s">
-        <v>290</v>
+      <c r="C58" s="22" t="s">
+        <v>288</v>
       </c>
       <c r="D58" s="21" t="s">
         <v>193</v>
@@ -3799,17 +3802,17 @@
       <c r="F58" s="21" t="s">
         <v>180</v>
       </c>
-      <c r="G58" s="17"/>
-    </row>
-    <row r="59" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G58" s="21"/>
+    </row>
+    <row r="59" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <v>58</v>
       </c>
-      <c r="B59" s="17">
+      <c r="B59" s="3">
         <v>58</v>
       </c>
-      <c r="C59" s="20" t="s">
-        <v>291</v>
+      <c r="C59" s="22" t="s">
+        <v>289</v>
       </c>
       <c r="D59" s="21" t="s">
         <v>193</v>
@@ -3820,38 +3823,38 @@
       <c r="F59" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="G59" s="17"/>
-    </row>
-    <row r="60" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G59" s="21"/>
+    </row>
+    <row r="60" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>59</v>
       </c>
-      <c r="B60" s="17">
+      <c r="B60" s="3">
         <v>59</v>
       </c>
-      <c r="C60" s="20" t="s">
-        <v>300</v>
+      <c r="C60" s="22" t="s">
+        <v>298</v>
       </c>
       <c r="D60" s="21" t="s">
         <v>193</v>
       </c>
       <c r="E60" s="21" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F60" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="G60" s="17"/>
-    </row>
-    <row r="61" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G60" s="21"/>
+    </row>
+    <row r="61" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>60</v>
       </c>
-      <c r="B61" s="17">
+      <c r="B61" s="3">
         <v>60</v>
       </c>
-      <c r="C61" s="20" t="s">
-        <v>301</v>
+      <c r="C61" s="22" t="s">
+        <v>299</v>
       </c>
       <c r="D61" s="21" t="s">
         <v>193</v>
@@ -3862,171 +3865,171 @@
       <c r="F61" s="21" t="s">
         <v>182</v>
       </c>
-      <c r="G61" s="17"/>
-    </row>
-    <row r="62" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G61" s="21"/>
+    </row>
+    <row r="62" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
         <v>61</v>
       </c>
-      <c r="B62" s="17">
+      <c r="B62" s="3">
         <v>61</v>
       </c>
       <c r="C62" s="24" t="s">
-        <v>299</v>
-      </c>
-      <c r="D62" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="E62" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="D62" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="E62" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="F62" s="17" t="s">
+      <c r="F62" s="21" t="s">
         <v>251</v>
       </c>
-      <c r="G62" s="17"/>
-    </row>
-    <row r="63" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G62" s="21"/>
+    </row>
+    <row r="63" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
         <v>62</v>
       </c>
-      <c r="B63" s="17">
+      <c r="B63" s="3">
         <v>62</v>
       </c>
-      <c r="C63" s="18" t="s">
-        <v>327</v>
-      </c>
-      <c r="D63" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="E63" s="17" t="s">
-        <v>296</v>
-      </c>
-      <c r="F63" s="17" t="s">
+      <c r="C63" s="22" t="s">
+        <v>325</v>
+      </c>
+      <c r="D63" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="E63" s="21" t="s">
+        <v>294</v>
+      </c>
+      <c r="F63" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="G63" s="17"/>
-    </row>
-    <row r="64" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G63" s="21"/>
+    </row>
+    <row r="64" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
         <v>63</v>
       </c>
-      <c r="B64" s="17">
+      <c r="B64" s="3">
         <v>63</v>
       </c>
       <c r="C64" s="24" t="s">
-        <v>302</v>
-      </c>
-      <c r="D64" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="E64" s="17" t="s">
+        <v>300</v>
+      </c>
+      <c r="D64" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="E64" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="F64" s="17" t="s">
+      <c r="F64" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="G64" s="17"/>
-    </row>
-    <row r="65" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G64" s="21"/>
+    </row>
+    <row r="65" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
         <v>64</v>
       </c>
-      <c r="B65" s="17">
+      <c r="B65" s="3">
         <v>64</v>
       </c>
       <c r="C65" s="24" t="s">
-        <v>303</v>
-      </c>
-      <c r="D65" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="E65" s="17" t="s">
+        <v>301</v>
+      </c>
+      <c r="D65" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="E65" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="F65" s="17" t="s">
+      <c r="F65" s="21" t="s">
         <v>248</v>
       </c>
-      <c r="G65" s="17"/>
-    </row>
-    <row r="66" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G65" s="21"/>
+    </row>
+    <row r="66" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
         <v>65</v>
       </c>
-      <c r="B66" s="17">
+      <c r="B66" s="3">
         <v>65</v>
       </c>
-      <c r="C66" s="18" t="s">
-        <v>328</v>
-      </c>
-      <c r="D66" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="E66" s="17" t="s">
-        <v>295</v>
-      </c>
-      <c r="F66" s="17" t="s">
+      <c r="C66" s="22" t="s">
+        <v>326</v>
+      </c>
+      <c r="D66" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="E66" s="21" t="s">
+        <v>293</v>
+      </c>
+      <c r="F66" s="21" t="s">
         <v>248</v>
       </c>
-      <c r="G66" s="17"/>
-    </row>
-    <row r="67" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G66" s="21"/>
+    </row>
+    <row r="67" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
         <v>66</v>
       </c>
-      <c r="B67" s="17">
+      <c r="B67" s="3">
         <v>66</v>
       </c>
-      <c r="C67" s="18" t="s">
-        <v>304</v>
-      </c>
-      <c r="D67" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="E67" s="17" t="s">
+      <c r="C67" s="22" t="s">
+        <v>302</v>
+      </c>
+      <c r="D67" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="E67" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="F67" s="17" t="s">
+      <c r="F67" s="21" t="s">
         <v>181</v>
       </c>
-      <c r="G67" s="17"/>
-    </row>
-    <row r="68" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G67" s="21"/>
+    </row>
+    <row r="68" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
         <v>67</v>
       </c>
-      <c r="B68" s="17">
+      <c r="B68" s="3">
         <v>67</v>
       </c>
-      <c r="C68" s="18" t="s">
-        <v>305</v>
-      </c>
-      <c r="D68" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="E68" s="17" t="s">
+      <c r="C68" s="22" t="s">
+        <v>303</v>
+      </c>
+      <c r="D68" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="E68" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="F68" s="17" t="s">
+      <c r="F68" s="21" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="69" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
         <v>68</v>
       </c>
-      <c r="B69" s="17">
+      <c r="B69" s="3">
         <v>68</v>
       </c>
-      <c r="C69" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="D69" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="E69" s="17" t="s">
-        <v>294</v>
-      </c>
-      <c r="F69" s="17" t="s">
+      <c r="C69" s="22" t="s">
+        <v>327</v>
+      </c>
+      <c r="D69" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="E69" s="21" t="s">
+        <v>292</v>
+      </c>
+      <c r="F69" s="21" t="s">
         <v>249</v>
       </c>
     </row>
@@ -4038,7 +4041,7 @@
         <v>69</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>193</v>
@@ -4058,7 +4061,7 @@
         <v>70</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>193</v>
@@ -4079,7 +4082,7 @@
         <v>71</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>193</v>
@@ -4100,7 +4103,7 @@
         <v>72</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>193</v>
@@ -4121,7 +4124,7 @@
         <v>73</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>193</v>
@@ -4142,7 +4145,7 @@
         <v>74</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>193</v>
@@ -4163,7 +4166,7 @@
         <v>75</v>
       </c>
       <c r="C76" s="14" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>193</v>
@@ -4184,7 +4187,7 @@
         <v>76</v>
       </c>
       <c r="C77" s="14" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>193</v>
@@ -4205,7 +4208,7 @@
         <v>77</v>
       </c>
       <c r="C78" s="14" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>193</v>
@@ -4226,7 +4229,7 @@
         <v>78</v>
       </c>
       <c r="C79" s="14" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>193</v>
@@ -4247,7 +4250,7 @@
         <v>79</v>
       </c>
       <c r="C80" s="14" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>193</v>
@@ -4268,7 +4271,7 @@
         <v>80</v>
       </c>
       <c r="C81" s="14" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>193</v>
@@ -4289,7 +4292,7 @@
         <v>81</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>193</v>
@@ -4310,7 +4313,7 @@
         <v>82</v>
       </c>
       <c r="C83" s="14" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>193</v>
@@ -4331,7 +4334,7 @@
         <v>83</v>
       </c>
       <c r="C84" s="14" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>193</v>
@@ -4352,7 +4355,7 @@
         <v>84</v>
       </c>
       <c r="C85" s="14" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>193</v>
@@ -4373,7 +4376,7 @@
         <v>85</v>
       </c>
       <c r="C86" s="14" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D86" s="3" t="s">
         <v>193</v>
@@ -4394,7 +4397,7 @@
         <v>86</v>
       </c>
       <c r="C87" s="14" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>193</v>
@@ -4415,7 +4418,7 @@
         <v>87</v>
       </c>
       <c r="C88" s="14" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>193</v>
@@ -4436,7 +4439,7 @@
         <v>88</v>
       </c>
       <c r="C89" s="14" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>193</v>
@@ -4457,7 +4460,7 @@
         <v>89</v>
       </c>
       <c r="C90" s="14" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D90" s="3" t="s">
         <v>193</v>
@@ -4482,7 +4485,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.2"/>
@@ -4499,12 +4502,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
       <c r="F1" s="10" t="s">
         <v>37</v>
       </c>

--- a/doc/formal_language.xlsx
+++ b/doc/formal_language.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB6B7C42-FEDC-4FEE-9B6D-61C682310ED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5A02679-A9FB-4E29-9BD3-CA6D0EB13136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="606" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="354">
   <si>
     <t>#</t>
   </si>
@@ -503,14 +503,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>平行的判定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平行的性质</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>垂直的判定</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -739,10 +731,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>∥,∥--&gt;∥；∥,⊥--&gt;∥；∥,⊥--&gt;⊥；⊥,⊥--&gt;∥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>垂直与平行的组合推导</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1366,6 +1354,26 @@
   </si>
   <si>
     <t>Distance(Point(O), Line(AB))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(有序)平行的性质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(有序)平行的判定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无序平行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DisorderParallel(Line($),Line($))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>∥,∥--&gt;∥；∥,⊥--&gt;⊥；⊥,⊥--&gt;∥</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1373,7 +1381,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1426,6 +1434,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1462,7 +1478,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1518,32 +1534,23 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1825,10 +1832,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D70"/>
+  <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="95.5" defaultRowHeight="20.25" x14ac:dyDescent="0.2"/>
@@ -1841,12 +1848,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
     </row>
     <row r="2" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -1891,12 +1898,12 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
     </row>
     <row r="8" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -1935,7 +1942,7 @@
         <v>58</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -1949,7 +1956,7 @@
         <v>59</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -2002,7 +2009,7 @@
         <v>103</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D15" s="3"/>
     </row>
@@ -2011,20 +2018,20 @@
         <v>8</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D16" s="3"/>
     </row>
     <row r="19" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
@@ -2048,7 +2055,7 @@
         <v>91</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D21" s="5"/>
     </row>
@@ -2060,7 +2067,7 @@
         <v>92</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D22" s="5"/>
     </row>
@@ -2072,7 +2079,7 @@
         <v>93</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D23" s="5"/>
     </row>
@@ -2084,7 +2091,7 @@
         <v>94</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D24" s="5"/>
     </row>
@@ -2096,7 +2103,7 @@
         <v>95</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>104</v>
@@ -2106,24 +2113,21 @@
       <c r="A26" s="17">
         <v>6</v>
       </c>
-      <c r="B26" s="27" t="s">
-        <v>350</v>
+      <c r="B26" s="19" t="s">
+        <v>347</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D26" s="17"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="25"/>
-    </row>
     <row r="29" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
@@ -2179,11 +2183,11 @@
       <c r="A34" s="3">
         <v>4</v>
       </c>
-      <c r="B34" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C34" s="21" t="s">
-        <v>34</v>
+      <c r="B34" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>352</v>
       </c>
       <c r="D34" s="3"/>
     </row>
@@ -2191,37 +2195,37 @@
       <c r="A35" s="3">
         <v>5</v>
       </c>
-      <c r="B35" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="C35" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>239</v>
-      </c>
+      <c r="B35" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35" s="3"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>6</v>
       </c>
-      <c r="B36" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="C36" s="21" t="s">
-        <v>333</v>
-      </c>
-      <c r="D36" s="3"/>
+      <c r="B36" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>7</v>
       </c>
-      <c r="B37" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C37" s="21" t="s">
-        <v>76</v>
+      <c r="B37" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>330</v>
       </c>
       <c r="D37" s="3"/>
     </row>
@@ -2229,80 +2233,78 @@
       <c r="A38" s="3">
         <v>8</v>
       </c>
-      <c r="B38" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="C38" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="D38" s="5"/>
+      <c r="B38" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D38" s="3"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>9</v>
       </c>
-      <c r="B39" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="C39" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="D39" s="3"/>
+      <c r="B39" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D39" s="5"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>10</v>
       </c>
-      <c r="B40" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C40" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="B40" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D40" s="3"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>11</v>
       </c>
-      <c r="B41" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C41" s="21" t="s">
-        <v>71</v>
+      <c r="B41" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>12</v>
       </c>
-      <c r="B42" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C42" s="21" t="s">
-        <v>72</v>
+      <c r="B42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>13</v>
       </c>
-      <c r="B43" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="C43" s="21" t="s">
-        <v>73</v>
+      <c r="B43" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -2310,22 +2312,24 @@
         <v>14</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>225</v>
+        <v>12</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D44" s="3"/>
+        <v>73</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>15</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D45" s="3"/>
     </row>
@@ -2334,293 +2338,305 @@
         <v>16</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>235</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="D46" s="3"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>17</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B48" s="6"/>
+      <c r="A48" s="3">
+        <v>18</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B49" s="6"/>
     </row>
-    <row r="50" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A50" s="19" t="s">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B50" s="6"/>
+    </row>
+    <row r="51" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A51" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B50" s="19"/>
-      <c r="C50" s="19"/>
-      <c r="D50" s="19"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
+      <c r="B51" s="20"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="20"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B52" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D52" s="1" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="3">
-        <v>1</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>344</v>
+        <v>52</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>81</v>
+        <v>337</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
-        <v>9</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>66</v>
+        <v>8</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>343</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>80</v>
+        <v>338</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>342</v>
+        <v>66</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>343</v>
+        <v>80</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>343</v>
+        <v>80</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>65</v>
+        <v>339</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>81</v>
+        <v>340</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>111</v>
+        <v>340</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
-        <v>12</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>55</v>
+        <v>11</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D63" s="3"/>
+        <v>81</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
+        <v>12</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D64" s="3"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="3">
         <v>13</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="B65" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C64" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="D64" s="3"/>
-    </row>
-    <row r="65" spans="1:4" ht="81" x14ac:dyDescent="0.2">
-      <c r="A65" s="3">
+      <c r="C65" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="D65" s="3"/>
+    </row>
+    <row r="66" spans="1:4" ht="81" x14ac:dyDescent="0.2">
+      <c r="A66" s="3">
         <v>14</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="B66" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="C66" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D65" s="5" t="s">
+      <c r="D66" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="3">
         <v>15</v>
       </c>
-      <c r="B66" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A69" s="19" t="s">
+      <c r="B67" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D67" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="B69" s="19"/>
-      <c r="C69" s="19"/>
-      <c r="D69" s="19"/>
-    </row>
-    <row r="70" spans="1:4" ht="60.75" x14ac:dyDescent="0.2">
-      <c r="A70" s="3">
+    </row>
+    <row r="70" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A70" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="B70" s="20"/>
+      <c r="C70" s="20"/>
+      <c r="D70" s="20"/>
+    </row>
+    <row r="71" spans="1:4" ht="60.75" x14ac:dyDescent="0.2">
+      <c r="A71" s="3">
         <v>14</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="B71" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="C71" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D70" s="5" t="s">
+      <c r="D71" s="5" t="s">
         <v>54</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A70:D70"/>
     <mergeCell ref="A7:D7"/>
     <mergeCell ref="A29:D29"/>
     <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="A51:D51"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2632,8 +2648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62602098-5D29-4DB6-92C7-0F20F150EACE}">
   <dimension ref="A1:H90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A90"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.2"/>
@@ -2650,16 +2666,16 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>113</v>
@@ -2679,13 +2695,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -2698,13 +2714,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>191</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>194</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -2717,13 +2733,13 @@
         <v>3</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -2736,16 +2752,16 @@
         <v>4</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="G5" s="3"/>
     </row>
@@ -2757,16 +2773,16 @@
         <v>5</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G6" s="3"/>
     </row>
@@ -2778,10 +2794,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -2795,10 +2811,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -2812,10 +2828,10 @@
         <v>8</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -2829,10 +2845,10 @@
         <v>9</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -2846,10 +2862,10 @@
         <v>10</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -2863,10 +2879,10 @@
         <v>11</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -2880,10 +2896,10 @@
         <v>12</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -2897,10 +2913,10 @@
         <v>13</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -2914,10 +2930,10 @@
         <v>14</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -2931,10 +2947,10 @@
         <v>15</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -2948,10 +2964,10 @@
         <v>16</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -2965,10 +2981,10 @@
         <v>17</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -2982,10 +2998,10 @@
         <v>18</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -2999,10 +3015,10 @@
         <v>19</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -3016,10 +3032,10 @@
         <v>20</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -3033,16 +3049,16 @@
         <v>21</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G22" s="3"/>
     </row>
@@ -3054,17 +3070,18 @@
         <v>22</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>255</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="G23" s="3"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
@@ -3074,16 +3091,16 @@
         <v>23</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G24" s="3"/>
     </row>
@@ -3095,16 +3112,16 @@
         <v>24</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G25" s="3"/>
     </row>
@@ -3116,16 +3133,16 @@
         <v>25</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G26" s="3"/>
     </row>
@@ -3137,16 +3154,16 @@
         <v>26</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G27" s="3"/>
     </row>
@@ -3158,16 +3175,16 @@
         <v>27</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="G28" s="3"/>
     </row>
@@ -3179,16 +3196,16 @@
         <v>28</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G29" s="3"/>
     </row>
@@ -3200,16 +3217,16 @@
         <v>29</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G30" s="3"/>
     </row>
@@ -3221,16 +3238,16 @@
         <v>30</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G31" s="3"/>
     </row>
@@ -3242,16 +3259,16 @@
         <v>31</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G32" s="3"/>
     </row>
@@ -3263,16 +3280,16 @@
         <v>32</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G33" s="3"/>
     </row>
@@ -3284,16 +3301,16 @@
         <v>33</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G34" s="3"/>
     </row>
@@ -3304,17 +3321,17 @@
       <c r="B35" s="3">
         <v>34</v>
       </c>
-      <c r="C35" s="13" t="s">
-        <v>266</v>
+      <c r="C35" s="14" t="s">
+        <v>263</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G35" s="3"/>
     </row>
@@ -3325,17 +3342,17 @@
       <c r="B36" s="3">
         <v>35</v>
       </c>
-      <c r="C36" s="13" t="s">
-        <v>267</v>
+      <c r="C36" s="14" t="s">
+        <v>264</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G36" s="3"/>
     </row>
@@ -3346,17 +3363,17 @@
       <c r="B37" s="3">
         <v>36</v>
       </c>
-      <c r="C37" s="13" t="s">
-        <v>268</v>
+      <c r="C37" s="14" t="s">
+        <v>265</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G37" s="3"/>
     </row>
@@ -3367,17 +3384,17 @@
       <c r="B38" s="3">
         <v>37</v>
       </c>
-      <c r="C38" s="13" t="s">
-        <v>269</v>
+      <c r="C38" s="14" t="s">
+        <v>266</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G38" s="3"/>
     </row>
@@ -3389,10 +3406,10 @@
         <v>38</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>115</v>
@@ -3411,19 +3428,19 @@
         <v>39</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>118</v>
+        <v>349</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
@@ -3434,16 +3451,16 @@
         <v>40</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>117</v>
+        <v>350</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G41" s="3"/>
     </row>
@@ -3455,16 +3472,16 @@
         <v>41</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G42" s="3"/>
     </row>
@@ -3476,16 +3493,16 @@
         <v>42</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>176</v>
+        <v>353</v>
       </c>
       <c r="G43" s="3"/>
     </row>
@@ -3497,207 +3514,207 @@
         <v>43</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G44" s="3"/>
     </row>
-    <row r="45" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>44</v>
       </c>
       <c r="B45" s="3">
         <v>44</v>
       </c>
-      <c r="C45" s="24" t="s">
-        <v>275</v>
-      </c>
-      <c r="D45" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="E45" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="F45" s="21" t="s">
-        <v>189</v>
-      </c>
-      <c r="G45" s="21"/>
-    </row>
-    <row r="46" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C45" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="G45" s="3"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>45</v>
       </c>
       <c r="B46" s="3">
         <v>45</v>
       </c>
-      <c r="C46" s="24" t="s">
-        <v>276</v>
-      </c>
-      <c r="D46" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="E46" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="F46" s="21" t="s">
-        <v>242</v>
-      </c>
-      <c r="G46" s="21"/>
-    </row>
-    <row r="47" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C46" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="G46" s="3"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>46</v>
       </c>
       <c r="B47" s="3">
         <v>46</v>
       </c>
-      <c r="C47" s="24" t="s">
-        <v>277</v>
-      </c>
-      <c r="D47" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="E47" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="F47" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="G47" s="21"/>
-    </row>
-    <row r="48" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C47" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="G47" s="3"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>47</v>
       </c>
       <c r="B48" s="3">
         <v>47</v>
       </c>
-      <c r="C48" s="24" t="s">
-        <v>278</v>
-      </c>
-      <c r="D48" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="E48" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="F48" s="21" t="s">
-        <v>188</v>
-      </c>
-      <c r="G48" s="21"/>
-    </row>
-    <row r="49" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C48" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="G48" s="3"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>48</v>
       </c>
       <c r="B49" s="3">
         <v>48</v>
       </c>
-      <c r="C49" s="24" t="s">
-        <v>279</v>
-      </c>
-      <c r="D49" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="E49" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="F49" s="21" t="s">
-        <v>188</v>
-      </c>
-      <c r="G49" s="21"/>
-    </row>
-    <row r="50" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C49" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="G49" s="3"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>49</v>
       </c>
       <c r="B50" s="3">
         <v>49</v>
       </c>
-      <c r="C50" s="24" t="s">
-        <v>280</v>
-      </c>
-      <c r="D50" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="E50" s="21" t="s">
-        <v>237</v>
-      </c>
-      <c r="F50" s="21" t="s">
-        <v>331</v>
-      </c>
-      <c r="G50" s="21"/>
-    </row>
-    <row r="51" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C50" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="G50" s="3"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>50</v>
       </c>
       <c r="B51" s="3">
         <v>50</v>
       </c>
-      <c r="C51" s="24" t="s">
-        <v>281</v>
-      </c>
-      <c r="D51" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="E51" s="21" t="s">
-        <v>238</v>
-      </c>
-      <c r="F51" s="21" t="s">
-        <v>331</v>
-      </c>
-      <c r="G51" s="21"/>
-    </row>
-    <row r="52" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C51" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="G51" s="3"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>51</v>
       </c>
       <c r="B52" s="3">
         <v>51</v>
       </c>
-      <c r="C52" s="24" t="s">
-        <v>282</v>
-      </c>
-      <c r="D52" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="E52" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="F52" s="21" t="s">
-        <v>178</v>
-      </c>
-      <c r="G52" s="21"/>
-    </row>
-    <row r="53" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C52" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="G52" s="3"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>52</v>
       </c>
       <c r="B53" s="3">
         <v>52</v>
       </c>
-      <c r="C53" s="24" t="s">
-        <v>283</v>
-      </c>
-      <c r="D53" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="E53" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="F53" s="21" t="s">
-        <v>178</v>
-      </c>
-      <c r="G53" s="21"/>
+      <c r="C53" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="G53" s="3"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
@@ -3706,17 +3723,17 @@
       <c r="B54" s="3">
         <v>53</v>
       </c>
-      <c r="C54" s="13" t="s">
-        <v>284</v>
+      <c r="C54" s="14" t="s">
+        <v>281</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G54" s="3"/>
     </row>
@@ -3727,17 +3744,17 @@
       <c r="B55" s="3">
         <v>54</v>
       </c>
-      <c r="C55" s="13" t="s">
-        <v>285</v>
+      <c r="C55" s="14" t="s">
+        <v>282</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G55" s="3"/>
     </row>
@@ -3749,16 +3766,16 @@
         <v>55</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G56" s="3"/>
     </row>
@@ -3770,83 +3787,83 @@
         <v>56</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E57" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F57" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>134</v>
-      </c>
       <c r="G57" s="3"/>
     </row>
-    <row r="58" spans="1:7" s="23" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <v>57</v>
       </c>
       <c r="B58" s="3">
         <v>57</v>
       </c>
-      <c r="C58" s="22" t="s">
-        <v>288</v>
-      </c>
-      <c r="D58" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="E58" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="F58" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="G58" s="21"/>
-    </row>
-    <row r="59" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C58" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="G58" s="3"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <v>58</v>
       </c>
       <c r="B59" s="3">
         <v>58</v>
       </c>
-      <c r="C59" s="22" t="s">
-        <v>289</v>
-      </c>
-      <c r="D59" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="E59" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="F59" s="21" t="s">
+      <c r="C59" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F59" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G59" s="21"/>
-    </row>
-    <row r="60" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G59" s="3"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>59</v>
       </c>
       <c r="B60" s="3">
         <v>59</v>
       </c>
-      <c r="C60" s="22" t="s">
-        <v>298</v>
-      </c>
-      <c r="D60" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="E60" s="21" t="s">
+      <c r="C60" s="13" t="s">
         <v>295</v>
       </c>
-      <c r="F60" s="21" t="s">
+      <c r="D60" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="F60" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G60" s="21"/>
-    </row>
-    <row r="61" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G60" s="3"/>
+    </row>
+    <row r="61" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -3854,41 +3871,41 @@
         <v>60</v>
       </c>
       <c r="C61" s="22" t="s">
-        <v>299</v>
-      </c>
-      <c r="D61" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="E61" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="F61" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="G61" s="21"/>
-    </row>
-    <row r="62" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
+        <v>296</v>
+      </c>
+      <c r="D61" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="E61" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="F61" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="G61" s="23"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
         <v>61</v>
       </c>
       <c r="B62" s="3">
         <v>61</v>
       </c>
-      <c r="C62" s="24" t="s">
-        <v>297</v>
-      </c>
-      <c r="D62" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="E62" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="F62" s="21" t="s">
-        <v>251</v>
-      </c>
-      <c r="G62" s="21"/>
-    </row>
-    <row r="63" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C62" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="G62" s="3"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
         <v>62</v>
       </c>
@@ -3896,62 +3913,62 @@
         <v>62</v>
       </c>
       <c r="C63" s="22" t="s">
-        <v>325</v>
-      </c>
-      <c r="D63" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="E63" s="21" t="s">
-        <v>294</v>
-      </c>
-      <c r="F63" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="D63" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="E63" s="23" t="s">
+        <v>291</v>
+      </c>
+      <c r="F63" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="G63" s="21"/>
-    </row>
-    <row r="64" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G63" s="3"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
         <v>63</v>
       </c>
       <c r="B64" s="3">
         <v>63</v>
       </c>
-      <c r="C64" s="24" t="s">
-        <v>300</v>
-      </c>
-      <c r="D64" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="E64" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="F64" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="G64" s="21"/>
-    </row>
-    <row r="65" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C64" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="G64" s="3"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
         <v>64</v>
       </c>
       <c r="B65" s="3">
         <v>64</v>
       </c>
-      <c r="C65" s="24" t="s">
-        <v>301</v>
-      </c>
-      <c r="D65" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="E65" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="F65" s="21" t="s">
-        <v>248</v>
-      </c>
-      <c r="G65" s="21"/>
-    </row>
-    <row r="66" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C65" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="G65" s="3"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
         <v>65</v>
       </c>
@@ -3959,61 +3976,62 @@
         <v>65</v>
       </c>
       <c r="C66" s="22" t="s">
-        <v>326</v>
-      </c>
-      <c r="D66" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="E66" s="21" t="s">
-        <v>293</v>
-      </c>
-      <c r="F66" s="21" t="s">
-        <v>248</v>
-      </c>
-      <c r="G66" s="21"/>
-    </row>
-    <row r="67" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
+        <v>323</v>
+      </c>
+      <c r="D66" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="E66" s="23" t="s">
+        <v>290</v>
+      </c>
+      <c r="F66" s="23" t="s">
+        <v>245</v>
+      </c>
+      <c r="G66" s="3"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
         <v>66</v>
       </c>
       <c r="B67" s="3">
         <v>66</v>
       </c>
-      <c r="C67" s="22" t="s">
-        <v>302</v>
-      </c>
-      <c r="D67" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="E67" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="F67" s="21" t="s">
-        <v>181</v>
-      </c>
-      <c r="G67" s="21"/>
-    </row>
-    <row r="68" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C67" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="G67" s="3"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
         <v>67</v>
       </c>
       <c r="B68" s="3">
         <v>67</v>
       </c>
-      <c r="C68" s="22" t="s">
-        <v>303</v>
-      </c>
-      <c r="D68" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="E68" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="F68" s="21" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C68" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="G68" s="3"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
         <v>68</v>
       </c>
@@ -4021,17 +4039,18 @@
         <v>68</v>
       </c>
       <c r="C69" s="22" t="s">
-        <v>327</v>
-      </c>
-      <c r="D69" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="E69" s="21" t="s">
-        <v>292</v>
-      </c>
-      <c r="F69" s="21" t="s">
-        <v>249</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="D69" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="E69" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="F69" s="23" t="s">
+        <v>246</v>
+      </c>
+      <c r="G69" s="3"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
@@ -4041,17 +4060,18 @@
         <v>69</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>159</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="G70" s="3"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
@@ -4061,16 +4081,16 @@
         <v>70</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G71" s="3"/>
     </row>
@@ -4082,16 +4102,16 @@
         <v>71</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G72" s="3"/>
     </row>
@@ -4103,16 +4123,16 @@
         <v>72</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G73" s="3"/>
     </row>
@@ -4124,16 +4144,16 @@
         <v>73</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G74" s="3"/>
     </row>
@@ -4145,16 +4165,16 @@
         <v>74</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G75" s="3"/>
     </row>
@@ -4166,16 +4186,16 @@
         <v>75</v>
       </c>
       <c r="C76" s="14" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G76" s="3"/>
     </row>
@@ -4187,16 +4207,16 @@
         <v>76</v>
       </c>
       <c r="C77" s="14" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G77" s="3"/>
     </row>
@@ -4208,16 +4228,16 @@
         <v>77</v>
       </c>
       <c r="C78" s="14" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G78" s="3"/>
     </row>
@@ -4229,16 +4249,16 @@
         <v>78</v>
       </c>
       <c r="C79" s="14" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G79" s="3"/>
     </row>
@@ -4250,16 +4270,16 @@
         <v>79</v>
       </c>
       <c r="C80" s="14" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G80" s="3"/>
     </row>
@@ -4271,16 +4291,16 @@
         <v>80</v>
       </c>
       <c r="C81" s="14" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G81" s="3"/>
     </row>
@@ -4292,16 +4312,16 @@
         <v>81</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G82" s="3"/>
     </row>
@@ -4313,16 +4333,16 @@
         <v>82</v>
       </c>
       <c r="C83" s="14" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G83" s="3"/>
     </row>
@@ -4334,16 +4354,16 @@
         <v>83</v>
       </c>
       <c r="C84" s="14" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G84" s="3"/>
     </row>
@@ -4355,16 +4375,16 @@
         <v>84</v>
       </c>
       <c r="C85" s="14" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G85" s="3"/>
     </row>
@@ -4376,16 +4396,16 @@
         <v>85</v>
       </c>
       <c r="C86" s="14" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G86" s="3"/>
     </row>
@@ -4397,16 +4417,16 @@
         <v>86</v>
       </c>
       <c r="C87" s="14" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G87" s="3"/>
     </row>
@@ -4418,16 +4438,16 @@
         <v>87</v>
       </c>
       <c r="C88" s="14" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G88" s="3"/>
     </row>
@@ -4439,16 +4459,16 @@
         <v>88</v>
       </c>
       <c r="C89" s="14" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G89" s="3"/>
     </row>
@@ -4460,16 +4480,16 @@
         <v>89</v>
       </c>
       <c r="C90" s="14" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G90" s="3"/>
     </row>
@@ -4502,12 +4522,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
       <c r="F1" s="10" t="s">
         <v>37</v>
       </c>
@@ -4538,7 +4558,7 @@
         <v>-1</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">

--- a/doc/formal_language.xlsx
+++ b/doc/formal_language.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5A02679-A9FB-4E29-9BD3-CA6D0EB13136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFFF428C-3659-4518-961B-58E26D3FE3C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="606" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18855" yWindow="2100" windowWidth="21600" windowHeight="11385" tabRatio="606" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="formal_language" sheetId="1" r:id="rId1"/>
@@ -1537,12 +1537,6 @@
     <xf numFmtId="11" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1550,6 +1544,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1848,12 +1848,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
     </row>
     <row r="2" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -1898,12 +1898,12 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
     </row>
     <row r="8" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -2026,12 +2026,12 @@
       <c r="D16" s="3"/>
     </row>
     <row r="19" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
@@ -2122,12 +2122,12 @@
       <c r="D26" s="17"/>
     </row>
     <row r="29" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="20" t="s">
+      <c r="A29" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
@@ -2380,12 +2380,12 @@
       <c r="B50" s="6"/>
     </row>
     <row r="51" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A51" s="20" t="s">
+      <c r="A51" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B51" s="20"/>
-      <c r="C51" s="20"/>
-      <c r="D51" s="20"/>
+      <c r="B51" s="23"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="23"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
@@ -2608,12 +2608,12 @@
       </c>
     </row>
     <row r="70" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A70" s="20" t="s">
+      <c r="A70" s="23" t="s">
         <v>197</v>
       </c>
-      <c r="B70" s="20"/>
-      <c r="C70" s="20"/>
-      <c r="D70" s="20"/>
+      <c r="B70" s="23"/>
+      <c r="C70" s="23"/>
+      <c r="D70" s="23"/>
     </row>
     <row r="71" spans="1:4" ht="60.75" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
@@ -2648,8 +2648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62602098-5D29-4DB6-92C7-0F20F150EACE}">
   <dimension ref="A1:H90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.2"/>
@@ -3863,26 +3863,26 @@
       </c>
       <c r="G60" s="3"/>
     </row>
-    <row r="61" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>60</v>
       </c>
       <c r="B61" s="3">
         <v>60</v>
       </c>
-      <c r="C61" s="22" t="s">
+      <c r="C61" s="20" t="s">
         <v>296</v>
       </c>
-      <c r="D61" s="23" t="s">
-        <v>190</v>
-      </c>
-      <c r="E61" s="23" t="s">
+      <c r="D61" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="E61" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="F61" s="23" t="s">
+      <c r="F61" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="G61" s="23"/>
+      <c r="G61" s="21"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
@@ -3912,16 +3912,16 @@
       <c r="B63" s="3">
         <v>62</v>
       </c>
-      <c r="C63" s="22" t="s">
+      <c r="C63" s="20" t="s">
         <v>322</v>
       </c>
-      <c r="D63" s="23" t="s">
-        <v>190</v>
-      </c>
-      <c r="E63" s="23" t="s">
+      <c r="D63" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="E63" s="21" t="s">
         <v>291</v>
       </c>
-      <c r="F63" s="23" t="s">
+      <c r="F63" s="21" t="s">
         <v>27</v>
       </c>
       <c r="G63" s="3"/>
@@ -3975,16 +3975,16 @@
       <c r="B66" s="3">
         <v>65</v>
       </c>
-      <c r="C66" s="22" t="s">
+      <c r="C66" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="D66" s="23" t="s">
-        <v>190</v>
-      </c>
-      <c r="E66" s="23" t="s">
+      <c r="D66" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="E66" s="21" t="s">
         <v>290</v>
       </c>
-      <c r="F66" s="23" t="s">
+      <c r="F66" s="21" t="s">
         <v>245</v>
       </c>
       <c r="G66" s="3"/>
@@ -4038,16 +4038,16 @@
       <c r="B69" s="3">
         <v>68</v>
       </c>
-      <c r="C69" s="22" t="s">
+      <c r="C69" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="D69" s="23" t="s">
-        <v>190</v>
-      </c>
-      <c r="E69" s="23" t="s">
+      <c r="D69" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="E69" s="21" t="s">
         <v>289</v>
       </c>
-      <c r="F69" s="23" t="s">
+      <c r="F69" s="21" t="s">
         <v>246</v>
       </c>
       <c r="G69" s="3"/>
@@ -4522,12 +4522,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
       <c r="F1" s="10" t="s">
         <v>37</v>
       </c>

--- a/doc/formal_language.xlsx
+++ b/doc/formal_language.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFFF428C-3659-4518-961B-58E26D3FE3C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{378F9E63-8185-4050-8163-F1FB3259BEDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18855" yWindow="2100" windowWidth="21600" windowHeight="11385" tabRatio="606" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="606" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="formal_language" sheetId="1" r:id="rId1"/>
@@ -1834,8 +1834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="95.5" defaultRowHeight="20.25" x14ac:dyDescent="0.2"/>
@@ -2648,8 +2648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62602098-5D29-4DB6-92C7-0F20F150EACE}">
   <dimension ref="A1:H90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.2"/>
@@ -4505,7 +4505,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.2"/>

--- a/doc/formal_language.xlsx
+++ b/doc/formal_language.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{378F9E63-8185-4050-8163-F1FB3259BEDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EE87503-8812-4CAF-9B58-06C0ECF6E228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="606" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1834,8 +1834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B78" sqref="B78"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="95.5" defaultRowHeight="20.25" x14ac:dyDescent="0.2"/>
@@ -1897,7 +1897,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="23" t="s">
         <v>44</v>
       </c>
@@ -2648,7 +2648,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62602098-5D29-4DB6-92C7-0F20F150EACE}">
   <dimension ref="A1:H90"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -4505,7 +4505,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.2"/>

--- a/doc/formal_language.xlsx
+++ b/doc/formal_language.xlsx
@@ -3,14 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EE87503-8812-4CAF-9B58-06C0ECF6E228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D9751FD-A40C-4E20-912D-1B7E91A7E291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="606" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="606" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="formal_language" sheetId="1" r:id="rId1"/>
     <sheet name="theorem" sheetId="4" r:id="rId2"/>
     <sheet name="condition" sheetId="2" r:id="rId3"/>
+    <sheet name="character" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="426">
   <si>
     <t>#</t>
   </si>
@@ -1374,6 +1375,242 @@
   </si>
   <si>
     <t>∥,∥--&gt;∥；∥,⊥--&gt;⊥；⊥,⊥--&gt;∥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>note</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>平方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nums</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ll_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>符号类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ma_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>as_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pt_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>at_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_len</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谓词定理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1381,7 +1618,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1442,6 +1679,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1478,7 +1723,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1545,6 +1790,12 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1834,8 +2085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="95.5" defaultRowHeight="20.25" x14ac:dyDescent="0.2"/>
@@ -1848,12 +2099,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
     </row>
     <row r="2" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -1898,12 +2149,12 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
     </row>
     <row r="8" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -2026,12 +2277,12 @@
       <c r="D16" s="3"/>
     </row>
     <row r="19" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
@@ -2122,12 +2373,12 @@
       <c r="D26" s="17"/>
     </row>
     <row r="29" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="23" t="s">
+      <c r="A29" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
@@ -2380,12 +2631,12 @@
       <c r="B50" s="6"/>
     </row>
     <row r="51" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A51" s="23" t="s">
+      <c r="A51" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B51" s="23"/>
-      <c r="C51" s="23"/>
-      <c r="D51" s="23"/>
+      <c r="B51" s="25"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="25"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
@@ -2608,12 +2859,12 @@
       </c>
     </row>
     <row r="70" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A70" s="23" t="s">
+      <c r="A70" s="25" t="s">
         <v>197</v>
       </c>
-      <c r="B70" s="23"/>
-      <c r="C70" s="23"/>
-      <c r="D70" s="23"/>
+      <c r="B70" s="25"/>
+      <c r="C70" s="25"/>
+      <c r="D70" s="25"/>
     </row>
     <row r="71" spans="1:4" ht="60.75" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
@@ -2648,7 +2899,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62602098-5D29-4DB6-92C7-0F20F150EACE}">
   <dimension ref="A1:H90"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -4522,12 +4773,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
       <c r="F1" s="10" t="s">
         <v>37</v>
       </c>
@@ -4602,4 +4853,703 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{979C2BC5-00EE-40DD-B601-4C0AD4736E26}">
+  <dimension ref="A1:G71"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.875" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.75" style="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9" style="24"/>
+    <col min="6" max="6" width="11.25" style="24" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="24"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>354</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="23">
+        <v>1</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>356</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="F2" s="24" t="s">
+        <v>424</v>
+      </c>
+      <c r="G2" s="24">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="23">
+        <v>2</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>357</v>
+      </c>
+      <c r="C3" s="23"/>
+      <c r="F3" s="24" t="s">
+        <v>425</v>
+      </c>
+      <c r="G3" s="24">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="23">
+        <v>3</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>358</v>
+      </c>
+      <c r="C4" s="23"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="23">
+        <v>4</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>359</v>
+      </c>
+      <c r="C5" s="23"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="23">
+        <v>5</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>360</v>
+      </c>
+      <c r="C6" s="23"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="23">
+        <v>6</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>361</v>
+      </c>
+      <c r="C7" s="23"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="23">
+        <v>7</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>362</v>
+      </c>
+      <c r="C8" s="23"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="23">
+        <v>8</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>363</v>
+      </c>
+      <c r="C9" s="23"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="23">
+        <v>9</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>364</v>
+      </c>
+      <c r="C10" s="23"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="23">
+        <v>10</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>365</v>
+      </c>
+      <c r="C11" s="23"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="23">
+        <v>11</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>366</v>
+      </c>
+      <c r="C12" s="23"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="23">
+        <v>12</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>367</v>
+      </c>
+      <c r="C13" s="23"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="23">
+        <v>13</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>368</v>
+      </c>
+      <c r="C14" s="23"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="23">
+        <v>14</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>369</v>
+      </c>
+      <c r="C15" s="23"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="23">
+        <v>15</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>370</v>
+      </c>
+      <c r="C16" s="23"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="23">
+        <v>16</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>371</v>
+      </c>
+      <c r="C17" s="23"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="23">
+        <v>17</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>372</v>
+      </c>
+      <c r="C18" s="23"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="23">
+        <v>18</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>373</v>
+      </c>
+      <c r="C19" s="23"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="23">
+        <v>19</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>374</v>
+      </c>
+      <c r="C20" s="23"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="23">
+        <v>20</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>375</v>
+      </c>
+      <c r="C21" s="23"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="23">
+        <v>21</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>376</v>
+      </c>
+      <c r="C22" s="23"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>377</v>
+      </c>
+      <c r="C23" s="23"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="23">
+        <v>23</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>378</v>
+      </c>
+      <c r="C24" s="23"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="23">
+        <v>24</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>379</v>
+      </c>
+      <c r="C25" s="23"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="23">
+        <v>25</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>380</v>
+      </c>
+      <c r="C26" s="23"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="23">
+        <v>26</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>381</v>
+      </c>
+      <c r="C27" s="23"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="23">
+        <v>27</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>382</v>
+      </c>
+      <c r="C28" s="23"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="23">
+        <v>28</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>383</v>
+      </c>
+      <c r="C29" s="23"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="23">
+        <v>29</v>
+      </c>
+      <c r="B30" s="23" t="s">
+        <v>384</v>
+      </c>
+      <c r="C30" s="23"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="23">
+        <v>30</v>
+      </c>
+      <c r="B31" s="23" t="s">
+        <v>385</v>
+      </c>
+      <c r="C31" s="23"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="23">
+        <v>31</v>
+      </c>
+      <c r="B32" s="23" t="s">
+        <v>386</v>
+      </c>
+      <c r="C32" s="23"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="23">
+        <v>32</v>
+      </c>
+      <c r="B33" s="23" t="s">
+        <v>387</v>
+      </c>
+      <c r="C33" s="23"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="23">
+        <v>33</v>
+      </c>
+      <c r="B34" s="23" t="s">
+        <v>388</v>
+      </c>
+      <c r="C34" s="23"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="23">
+        <v>34</v>
+      </c>
+      <c r="B35" s="23" t="s">
+        <v>389</v>
+      </c>
+      <c r="C35" s="23"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="23">
+        <v>35</v>
+      </c>
+      <c r="B36" s="23" t="s">
+        <v>390</v>
+      </c>
+      <c r="C36" s="23"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="23">
+        <v>36</v>
+      </c>
+      <c r="B37" s="23" t="s">
+        <v>391</v>
+      </c>
+      <c r="C37" s="23"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="23">
+        <v>37</v>
+      </c>
+      <c r="B38" s="23" t="s">
+        <v>392</v>
+      </c>
+      <c r="C38" s="23"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="23">
+        <v>38</v>
+      </c>
+      <c r="B39" s="23" t="s">
+        <v>393</v>
+      </c>
+      <c r="C39" s="23"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="23">
+        <v>39</v>
+      </c>
+      <c r="B40" s="23" t="s">
+        <v>394</v>
+      </c>
+      <c r="C40" s="23"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="23">
+        <v>40</v>
+      </c>
+      <c r="B41" s="23" t="s">
+        <v>395</v>
+      </c>
+      <c r="C41" s="23"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="23">
+        <v>41</v>
+      </c>
+      <c r="B42" s="23" t="s">
+        <v>396</v>
+      </c>
+      <c r="C42" s="23"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="23">
+        <v>42</v>
+      </c>
+      <c r="B43" s="23" t="s">
+        <v>397</v>
+      </c>
+      <c r="C43" s="23"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="23">
+        <v>43</v>
+      </c>
+      <c r="B44" s="23" t="s">
+        <v>398</v>
+      </c>
+      <c r="C44" s="23"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="23">
+        <v>44</v>
+      </c>
+      <c r="B45" s="23" t="s">
+        <v>399</v>
+      </c>
+      <c r="C45" s="23"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="23">
+        <v>45</v>
+      </c>
+      <c r="B46" s="23" t="s">
+        <v>400</v>
+      </c>
+      <c r="C46" s="23"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="23">
+        <v>46</v>
+      </c>
+      <c r="B47" s="23" t="s">
+        <v>401</v>
+      </c>
+      <c r="C47" s="23"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="23">
+        <v>47</v>
+      </c>
+      <c r="B48" s="23" t="s">
+        <v>402</v>
+      </c>
+      <c r="C48" s="23"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="23">
+        <v>48</v>
+      </c>
+      <c r="B49" s="23" t="s">
+        <v>403</v>
+      </c>
+      <c r="C49" s="23"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="23">
+        <v>49</v>
+      </c>
+      <c r="B50" s="23" t="s">
+        <v>404</v>
+      </c>
+      <c r="C50" s="23"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="23">
+        <v>50</v>
+      </c>
+      <c r="B51" s="23" t="s">
+        <v>405</v>
+      </c>
+      <c r="C51" s="23"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="23">
+        <v>51</v>
+      </c>
+      <c r="B52" s="23" t="s">
+        <v>406</v>
+      </c>
+      <c r="C52" s="23"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="23">
+        <v>52</v>
+      </c>
+      <c r="B53" s="23" t="s">
+        <v>407</v>
+      </c>
+      <c r="C53" s="23"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="23">
+        <v>53</v>
+      </c>
+      <c r="B54" s="23" t="s">
+        <v>408</v>
+      </c>
+      <c r="C54" s="23"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="23">
+        <v>54</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C55" s="23"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="23">
+        <v>55</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C56" s="23"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="23">
+        <v>56</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C57" s="23"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="23">
+        <v>57</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C58" s="23"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="23">
+        <v>58</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C59" s="23" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="23">
+        <v>59</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="23">
+        <v>60</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="23">
+        <v>61</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="23">
+        <v>62</v>
+      </c>
+      <c r="B63" s="23" t="s">
+        <v>413</v>
+      </c>
+      <c r="C63" s="23"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="23">
+        <v>63</v>
+      </c>
+      <c r="B64" s="23" t="s">
+        <v>414</v>
+      </c>
+      <c r="C64" s="23"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="23">
+        <v>64</v>
+      </c>
+      <c r="B65" s="23" t="s">
+        <v>415</v>
+      </c>
+      <c r="C65" s="23" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="23">
+        <v>65</v>
+      </c>
+      <c r="B66" s="23" t="s">
+        <v>417</v>
+      </c>
+      <c r="C66" s="23" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="23">
+        <v>66</v>
+      </c>
+      <c r="B67" s="23" t="s">
+        <v>419</v>
+      </c>
+      <c r="C67" s="23" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="23">
+        <v>67</v>
+      </c>
+      <c r="B68" s="23" t="s">
+        <v>420</v>
+      </c>
+      <c r="C68" s="23" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="23">
+        <v>68</v>
+      </c>
+      <c r="B69" s="23" t="s">
+        <v>421</v>
+      </c>
+      <c r="C69" s="23" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="23">
+        <v>69</v>
+      </c>
+      <c r="B70" s="23" t="s">
+        <v>422</v>
+      </c>
+      <c r="C70" s="23" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="23">
+        <v>70</v>
+      </c>
+      <c r="B71" s="23" t="s">
+        <v>423</v>
+      </c>
+      <c r="C71" s="23" t="s">
+        <v>418</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/formal_language.xlsx
+++ b/doc/formal_language.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D9751FD-A40C-4E20-912D-1B7E91A7E291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D4B36B9-B54A-4343-B2EB-1F2A68950BB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="606" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="606" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="formal_language" sheetId="1" r:id="rId1"/>
@@ -2085,8 +2085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="95.5" defaultRowHeight="20.25" x14ac:dyDescent="0.2"/>
@@ -2899,8 +2899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62602098-5D29-4DB6-92C7-0F20F150EACE}">
   <dimension ref="A1:H90"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C94" sqref="C94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.2"/>
@@ -4859,8 +4859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{979C2BC5-00EE-40DD-B601-4C0AD4736E26}">
   <dimension ref="A1:G71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C71" sqref="A55:C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>

--- a/doc/formal_language.xlsx
+++ b/doc/formal_language.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D4B36B9-B54A-4343-B2EB-1F2A68950BB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7068CA1-55B0-4F64-8602-EB9A4549F98C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="606" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="606" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="formal_language" sheetId="1" r:id="rId1"/>
@@ -2085,8 +2085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="95.5" defaultRowHeight="20.25" x14ac:dyDescent="0.2"/>
@@ -2899,8 +2899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62602098-5D29-4DB6-92C7-0F20F150EACE}">
   <dimension ref="A1:H90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C94" sqref="C94"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.2"/>

--- a/doc/formal_language.xlsx
+++ b/doc/formal_language.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7068CA1-55B0-4F64-8602-EB9A4549F98C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F306F3C-B423-487A-8057-1EB07723FEC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="606" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2985" yWindow="2340" windowWidth="18330" windowHeight="12195" tabRatio="606" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="formal_language" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="427">
   <si>
     <t>#</t>
   </si>
@@ -163,19 +163,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Find($)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Perpendicular(Point($),Line($),Line($))</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>默认角B和角C是相等的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>解题目标</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -250,20 +242,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>不会在logic中出现，所有的Find都会转化为Target
-Find(Attribution($))   ==&gt;    Find(Equation($))
-Find(Relation($))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>和</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平均</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Point(A)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -304,10 +282,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Sum(Var1,Var2,...)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Literal templates</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1190,427 +1164,456 @@
     <t>theorem_69_congruent_property_line_equal</t>
   </si>
   <si>
+    <t>theorem_71_congruent_property_area_equal</t>
+  </si>
+  <si>
+    <t>theorem_72_congruent_judgment_sss</t>
+  </si>
+  <si>
+    <t>theorem_73_congruent_judgment_sas</t>
+  </si>
+  <si>
+    <t>theorem_74_congruent_judgment_asa</t>
+  </si>
+  <si>
+    <t>theorem_75_congruent_judgment_aas</t>
+  </si>
+  <si>
+    <t>theorem_76_congruent_judgment_hl</t>
+  </si>
+  <si>
+    <t>theorem_77_similar_property_angle_equal</t>
+  </si>
+  <si>
+    <t>theorem_78_similar_property_line_ratio</t>
+  </si>
+  <si>
+    <t>theorem_79_similar_property_perimeter_ratio</t>
+  </si>
+  <si>
+    <t>theorem_80_similar_property_area_square_ratio</t>
+  </si>
+  <si>
+    <t>theorem_81_similar_judgment_sss</t>
+  </si>
+  <si>
+    <t>theorem_82_similar_judgment_sas</t>
+  </si>
+  <si>
+    <t>theorem_83_similar_judgment_aa</t>
+  </si>
+  <si>
+    <t>theorem_84_triangle_perimeter_formula</t>
+  </si>
+  <si>
+    <t>theorem_85_triangle_area_formula_common</t>
+  </si>
+  <si>
+    <t>theorem_86_triangle_area_formula_heron</t>
+  </si>
+  <si>
+    <t>theorem_87_triangle_area_formula_sine</t>
+  </si>
+  <si>
+    <t>theorem_88_sine</t>
+  </si>
+  <si>
+    <t>theorem_89_cosine</t>
+  </si>
+  <si>
+    <t>theorem_62_incenter_property_judgment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theorem_65_centroid_property_judgment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theorem_68_orthocenter_property_judgment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两直角边垂直</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theorem_25_right_triangle_property_special_rt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30°、60°、45°特殊直角三角形边的比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>底边中点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theorem_43_midpoint_judgment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bisector(Line($),Angle($))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add(expr1,expr2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sub(expr1,expr2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mul(expr1,expr2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Div(expr1,expr2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pow(expr1,expr2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sin(expr)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cos(expr)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tan(expr)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自由变量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正弦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>余弦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正切</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nous_5_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nous_4_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点到直线的距离(扩展属性)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Distance(Point(O), Line(AB))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(有序)平行的性质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(有序)平行的判定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无序平行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DisorderParallel(Line($),Line($))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>∥,∥--&gt;∥；∥,⊥--&gt;⊥；⊥,⊥--&gt;∥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>note</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>平方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nums</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ll_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>符号类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ma_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>as_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pt_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>at_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_len</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谓词定理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>求值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>求证数值相等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关系推理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Relation's Predicate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关系的谓词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>theorem_70_congruent_property_angle_equal</t>
-  </si>
-  <si>
-    <t>theorem_71_congruent_property_area_equal</t>
-  </si>
-  <si>
-    <t>theorem_72_congruent_judgment_sss</t>
-  </si>
-  <si>
-    <t>theorem_73_congruent_judgment_sas</t>
-  </si>
-  <si>
-    <t>theorem_74_congruent_judgment_asa</t>
-  </si>
-  <si>
-    <t>theorem_75_congruent_judgment_aas</t>
-  </si>
-  <si>
-    <t>theorem_76_congruent_judgment_hl</t>
-  </si>
-  <si>
-    <t>theorem_77_similar_property_angle_equal</t>
-  </si>
-  <si>
-    <t>theorem_78_similar_property_line_ratio</t>
-  </si>
-  <si>
-    <t>theorem_79_similar_property_perimeter_ratio</t>
-  </si>
-  <si>
-    <t>theorem_80_similar_property_area_square_ratio</t>
-  </si>
-  <si>
-    <t>theorem_81_similar_judgment_sss</t>
-  </si>
-  <si>
-    <t>theorem_82_similar_judgment_sas</t>
-  </si>
-  <si>
-    <t>theorem_83_similar_judgment_aa</t>
-  </si>
-  <si>
-    <t>theorem_84_triangle_perimeter_formula</t>
-  </si>
-  <si>
-    <t>theorem_85_triangle_area_formula_common</t>
-  </si>
-  <si>
-    <t>theorem_86_triangle_area_formula_heron</t>
-  </si>
-  <si>
-    <t>theorem_87_triangle_area_formula_sine</t>
-  </si>
-  <si>
-    <t>theorem_88_sine</t>
-  </si>
-  <si>
-    <t>theorem_89_cosine</t>
-  </si>
-  <si>
-    <t>theorem_62_incenter_property_judgment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>theorem_65_centroid_property_judgment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>theorem_68_orthocenter_property_judgment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>两直角边垂直</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>theorem_25_right_triangle_property_special_rt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30°、60°、45°特殊直角三角形边的比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>底边中点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>theorem_43_midpoint_judgment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bisector(Line($),Angle($))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Add(expr1,expr2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sub(expr1,expr2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mul(expr1,expr2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Div(expr1,expr2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pow(expr1,expr2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sin(expr)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cos(expr)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tan(expr)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自由变量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正弦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>余弦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正切</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Avg(Var1,Var2,...)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nous_5_</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nous_4_</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点到直线的距离(扩展属性)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Distance(Point(O), Line(AB))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(有序)平行的性质</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(有序)平行的判定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无序平行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DisorderParallel(Line($),Line($))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>∥,∥--&gt;∥；∥,⊥--&gt;⊥；⊥,⊥--&gt;∥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>subword</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>note</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>J</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Q</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>U</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>W</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>Z</t>
-  </si>
-  <si>
-    <t>,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>h</t>
-  </si>
-  <si>
-    <t>i</t>
-  </si>
-  <si>
-    <t>j</t>
-  </si>
-  <si>
-    <t>k</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
-    <t>m</t>
-  </si>
-  <si>
-    <t>n</t>
-  </si>
-  <si>
-    <t>o</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>q</t>
-  </si>
-  <si>
-    <t>r</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>t</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>v</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>z</t>
-  </si>
-  <si>
-    <t>平方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cos</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nums</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ll_</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>符号类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ma_</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>as_</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pt_</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>at_</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>f_</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>max_len</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>谓词定理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2085,8 +2088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="95.5" defaultRowHeight="20.25" x14ac:dyDescent="0.2"/>
@@ -2100,7 +2103,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -2120,37 +2123,37 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
+    <row r="3" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="17">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
+      <c r="B3" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="17">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>102</v>
+      <c r="B4" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B7" s="25"/>
       <c r="C7" s="25"/>
@@ -2170,44 +2173,44 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
+    <row r="9" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="17">
         <v>1</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
+      <c r="C9" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="17"/>
+    </row>
+    <row r="10" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="17">
         <v>2</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
+      <c r="C10" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="17">
         <v>3</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>120</v>
+      <c r="C11" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -2215,13 +2218,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -2232,10 +2235,10 @@
         <v>13</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -2246,10 +2249,10 @@
         <v>15</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -2257,10 +2260,10 @@
         <v>7</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D15" s="3"/>
     </row>
@@ -2269,10 +2272,10 @@
         <v>8</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D16" s="3"/>
     </row>
@@ -2303,10 +2306,10 @@
         <v>1</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D21" s="5"/>
     </row>
@@ -2315,10 +2318,10 @@
         <v>2</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D22" s="5"/>
     </row>
@@ -2327,10 +2330,10 @@
         <v>3</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D23" s="5"/>
     </row>
@@ -2339,10 +2342,10 @@
         <v>4</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="D24" s="5"/>
     </row>
@@ -2351,13 +2354,13 @@
         <v>5</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
@@ -2365,10 +2368,10 @@
         <v>6</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="D26" s="17"/>
     </row>
@@ -2388,7 +2391,7 @@
         <v>4</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>5</v>
@@ -2402,7 +2405,7 @@
         <v>8</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D31" s="3"/>
     </row>
@@ -2414,7 +2417,7 @@
         <v>30</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D32" s="5"/>
     </row>
@@ -2426,7 +2429,7 @@
         <v>14</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D33" s="3"/>
     </row>
@@ -2435,10 +2438,10 @@
         <v>4</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="D34" s="3"/>
     </row>
@@ -2450,7 +2453,7 @@
         <v>16</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D35" s="3"/>
     </row>
@@ -2462,10 +2465,10 @@
         <v>18</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -2476,7 +2479,7 @@
         <v>17</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="D37" s="3"/>
     </row>
@@ -2488,7 +2491,7 @@
         <v>19</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D38" s="3"/>
     </row>
@@ -2497,10 +2500,10 @@
         <v>9</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D39" s="5"/>
     </row>
@@ -2509,10 +2512,10 @@
         <v>10</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D40" s="3"/>
     </row>
@@ -2524,7 +2527,7 @@
         <v>9</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>26</v>
@@ -2538,7 +2541,7 @@
         <v>10</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>27</v>
@@ -2552,7 +2555,7 @@
         <v>11</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>29</v>
@@ -2566,7 +2569,7 @@
         <v>12</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>28</v>
@@ -2577,10 +2580,10 @@
         <v>15</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D45" s="3"/>
     </row>
@@ -2589,10 +2592,10 @@
         <v>16</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D46" s="3"/>
     </row>
@@ -2601,13 +2604,13 @@
         <v>17</v>
       </c>
       <c r="B47" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D47" s="3" t="s">
         <v>226</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -2615,13 +2618,13 @@
         <v>18</v>
       </c>
       <c r="B48" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D48" s="3" t="s">
         <v>227</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -2657,13 +2660,13 @@
         <v>1</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -2671,13 +2674,13 @@
         <v>2</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -2685,13 +2688,13 @@
         <v>3</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -2699,13 +2702,13 @@
         <v>4</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -2713,13 +2716,13 @@
         <v>5</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -2727,13 +2730,13 @@
         <v>6</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -2741,13 +2744,13 @@
         <v>7</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -2755,13 +2758,13 @@
         <v>8</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -2769,13 +2772,13 @@
         <v>9</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -2783,13 +2786,13 @@
         <v>10</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -2797,93 +2800,97 @@
         <v>11</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="81" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D64" s="3"/>
+        <v>32</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>56</v>
+        <v>192</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="D65" s="3"/>
-    </row>
-    <row r="66" spans="1:4" ht="81" x14ac:dyDescent="0.2">
-      <c r="A66" s="3">
-        <v>14</v>
-      </c>
-      <c r="B66" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A68" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="B68" s="25"/>
+      <c r="C68" s="25"/>
+      <c r="D68" s="25"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="3">
+        <v>1</v>
+      </c>
+      <c r="B69" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C66" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="3">
-        <v>15</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A70" s="25" t="s">
-        <v>197</v>
-      </c>
-      <c r="B70" s="25"/>
-      <c r="C70" s="25"/>
-      <c r="D70" s="25"/>
-    </row>
-    <row r="71" spans="1:4" ht="60.75" x14ac:dyDescent="0.2">
+      <c r="C69" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="3">
+        <v>2</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>36</v>
+        <v>425</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D71" s="5" t="s">
-        <v>54</v>
+        <v>424</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>423</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A70:D70"/>
+    <mergeCell ref="A68:D68"/>
     <mergeCell ref="A7:D7"/>
     <mergeCell ref="A29:D29"/>
     <mergeCell ref="A19:D19"/>
@@ -2899,8 +2906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62602098-5D29-4DB6-92C7-0F20F150EACE}">
   <dimension ref="A1:H90"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD3"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.2"/>
@@ -2917,22 +2924,22 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>3</v>
@@ -2946,13 +2953,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -2965,13 +2972,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -2984,13 +2991,13 @@
         <v>3</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -3003,16 +3010,16 @@
         <v>4</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="G5" s="3"/>
     </row>
@@ -3024,16 +3031,16 @@
         <v>5</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="G6" s="3"/>
     </row>
@@ -3045,10 +3052,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -3062,10 +3069,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -3079,10 +3086,10 @@
         <v>8</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -3096,10 +3103,10 @@
         <v>9</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -3113,10 +3120,10 @@
         <v>10</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -3130,10 +3137,10 @@
         <v>11</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -3147,10 +3154,10 @@
         <v>12</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -3164,10 +3171,10 @@
         <v>13</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -3181,10 +3188,10 @@
         <v>14</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -3198,10 +3205,10 @@
         <v>15</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -3215,10 +3222,10 @@
         <v>16</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -3232,10 +3239,10 @@
         <v>17</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -3249,10 +3256,10 @@
         <v>18</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -3266,10 +3273,10 @@
         <v>19</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -3283,10 +3290,10 @@
         <v>20</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -3300,16 +3307,16 @@
         <v>21</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="G22" s="3"/>
     </row>
@@ -3321,16 +3328,16 @@
         <v>22</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="G23" s="3"/>
     </row>
@@ -3342,16 +3349,16 @@
         <v>23</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="G24" s="3"/>
     </row>
@@ -3363,16 +3370,16 @@
         <v>24</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="G25" s="3"/>
     </row>
@@ -3384,16 +3391,16 @@
         <v>25</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="G26" s="3"/>
     </row>
@@ -3405,16 +3412,16 @@
         <v>26</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="G27" s="3"/>
     </row>
@@ -3426,16 +3433,16 @@
         <v>27</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="G28" s="3"/>
     </row>
@@ -3447,16 +3454,16 @@
         <v>28</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="G29" s="3"/>
     </row>
@@ -3468,16 +3475,16 @@
         <v>29</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="G30" s="3"/>
     </row>
@@ -3489,16 +3496,16 @@
         <v>30</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="G31" s="3"/>
     </row>
@@ -3510,16 +3517,16 @@
         <v>31</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="G32" s="3"/>
     </row>
@@ -3531,16 +3538,16 @@
         <v>32</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="G33" s="3"/>
     </row>
@@ -3552,16 +3559,16 @@
         <v>33</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="G34" s="3"/>
     </row>
@@ -3573,16 +3580,16 @@
         <v>34</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="G35" s="3"/>
     </row>
@@ -3594,16 +3601,16 @@
         <v>35</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="G36" s="3"/>
     </row>
@@ -3615,16 +3622,16 @@
         <v>36</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="G37" s="3"/>
     </row>
@@ -3636,16 +3643,16 @@
         <v>37</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="G38" s="3"/>
     </row>
@@ -3657,16 +3664,16 @@
         <v>38</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="G39" s="3"/>
       <c r="H39" s="7"/>
@@ -3679,19 +3686,19 @@
         <v>39</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
@@ -3702,16 +3709,16 @@
         <v>40</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="G41" s="3"/>
     </row>
@@ -3723,16 +3730,16 @@
         <v>41</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="G42" s="3"/>
     </row>
@@ -3744,16 +3751,16 @@
         <v>42</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="G43" s="3"/>
     </row>
@@ -3765,16 +3772,16 @@
         <v>43</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="G44" s="3"/>
     </row>
@@ -3786,16 +3793,16 @@
         <v>44</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="G45" s="3"/>
     </row>
@@ -3807,16 +3814,16 @@
         <v>45</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="G46" s="3"/>
     </row>
@@ -3828,16 +3835,16 @@
         <v>46</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="G47" s="3"/>
     </row>
@@ -3849,16 +3856,16 @@
         <v>47</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="G48" s="3"/>
     </row>
@@ -3870,16 +3877,16 @@
         <v>48</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="G49" s="3"/>
     </row>
@@ -3891,16 +3898,16 @@
         <v>49</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="G50" s="3"/>
     </row>
@@ -3912,16 +3919,16 @@
         <v>50</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="G51" s="3"/>
     </row>
@@ -3933,16 +3940,16 @@
         <v>51</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="G52" s="3"/>
     </row>
@@ -3954,16 +3961,16 @@
         <v>52</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="G53" s="3"/>
     </row>
@@ -3975,16 +3982,16 @@
         <v>53</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="G54" s="3"/>
     </row>
@@ -3996,16 +4003,16 @@
         <v>54</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="G55" s="3"/>
     </row>
@@ -4017,16 +4024,16 @@
         <v>55</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="G56" s="3"/>
     </row>
@@ -4038,16 +4045,16 @@
         <v>56</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="G57" s="3"/>
     </row>
@@ -4059,16 +4066,16 @@
         <v>57</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="G58" s="3"/>
     </row>
@@ -4080,13 +4087,13 @@
         <v>58</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>26</v>
@@ -4101,13 +4108,13 @@
         <v>59</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>26</v>
@@ -4122,16 +4129,16 @@
         <v>60</v>
       </c>
       <c r="C61" s="20" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="D61" s="21" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E61" s="21" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="F61" s="21" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="G61" s="21"/>
     </row>
@@ -4143,16 +4150,16 @@
         <v>61</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="G62" s="3"/>
     </row>
@@ -4164,13 +4171,13 @@
         <v>62</v>
       </c>
       <c r="C63" s="20" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="D63" s="21" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E63" s="21" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="F63" s="21" t="s">
         <v>27</v>
@@ -4185,16 +4192,16 @@
         <v>63</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="G64" s="3"/>
     </row>
@@ -4206,16 +4213,16 @@
         <v>64</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="G65" s="3"/>
     </row>
@@ -4227,16 +4234,16 @@
         <v>65</v>
       </c>
       <c r="C66" s="20" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="D66" s="21" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E66" s="21" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="F66" s="21" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="G66" s="3"/>
     </row>
@@ -4248,16 +4255,16 @@
         <v>66</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="G67" s="3"/>
     </row>
@@ -4269,16 +4276,16 @@
         <v>67</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="G68" s="3"/>
     </row>
@@ -4290,16 +4297,16 @@
         <v>68</v>
       </c>
       <c r="C69" s="20" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="D69" s="21" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E69" s="21" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="F69" s="21" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="G69" s="3"/>
     </row>
@@ -4311,16 +4318,16 @@
         <v>69</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="G70" s="3"/>
     </row>
@@ -4332,16 +4339,16 @@
         <v>70</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>302</v>
+        <v>426</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="G71" s="3"/>
     </row>
@@ -4353,16 +4360,16 @@
         <v>71</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="G72" s="3"/>
     </row>
@@ -4374,16 +4381,16 @@
         <v>72</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="G73" s="3"/>
     </row>
@@ -4395,16 +4402,16 @@
         <v>73</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="G74" s="3"/>
     </row>
@@ -4416,16 +4423,16 @@
         <v>74</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="G75" s="3"/>
     </row>
@@ -4437,16 +4444,16 @@
         <v>75</v>
       </c>
       <c r="C76" s="14" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="G76" s="3"/>
     </row>
@@ -4458,16 +4465,16 @@
         <v>76</v>
       </c>
       <c r="C77" s="14" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="G77" s="3"/>
     </row>
@@ -4479,16 +4486,16 @@
         <v>77</v>
       </c>
       <c r="C78" s="14" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="G78" s="3"/>
     </row>
@@ -4500,16 +4507,16 @@
         <v>78</v>
       </c>
       <c r="C79" s="14" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="G79" s="3"/>
     </row>
@@ -4521,16 +4528,16 @@
         <v>79</v>
       </c>
       <c r="C80" s="14" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="G80" s="3"/>
     </row>
@@ -4542,16 +4549,16 @@
         <v>80</v>
       </c>
       <c r="C81" s="14" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="G81" s="3"/>
     </row>
@@ -4563,16 +4570,16 @@
         <v>81</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="G82" s="3"/>
     </row>
@@ -4584,16 +4591,16 @@
         <v>82</v>
       </c>
       <c r="C83" s="14" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="G83" s="3"/>
     </row>
@@ -4605,16 +4612,16 @@
         <v>83</v>
       </c>
       <c r="C84" s="14" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="G84" s="3"/>
     </row>
@@ -4626,16 +4633,16 @@
         <v>84</v>
       </c>
       <c r="C85" s="14" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="G85" s="3"/>
     </row>
@@ -4647,16 +4654,16 @@
         <v>85</v>
       </c>
       <c r="C86" s="14" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="G86" s="3"/>
     </row>
@@ -4668,16 +4675,16 @@
         <v>86</v>
       </c>
       <c r="C87" s="14" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="G87" s="3"/>
     </row>
@@ -4689,16 +4696,16 @@
         <v>87</v>
       </c>
       <c r="C88" s="14" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G88" s="3"/>
     </row>
@@ -4710,16 +4717,16 @@
         <v>88</v>
       </c>
       <c r="C89" s="14" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="G89" s="3"/>
     </row>
@@ -4731,16 +4738,16 @@
         <v>89</v>
       </c>
       <c r="C90" s="14" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="G90" s="3"/>
     </row>
@@ -4774,33 +4781,33 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="26" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
       <c r="D1" s="26"/>
       <c r="F1" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="11" t="s">
         <v>37</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>41</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>43</v>
       </c>
       <c r="F2" s="10">
         <v>-1</v>
@@ -4809,40 +4816,40 @@
         <v>-1</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F3" s="10" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G3" s="10">
         <v>-2</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F4" s="10" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F5" s="10" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G5" s="10">
         <v>-3</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -4875,13 +4882,13 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -4889,11 +4896,11 @@
         <v>1</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="C2" s="23"/>
       <c r="F2" s="24" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="G2" s="24">
         <v>36</v>
@@ -4904,11 +4911,11 @@
         <v>2</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="C3" s="23"/>
       <c r="F3" s="24" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="G3" s="24">
         <v>56</v>
@@ -4919,7 +4926,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="C4" s="23"/>
     </row>
@@ -4928,7 +4935,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="C5" s="23"/>
     </row>
@@ -4937,7 +4944,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="C6" s="23"/>
     </row>
@@ -4946,7 +4953,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="C7" s="23"/>
     </row>
@@ -4955,7 +4962,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="C8" s="23"/>
     </row>
@@ -4964,7 +4971,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="C9" s="23"/>
     </row>
@@ -4973,7 +4980,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="C10" s="23"/>
     </row>
@@ -4982,7 +4989,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="C11" s="23"/>
     </row>
@@ -4991,7 +4998,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="C12" s="23"/>
     </row>
@@ -5000,7 +5007,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="C13" s="23"/>
     </row>
@@ -5009,7 +5016,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="C14" s="23"/>
     </row>
@@ -5018,7 +5025,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="C15" s="23"/>
     </row>
@@ -5027,7 +5034,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="C16" s="23"/>
     </row>
@@ -5036,7 +5043,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="C17" s="23"/>
     </row>
@@ -5045,7 +5052,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="C18" s="23"/>
     </row>
@@ -5054,7 +5061,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="C19" s="23"/>
     </row>
@@ -5063,7 +5070,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="C20" s="23"/>
     </row>
@@ -5072,7 +5079,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="C21" s="23"/>
     </row>
@@ -5081,7 +5088,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="C22" s="23"/>
     </row>
@@ -5090,7 +5097,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C23" s="23"/>
     </row>
@@ -5099,7 +5106,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="C24" s="23"/>
     </row>
@@ -5108,7 +5115,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="C25" s="23"/>
     </row>
@@ -5117,7 +5124,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="C26" s="23"/>
     </row>
@@ -5126,7 +5133,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="C27" s="23"/>
     </row>
@@ -5135,7 +5142,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="C28" s="23"/>
     </row>
@@ -5144,7 +5151,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="C29" s="23"/>
     </row>
@@ -5153,7 +5160,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="C30" s="23"/>
     </row>
@@ -5162,7 +5169,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="C31" s="23"/>
     </row>
@@ -5171,7 +5178,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="C32" s="23"/>
     </row>
@@ -5180,7 +5187,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="23" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="C33" s="23"/>
     </row>
@@ -5189,7 +5196,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="C34" s="23"/>
     </row>
@@ -5198,7 +5205,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="23" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="C35" s="23"/>
     </row>
@@ -5207,7 +5214,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="C36" s="23"/>
     </row>
@@ -5216,7 +5223,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="23" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="C37" s="23"/>
     </row>
@@ -5225,7 +5232,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="23" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="C38" s="23"/>
     </row>
@@ -5234,7 +5241,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="23" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="C39" s="23"/>
     </row>
@@ -5243,7 +5250,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="23" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="C40" s="23"/>
     </row>
@@ -5252,7 +5259,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="23" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="C41" s="23"/>
     </row>
@@ -5261,7 +5268,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="23" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="C42" s="23"/>
     </row>
@@ -5270,7 +5277,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="23" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="C43" s="23"/>
     </row>
@@ -5279,7 +5286,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="23" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="C44" s="23"/>
     </row>
@@ -5288,7 +5295,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="23" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="C45" s="23"/>
     </row>
@@ -5297,7 +5304,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="23" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="C46" s="23"/>
     </row>
@@ -5306,7 +5313,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="23" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="C47" s="23"/>
     </row>
@@ -5315,7 +5322,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="23" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="C48" s="23"/>
     </row>
@@ -5324,7 +5331,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="23" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="C49" s="23"/>
     </row>
@@ -5333,7 +5340,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="23" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="C50" s="23"/>
     </row>
@@ -5342,7 +5349,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="23" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="C51" s="23"/>
     </row>
@@ -5351,7 +5358,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="23" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="C52" s="23"/>
     </row>
@@ -5360,7 +5367,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="23" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="C53" s="23"/>
     </row>
@@ -5369,7 +5376,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="23" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="C54" s="23"/>
     </row>
@@ -5378,7 +5385,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C55" s="23"/>
     </row>
@@ -5387,7 +5394,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C56" s="23"/>
     </row>
@@ -5396,7 +5403,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C57" s="23"/>
     </row>
@@ -5405,7 +5412,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C58" s="23"/>
     </row>
@@ -5414,10 +5421,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C59" s="23" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
@@ -5425,10 +5432,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
@@ -5436,10 +5443,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
@@ -5447,10 +5454,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
@@ -5458,7 +5465,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="23" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="C63" s="23"/>
     </row>
@@ -5467,7 +5474,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="23" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="C64" s="23"/>
     </row>
@@ -5476,10 +5483,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="23" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="C65" s="23" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
@@ -5487,10 +5494,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="23" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="C66" s="23" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
@@ -5498,10 +5505,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="23" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="C67" s="23" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
@@ -5509,10 +5516,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="23" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="C68" s="23" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
@@ -5520,10 +5527,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="23" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="C69" s="23" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
@@ -5531,10 +5538,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="23" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="C70" s="23" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
@@ -5542,10 +5549,10 @@
         <v>70</v>
       </c>
       <c r="B71" s="23" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="C71" s="23" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
     </row>
   </sheetData>

--- a/doc/formal_language.xlsx
+++ b/doc/formal_language.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F306F3C-B423-487A-8057-1EB07723FEC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2050E87-FA2C-4763-8466-17781E7F6D94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2985" yWindow="2340" windowWidth="18330" windowHeight="12195" tabRatio="606" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="606" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="formal_language" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="character" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="456">
   <si>
     <t>#</t>
   </si>
@@ -758,22 +758,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>类别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>常识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>辅助线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>定理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>line相加关系</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -878,10 +862,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>nous_2_line_addition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>nous_3_angle_addition</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1257,18 +1237,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Add(expr1,expr2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Sub(expr1,expr2)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Mul(expr1,expr2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Div(expr1,expr2)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1605,15 +1577,155 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Relation's Predicate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>关系的谓词</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>theorem_70_congruent_property_angle_equal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nous_line_addition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>definition_of_triangle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>line_addition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>area_addition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>angle_addition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>triangle_property_angle_sum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三角形定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常识-邻线相加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常识-邻角相加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常识-邻面积相加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add(expr1,expr2,…)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mul(expr1,expr2,…)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Relation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>triangle_property_equal_line_to_equal_angle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>triangle_property_equal_angle_to_equal_line</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等角对等边</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要or</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pythagorean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>right_triangle_property_rt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>right_triangle_property_special_rt_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>right_triangle_property_special_rt_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>right_triangle_property_special_rt_3</t>
+  </si>
+  <si>
+    <t>right_triangle_property_special_rt_4</t>
+  </si>
+  <si>
+    <t>right_triangle_property_special_rt_5</t>
+  </si>
+  <si>
+    <t>right_triangle_property_special_rt_6</t>
+  </si>
+  <si>
+    <t>勾股定理逆定理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pythagorean_inverse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>right_triangle_judgment_angle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>right_triangle_judgment_rt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顶角30°，边成比例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顶角60°，边成比例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顶角45°，边成比例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>底角30°，边成比例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>底角60°，边成比例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>底角45°，边成比例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>得分为3个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有两个角是60°</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1621,7 +1733,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1690,13 +1802,28 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1726,7 +1853,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1764,14 +1891,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1786,12 +1907,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1800,10 +1915,52 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2088,8 +2245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:XFD35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="95.5" defaultRowHeight="20.25" x14ac:dyDescent="0.2"/>
@@ -2102,12 +2259,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
     </row>
     <row r="2" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -2123,41 +2280,41 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="17">
+    <row r="3" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="15">
         <v>1</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="15" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="17">
+    <row r="4" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="15">
         <v>2</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="15" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
     </row>
     <row r="8" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -2173,43 +2330,43 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="17">
+    <row r="9" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="15">
         <v>1</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="17"/>
-    </row>
-    <row r="10" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="17">
+      <c r="D9" s="15"/>
+    </row>
+    <row r="10" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="15">
         <v>2</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="15" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="17">
+    <row r="11" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="15">
         <v>3</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="15" t="s">
         <v>114</v>
       </c>
     </row>
@@ -2279,13 +2436,13 @@
       </c>
       <c r="D16" s="3"/>
     </row>
-    <row r="19" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="25" t="s">
+    <row r="19" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
@@ -2309,7 +2466,7 @@
         <v>85</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D21" s="5"/>
     </row>
@@ -2321,7 +2478,7 @@
         <v>86</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D22" s="5"/>
     </row>
@@ -2333,7 +2490,7 @@
         <v>87</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D23" s="5"/>
     </row>
@@ -2345,7 +2502,7 @@
         <v>88</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D24" s="5"/>
     </row>
@@ -2357,31 +2514,31 @@
         <v>89</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="26" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="17">
+    <row r="26" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="15">
         <v>6</v>
       </c>
-      <c r="B26" s="19" t="s">
-        <v>339</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>340</v>
-      </c>
-      <c r="D26" s="17"/>
+      <c r="B26" s="17" t="s">
+        <v>332</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>333</v>
+      </c>
+      <c r="D26" s="15"/>
     </row>
     <row r="29" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="25" t="s">
+      <c r="A29" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
@@ -2438,10 +2595,10 @@
         <v>4</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="D34" s="3"/>
     </row>
@@ -2468,7 +2625,7 @@
         <v>69</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -2479,7 +2636,7 @@
         <v>17</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D37" s="3"/>
     </row>
@@ -2580,7 +2737,7 @@
         <v>15</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>71</v>
@@ -2592,7 +2749,7 @@
         <v>16</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>72</v>
@@ -2604,13 +2761,13 @@
         <v>17</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -2618,13 +2775,13 @@
         <v>18</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -2634,12 +2791,12 @@
       <c r="B50" s="6"/>
     </row>
     <row r="51" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A51" s="25" t="s">
+      <c r="A51" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B51" s="25"/>
-      <c r="C51" s="25"/>
-      <c r="D51" s="25"/>
+      <c r="B51" s="28"/>
+      <c r="C51" s="28"/>
+      <c r="D51" s="28"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
@@ -2662,8 +2819,8 @@
       <c r="B53" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C53" s="3" t="s">
-        <v>324</v>
+      <c r="C53" s="18" t="s">
+        <v>429</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>100</v>
@@ -2677,7 +2834,7 @@
         <v>47</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>101</v>
@@ -2690,8 +2847,8 @@
       <c r="B55" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C55" s="3" t="s">
-        <v>326</v>
+      <c r="C55" s="18" t="s">
+        <v>430</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>102</v>
@@ -2705,7 +2862,7 @@
         <v>49</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>103</v>
@@ -2719,7 +2876,7 @@
         <v>50</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>104</v>
@@ -2730,10 +2887,10 @@
         <v>6</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>77</v>
@@ -2744,10 +2901,10 @@
         <v>7</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>76</v>
@@ -2758,10 +2915,10 @@
         <v>8</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="D60" s="6" t="s">
         <v>75</v>
@@ -2786,13 +2943,13 @@
         <v>10</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -2828,22 +2985,22 @@
         <v>15</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A68" s="25" t="s">
-        <v>191</v>
-      </c>
-      <c r="B68" s="25"/>
-      <c r="C68" s="25"/>
-      <c r="D68" s="25"/>
+      <c r="A68" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="B68" s="28"/>
+      <c r="C68" s="28"/>
+      <c r="D68" s="28"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
@@ -2853,10 +3010,10 @@
         <v>31</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -2864,13 +3021,13 @@
         <v>2</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -2878,13 +3035,13 @@
         <v>3</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
     </row>
   </sheetData>
@@ -2904,1852 +3061,2001 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62602098-5D29-4DB6-92C7-0F20F150EACE}">
-  <dimension ref="A1:H90"/>
+  <dimension ref="A1:G125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D81" sqref="D81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.625" style="6" customWidth="1"/>
     <col min="2" max="2" width="9.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="78.75" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="67.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="59.875" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="6"/>
+    <col min="3" max="3" width="78.75" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="67.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="59.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>177</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15">
+        <v>1</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>421</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>426</v>
+      </c>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+    </row>
+    <row r="3" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15">
+        <v>2</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>423</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>427</v>
+      </c>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+    </row>
+    <row r="4" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15">
+        <v>3</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>422</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>428</v>
+      </c>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+    </row>
+    <row r="5" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="15"/>
+      <c r="B5" s="15">
+        <v>4</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>420</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>425</v>
+      </c>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+    </row>
+    <row r="6" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15">
+        <v>5</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>424</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="F6" s="15"/>
+    </row>
+    <row r="7" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15">
+        <v>6</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>432</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="F7" s="15"/>
+    </row>
+    <row r="8" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15">
+        <v>7</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>433</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>434</v>
+      </c>
+      <c r="F8" s="15"/>
+    </row>
+    <row r="9" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15">
+        <v>8</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>436</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="F9" s="15"/>
+    </row>
+    <row r="10" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="15"/>
+      <c r="B10" s="15">
+        <v>9</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>437</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="F10" s="15"/>
+    </row>
+    <row r="11" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="15"/>
+      <c r="B11" s="15">
+        <v>10</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>438</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>448</v>
+      </c>
+      <c r="F11" s="15"/>
+    </row>
+    <row r="12" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="15"/>
+      <c r="B12" s="15">
+        <v>11</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>439</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>449</v>
+      </c>
+      <c r="F12" s="15"/>
+    </row>
+    <row r="13" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="15"/>
+      <c r="B13" s="15">
+        <v>12</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>440</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>450</v>
+      </c>
+      <c r="F13" s="15"/>
+    </row>
+    <row r="14" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="15"/>
+      <c r="B14" s="15">
+        <v>13</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>441</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>451</v>
+      </c>
+      <c r="F14" s="15"/>
+    </row>
+    <row r="15" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="15"/>
+      <c r="B15" s="15">
+        <v>14</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>442</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="F15" s="15"/>
+    </row>
+    <row r="16" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="15"/>
+      <c r="B16" s="15">
+        <v>15</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>443</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>453</v>
+      </c>
+      <c r="F16" s="15"/>
+    </row>
+    <row r="17" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="15"/>
+      <c r="B17" s="15">
+        <v>16</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>445</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>444</v>
+      </c>
+      <c r="F17" s="15"/>
+    </row>
+    <row r="18" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="15"/>
+      <c r="B18" s="15">
+        <v>17</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>446</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="F18" s="15"/>
+    </row>
+    <row r="19" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="15"/>
+      <c r="B19" s="15">
+        <v>18</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>447</v>
+      </c>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+    </row>
+    <row r="20" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+    </row>
+    <row r="21" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="15"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+    </row>
+    <row r="22" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+    </row>
+    <row r="23" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+    </row>
+    <row r="24" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+    </row>
+    <row r="25" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="15"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+    </row>
+    <row r="26" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="15"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+    </row>
+    <row r="27" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="15"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+    </row>
+    <row r="28" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="15"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+    </row>
+    <row r="29" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="15"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+    </row>
+    <row r="30" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="15"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+    </row>
+    <row r="31" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="15"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+    </row>
+    <row r="32" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="27"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+    </row>
+    <row r="33" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="27"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="1"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+    </row>
+    <row r="37" spans="1:6" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="21">
+        <v>1</v>
+      </c>
+      <c r="B37" s="21">
+        <v>1</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="D37" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+    </row>
+    <row r="38" spans="1:6" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="21">
+        <v>2</v>
+      </c>
+      <c r="B38" s="21">
+        <v>2</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>419</v>
+      </c>
+      <c r="D38" s="21" t="s">
         <v>181</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+    </row>
+    <row r="39" spans="1:6" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="21">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3">
-        <v>1</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>213</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="B39" s="21">
+        <v>3</v>
+      </c>
+      <c r="C39" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="D39" s="21" t="s">
         <v>182</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3">
-        <v>2</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>214</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3">
-        <v>3</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>215</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+    </row>
+    <row r="40" spans="1:6" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="21">
         <v>4</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B40" s="21">
         <v>4</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C40" s="24" t="s">
+        <v>331</v>
+      </c>
+      <c r="D40" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="E40" s="21" t="s">
+        <v>229</v>
+      </c>
+      <c r="F40" s="21"/>
+    </row>
+    <row r="41" spans="1:6" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="21">
+        <v>5</v>
+      </c>
+      <c r="B41" s="21">
+        <v>5</v>
+      </c>
+      <c r="C41" s="24" t="s">
+        <v>330</v>
+      </c>
+      <c r="D41" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="E41" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="F41" s="21"/>
+    </row>
+    <row r="42" spans="1:6" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="21">
+        <v>6</v>
+      </c>
+      <c r="B42" s="21">
+        <v>6</v>
+      </c>
+      <c r="C42" s="24" t="s">
+        <v>276</v>
+      </c>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
+    </row>
+    <row r="43" spans="1:6" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="21">
+        <v>7</v>
+      </c>
+      <c r="B43" s="21">
+        <v>7</v>
+      </c>
+      <c r="C43" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+    </row>
+    <row r="44" spans="1:6" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="21">
+        <v>8</v>
+      </c>
+      <c r="B44" s="21">
+        <v>8</v>
+      </c>
+      <c r="C44" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+    </row>
+    <row r="45" spans="1:6" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="21">
+        <v>9</v>
+      </c>
+      <c r="B45" s="21">
+        <v>9</v>
+      </c>
+      <c r="C45" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
+    </row>
+    <row r="46" spans="1:6" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="21">
+        <v>10</v>
+      </c>
+      <c r="B46" s="21">
+        <v>10</v>
+      </c>
+      <c r="C46" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
+    </row>
+    <row r="47" spans="1:6" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="21">
+        <v>11</v>
+      </c>
+      <c r="B47" s="21">
+        <v>11</v>
+      </c>
+      <c r="C47" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
+    </row>
+    <row r="48" spans="1:6" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="21">
+        <v>12</v>
+      </c>
+      <c r="B48" s="21">
+        <v>12</v>
+      </c>
+      <c r="C48" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="D48" s="21"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="21"/>
+    </row>
+    <row r="49" spans="1:6" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="21">
+        <v>13</v>
+      </c>
+      <c r="B49" s="21">
+        <v>13</v>
+      </c>
+      <c r="C49" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="D49" s="21"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="21"/>
+    </row>
+    <row r="50" spans="1:6" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="21">
+        <v>14</v>
+      </c>
+      <c r="B50" s="21">
+        <v>14</v>
+      </c>
+      <c r="C50" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="D50" s="21"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="21"/>
+    </row>
+    <row r="51" spans="1:6" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="21">
+        <v>15</v>
+      </c>
+      <c r="B51" s="21">
+        <v>15</v>
+      </c>
+      <c r="C51" s="24" t="s">
+        <v>197</v>
+      </c>
+      <c r="D51" s="21"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="21"/>
+    </row>
+    <row r="52" spans="1:6" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="21">
+        <v>16</v>
+      </c>
+      <c r="B52" s="21">
+        <v>16</v>
+      </c>
+      <c r="C52" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="D52" s="21"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="21"/>
+    </row>
+    <row r="53" spans="1:6" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="21">
+        <v>17</v>
+      </c>
+      <c r="B53" s="21">
+        <v>17</v>
+      </c>
+      <c r="C53" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="D53" s="21"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="21"/>
+    </row>
+    <row r="54" spans="1:6" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="21">
+        <v>18</v>
+      </c>
+      <c r="B54" s="21">
+        <v>18</v>
+      </c>
+      <c r="C54" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="D54" s="21"/>
+      <c r="E54" s="21"/>
+      <c r="F54" s="21"/>
+    </row>
+    <row r="55" spans="1:6" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="21">
+        <v>19</v>
+      </c>
+      <c r="B55" s="21">
+        <v>19</v>
+      </c>
+      <c r="C55" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="D55" s="21"/>
+      <c r="E55" s="21"/>
+      <c r="F55" s="21"/>
+    </row>
+    <row r="56" spans="1:6" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="21">
+        <v>20</v>
+      </c>
+      <c r="B56" s="21">
+        <v>20</v>
+      </c>
+      <c r="C56" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="D56" s="21"/>
+      <c r="E56" s="21"/>
+      <c r="F56" s="21"/>
+    </row>
+    <row r="57" spans="1:6" s="32" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="30">
+        <v>21</v>
+      </c>
+      <c r="B57" s="30">
+        <v>21</v>
+      </c>
+      <c r="C57" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="D57" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="E57" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="F57" s="30"/>
+    </row>
+    <row r="58" spans="1:6" s="32" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="30">
+        <v>22</v>
+      </c>
+      <c r="B58" s="30">
+        <v>22</v>
+      </c>
+      <c r="C58" s="31" t="s">
+        <v>240</v>
+      </c>
+      <c r="D58" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="E58" s="30" t="s">
+        <v>241</v>
+      </c>
+      <c r="F58" s="30"/>
+    </row>
+    <row r="59" spans="1:6" s="32" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="30">
+        <v>23</v>
+      </c>
+      <c r="B59" s="30">
+        <v>23</v>
+      </c>
+      <c r="C59" s="31" t="s">
+        <v>242</v>
+      </c>
+      <c r="D59" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="E59" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="F59" s="30"/>
+    </row>
+    <row r="60" spans="1:6" s="32" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="30">
+        <v>24</v>
+      </c>
+      <c r="B60" s="30">
+        <v>24</v>
+      </c>
+      <c r="C60" s="31" t="s">
+        <v>243</v>
+      </c>
+      <c r="D60" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="E60" s="30" t="s">
+        <v>313</v>
+      </c>
+      <c r="F60" s="30"/>
+    </row>
+    <row r="61" spans="1:6" s="36" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="34">
+        <v>25</v>
+      </c>
+      <c r="B61" s="34">
+        <v>25</v>
+      </c>
+      <c r="C61" s="35" t="s">
+        <v>314</v>
+      </c>
+      <c r="D61" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="E61" s="34" t="s">
+        <v>315</v>
+      </c>
+      <c r="F61" s="34" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" s="32" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="30">
+        <v>26</v>
+      </c>
+      <c r="B62" s="30">
+        <v>26</v>
+      </c>
+      <c r="C62" s="31" t="s">
+        <v>244</v>
+      </c>
+      <c r="D62" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="E62" s="30" t="s">
+        <v>236</v>
+      </c>
+      <c r="F62" s="30"/>
+    </row>
+    <row r="63" spans="1:6" s="32" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="30">
+        <v>27</v>
+      </c>
+      <c r="B63" s="30">
+        <v>27</v>
+      </c>
+      <c r="C63" s="31" t="s">
+        <v>245</v>
+      </c>
+      <c r="D63" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="E63" s="30" t="s">
+        <v>277</v>
+      </c>
+      <c r="F63" s="30"/>
+    </row>
+    <row r="64" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="27">
+        <v>28</v>
+      </c>
+      <c r="B64" s="27">
+        <v>28</v>
+      </c>
+      <c r="C64" s="25" t="s">
+        <v>246</v>
+      </c>
+      <c r="D64" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="E64" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="F64" s="27"/>
+    </row>
+    <row r="65" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="27">
+        <v>29</v>
+      </c>
+      <c r="B65" s="27">
+        <v>29</v>
+      </c>
+      <c r="C65" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="D65" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="E65" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="F65" s="27"/>
+    </row>
+    <row r="66" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="27">
+        <v>30</v>
+      </c>
+      <c r="B66" s="27">
+        <v>30</v>
+      </c>
+      <c r="C66" s="25" t="s">
+        <v>248</v>
+      </c>
+      <c r="D66" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="E66" s="27" t="s">
+        <v>159</v>
+      </c>
+      <c r="F66" s="15" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="27">
+        <v>31</v>
+      </c>
+      <c r="B67" s="27">
+        <v>31</v>
+      </c>
+      <c r="C67" s="25" t="s">
+        <v>249</v>
+      </c>
+      <c r="D67" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="E67" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="F67" s="27"/>
+    </row>
+    <row r="68" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="27">
+        <v>32</v>
+      </c>
+      <c r="B68" s="27">
+        <v>32</v>
+      </c>
+      <c r="C68" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="D68" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="E68" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="F68" s="27"/>
+    </row>
+    <row r="69" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="27">
+        <v>33</v>
+      </c>
+      <c r="B69" s="27">
+        <v>33</v>
+      </c>
+      <c r="C69" s="25" t="s">
+        <v>251</v>
+      </c>
+      <c r="D69" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="E69" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="F69" s="27"/>
+    </row>
+    <row r="70" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="27">
+        <v>34</v>
+      </c>
+      <c r="B70" s="27">
+        <v>34</v>
+      </c>
+      <c r="C70" s="25" t="s">
+        <v>252</v>
+      </c>
+      <c r="D70" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="E70" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="F70" s="27"/>
+    </row>
+    <row r="71" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="27">
+        <v>35</v>
+      </c>
+      <c r="B71" s="27">
+        <v>35</v>
+      </c>
+      <c r="C71" s="25" t="s">
+        <v>253</v>
+      </c>
+      <c r="D71" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="E71" s="27" t="s">
+        <v>455</v>
+      </c>
+      <c r="F71" s="15" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="27">
+        <v>36</v>
+      </c>
+      <c r="B72" s="27">
+        <v>36</v>
+      </c>
+      <c r="C72" s="25" t="s">
+        <v>254</v>
+      </c>
+      <c r="D72" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="E72" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="F72" s="27"/>
+    </row>
+    <row r="73" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="27">
+        <v>37</v>
+      </c>
+      <c r="B73" s="27">
+        <v>37</v>
+      </c>
+      <c r="C73" s="25" t="s">
+        <v>255</v>
+      </c>
+      <c r="D73" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="E73" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="F73" s="15" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="27">
+        <v>38</v>
+      </c>
+      <c r="B74" s="27">
+        <v>38</v>
+      </c>
+      <c r="C74" s="25" t="s">
+        <v>256</v>
+      </c>
+      <c r="D74" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="E74" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="F74" s="27"/>
+      <c r="G74" s="33"/>
+    </row>
+    <row r="75" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="27">
+        <v>39</v>
+      </c>
+      <c r="B75" s="27">
+        <v>39</v>
+      </c>
+      <c r="C75" s="25" t="s">
+        <v>257</v>
+      </c>
+      <c r="D75" s="27" t="s">
+        <v>334</v>
+      </c>
+      <c r="E75" s="27" t="s">
+        <v>238</v>
+      </c>
+      <c r="F75" s="27" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="27">
+        <v>40</v>
+      </c>
+      <c r="B76" s="27">
+        <v>40</v>
+      </c>
+      <c r="C76" s="25" t="s">
+        <v>258</v>
+      </c>
+      <c r="D76" s="27" t="s">
+        <v>335</v>
+      </c>
+      <c r="E76" s="27" t="s">
+        <v>238</v>
+      </c>
+      <c r="F76" s="27"/>
+    </row>
+    <row r="77" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="27">
+        <v>41</v>
+      </c>
+      <c r="B77" s="27">
+        <v>41</v>
+      </c>
+      <c r="C77" s="25" t="s">
+        <v>259</v>
+      </c>
+      <c r="D77" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="E77" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="F77" s="27"/>
+    </row>
+    <row r="78" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="27">
+        <v>42</v>
+      </c>
+      <c r="B78" s="27">
+        <v>42</v>
+      </c>
+      <c r="C78" s="25" t="s">
+        <v>260</v>
+      </c>
+      <c r="D78" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="E78" s="27" t="s">
         <v>338</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="F5" s="3" t="s">
+      <c r="F78" s="27"/>
+    </row>
+    <row r="79" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="27">
+        <v>43</v>
+      </c>
+      <c r="B79" s="27">
+        <v>43</v>
+      </c>
+      <c r="C79" s="25" t="s">
+        <v>317</v>
+      </c>
+      <c r="D79" s="27" t="s">
+        <v>226</v>
+      </c>
+      <c r="E79" s="27" t="s">
+        <v>227</v>
+      </c>
+      <c r="F79" s="27"/>
+    </row>
+    <row r="80" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="27">
+        <v>44</v>
+      </c>
+      <c r="B80" s="27">
+        <v>44</v>
+      </c>
+      <c r="C80" s="25" t="s">
+        <v>261</v>
+      </c>
+      <c r="D80" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="E80" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="F80" s="27"/>
+    </row>
+    <row r="81" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="27">
+        <v>45</v>
+      </c>
+      <c r="B81" s="27">
+        <v>45</v>
+      </c>
+      <c r="C81" s="25" t="s">
+        <v>262</v>
+      </c>
+      <c r="D81" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="E81" s="27" t="s">
+        <v>228</v>
+      </c>
+      <c r="F81" s="27"/>
+    </row>
+    <row r="82" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="27">
+        <v>46</v>
+      </c>
+      <c r="B82" s="27">
+        <v>46</v>
+      </c>
+      <c r="C82" s="25" t="s">
+        <v>263</v>
+      </c>
+      <c r="D82" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="E82" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="F82" s="27"/>
+    </row>
+    <row r="83" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="27">
+        <v>47</v>
+      </c>
+      <c r="B83" s="27">
+        <v>47</v>
+      </c>
+      <c r="C83" s="25" t="s">
+        <v>264</v>
+      </c>
+      <c r="D83" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="E83" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="F83" s="27"/>
+    </row>
+    <row r="84" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="27">
+        <v>48</v>
+      </c>
+      <c r="B84" s="27">
+        <v>48</v>
+      </c>
+      <c r="C84" s="25" t="s">
+        <v>265</v>
+      </c>
+      <c r="D84" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="E84" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="F84" s="27"/>
+    </row>
+    <row r="85" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="27">
+        <v>49</v>
+      </c>
+      <c r="B85" s="27">
+        <v>49</v>
+      </c>
+      <c r="C85" s="25" t="s">
+        <v>266</v>
+      </c>
+      <c r="D85" s="27" t="s">
+        <v>223</v>
+      </c>
+      <c r="E85" s="27" t="s">
+        <v>316</v>
+      </c>
+      <c r="F85" s="27"/>
+    </row>
+    <row r="86" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="27">
+        <v>50</v>
+      </c>
+      <c r="B86" s="27">
+        <v>50</v>
+      </c>
+      <c r="C86" s="25" t="s">
+        <v>267</v>
+      </c>
+      <c r="D86" s="27" t="s">
+        <v>224</v>
+      </c>
+      <c r="E86" s="27" t="s">
+        <v>316</v>
+      </c>
+      <c r="F86" s="27"/>
+    </row>
+    <row r="87" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="27">
+        <v>51</v>
+      </c>
+      <c r="B87" s="27">
+        <v>51</v>
+      </c>
+      <c r="C87" s="25" t="s">
+        <v>268</v>
+      </c>
+      <c r="D87" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="E87" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="F87" s="27"/>
+    </row>
+    <row r="88" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="27">
+        <v>52</v>
+      </c>
+      <c r="B88" s="27">
+        <v>52</v>
+      </c>
+      <c r="C88" s="25" t="s">
+        <v>269</v>
+      </c>
+      <c r="D88" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="E88" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="F88" s="27"/>
+    </row>
+    <row r="89" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="27">
+        <v>53</v>
+      </c>
+      <c r="B89" s="27">
+        <v>53</v>
+      </c>
+      <c r="C89" s="25" t="s">
+        <v>270</v>
+      </c>
+      <c r="D89" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="E89" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="F89" s="27"/>
+    </row>
+    <row r="90" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="27">
+        <v>54</v>
+      </c>
+      <c r="B90" s="27">
+        <v>54</v>
+      </c>
+      <c r="C90" s="25" t="s">
+        <v>271</v>
+      </c>
+      <c r="D90" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="E90" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="F90" s="27"/>
+    </row>
+    <row r="91" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="27">
+        <v>55</v>
+      </c>
+      <c r="B91" s="27">
+        <v>55</v>
+      </c>
+      <c r="C91" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="D91" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="E91" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="F91" s="27"/>
+    </row>
+    <row r="92" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="27">
+        <v>56</v>
+      </c>
+      <c r="B92" s="27">
+        <v>56</v>
+      </c>
+      <c r="C92" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="D92" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="E92" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="F92" s="27"/>
+    </row>
+    <row r="93" spans="1:6" s="26" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="27">
+        <v>57</v>
+      </c>
+      <c r="B93" s="27">
+        <v>57</v>
+      </c>
+      <c r="C93" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="D93" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="E93" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="F93" s="27"/>
+    </row>
+    <row r="94" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="27">
+        <v>58</v>
+      </c>
+      <c r="B94" s="27">
+        <v>58</v>
+      </c>
+      <c r="C94" s="25" t="s">
+        <v>275</v>
+      </c>
+      <c r="D94" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="E94" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="F94" s="27"/>
+    </row>
+    <row r="95" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="27">
+        <v>59</v>
+      </c>
+      <c r="B95" s="27">
+        <v>59</v>
+      </c>
+      <c r="C95" s="25" t="s">
+        <v>284</v>
+      </c>
+      <c r="D95" s="27" t="s">
+        <v>281</v>
+      </c>
+      <c r="E95" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="F95" s="27"/>
+    </row>
+    <row r="96" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="27">
+        <v>60</v>
+      </c>
+      <c r="B96" s="27">
+        <v>60</v>
+      </c>
+      <c r="C96" s="25" t="s">
+        <v>285</v>
+      </c>
+      <c r="D96" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="E96" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="F96" s="27"/>
+    </row>
+    <row r="97" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="27">
+        <v>61</v>
+      </c>
+      <c r="B97" s="27">
+        <v>61</v>
+      </c>
+      <c r="C97" s="25" t="s">
+        <v>283</v>
+      </c>
+      <c r="D97" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="E97" s="27" t="s">
+        <v>237</v>
+      </c>
+      <c r="F97" s="27"/>
+    </row>
+    <row r="98" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="27">
+        <v>62</v>
+      </c>
+      <c r="B98" s="27">
+        <v>62</v>
+      </c>
+      <c r="C98" s="25" t="s">
+        <v>310</v>
+      </c>
+      <c r="D98" s="27" t="s">
+        <v>280</v>
+      </c>
+      <c r="E98" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="F98" s="27"/>
+    </row>
+    <row r="99" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="27">
+        <v>63</v>
+      </c>
+      <c r="B99" s="27">
+        <v>63</v>
+      </c>
+      <c r="C99" s="25" t="s">
+        <v>286</v>
+      </c>
+      <c r="D99" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="E99" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="F99" s="27"/>
+    </row>
+    <row r="100" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="27">
+        <v>64</v>
+      </c>
+      <c r="B100" s="27">
+        <v>64</v>
+      </c>
+      <c r="C100" s="25" t="s">
+        <v>287</v>
+      </c>
+      <c r="D100" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="E100" s="27" t="s">
         <v>234</v>
       </c>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3">
-        <v>5</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>337</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="F6" s="3" t="s">
+      <c r="F100" s="27"/>
+    </row>
+    <row r="101" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="27">
+        <v>65</v>
+      </c>
+      <c r="B101" s="27">
+        <v>65</v>
+      </c>
+      <c r="C101" s="25" t="s">
+        <v>311</v>
+      </c>
+      <c r="D101" s="27" t="s">
+        <v>279</v>
+      </c>
+      <c r="E101" s="27" t="s">
+        <v>234</v>
+      </c>
+      <c r="F101" s="27"/>
+    </row>
+    <row r="102" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="27">
+        <v>66</v>
+      </c>
+      <c r="B102" s="27">
+        <v>66</v>
+      </c>
+      <c r="C102" s="25" t="s">
+        <v>288</v>
+      </c>
+      <c r="D102" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="E102" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="F102" s="27"/>
+    </row>
+    <row r="103" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="27">
+        <v>67</v>
+      </c>
+      <c r="B103" s="27">
+        <v>67</v>
+      </c>
+      <c r="C103" s="25" t="s">
+        <v>289</v>
+      </c>
+      <c r="D103" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="E103" s="27" t="s">
         <v>235</v>
       </c>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3">
-        <v>6</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>281</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3">
-        <v>7</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3">
-        <v>8</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3">
-        <v>9</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3">
-        <v>10</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3">
-        <v>11</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3">
-        <v>12</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>198</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
-        <v>13</v>
-      </c>
-      <c r="B14" s="3">
-        <v>13</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
-        <v>14</v>
-      </c>
-      <c r="B15" s="3">
-        <v>14</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
-        <v>15</v>
-      </c>
-      <c r="B16" s="3">
-        <v>15</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
-        <v>16</v>
-      </c>
-      <c r="B17" s="3">
-        <v>16</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
-        <v>17</v>
-      </c>
-      <c r="B18" s="3">
-        <v>17</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
-        <v>18</v>
-      </c>
-      <c r="B19" s="3">
-        <v>18</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
-        <v>19</v>
-      </c>
-      <c r="B20" s="3">
-        <v>19</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
-        <v>20</v>
-      </c>
-      <c r="B21" s="3">
-        <v>20</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
-        <v>21</v>
-      </c>
-      <c r="B22" s="3">
-        <v>21</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="G22" s="3"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
-        <v>22</v>
-      </c>
-      <c r="B23" s="3">
-        <v>22</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>245</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="G23" s="3"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
-        <v>23</v>
-      </c>
-      <c r="B24" s="3">
-        <v>23</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>247</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="G24" s="3"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
-        <v>24</v>
-      </c>
-      <c r="B25" s="3">
-        <v>24</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>248</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="G25" s="3"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
-        <v>25</v>
-      </c>
-      <c r="B26" s="3">
-        <v>25</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>319</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="G26" s="3"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
-        <v>26</v>
-      </c>
-      <c r="B27" s="3">
-        <v>26</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>249</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="G27" s="3"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
-        <v>27</v>
-      </c>
-      <c r="B28" s="3">
-        <v>27</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>250</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="G28" s="3"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
-        <v>28</v>
-      </c>
-      <c r="B29" s="3">
-        <v>28</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>251</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="G29" s="3"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="3">
-        <v>29</v>
-      </c>
-      <c r="B30" s="3">
-        <v>29</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>252</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="G30" s="3"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="3">
-        <v>30</v>
-      </c>
-      <c r="B31" s="3">
-        <v>30</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>253</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="G31" s="3"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="3">
-        <v>31</v>
-      </c>
-      <c r="B32" s="3">
-        <v>31</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>254</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="G32" s="3"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="3">
-        <v>32</v>
-      </c>
-      <c r="B33" s="3">
-        <v>32</v>
-      </c>
-      <c r="C33" s="14" t="s">
-        <v>255</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="G33" s="3"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="3">
-        <v>33</v>
-      </c>
-      <c r="B34" s="3">
-        <v>33</v>
-      </c>
-      <c r="C34" s="14" t="s">
-        <v>256</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="G34" s="3"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="3">
-        <v>34</v>
-      </c>
-      <c r="B35" s="3">
-        <v>34</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>257</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="G35" s="3"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="3">
-        <v>35</v>
-      </c>
-      <c r="B36" s="3">
-        <v>35</v>
-      </c>
-      <c r="C36" s="14" t="s">
-        <v>258</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="G36" s="3"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="3">
-        <v>36</v>
-      </c>
-      <c r="B37" s="3">
-        <v>36</v>
-      </c>
-      <c r="C37" s="14" t="s">
-        <v>259</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="G37" s="3"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="3">
-        <v>37</v>
-      </c>
-      <c r="B38" s="3">
-        <v>37</v>
-      </c>
-      <c r="C38" s="14" t="s">
-        <v>260</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="G38" s="3"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="3">
-        <v>38</v>
-      </c>
-      <c r="B39" s="3">
-        <v>38</v>
-      </c>
-      <c r="C39" s="14" t="s">
-        <v>261</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="G39" s="3"/>
-      <c r="H39" s="7"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" s="3">
-        <v>39</v>
-      </c>
-      <c r="B40" s="3">
-        <v>39</v>
-      </c>
-      <c r="C40" s="14" t="s">
-        <v>262</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="3">
-        <v>40</v>
-      </c>
-      <c r="B41" s="3">
-        <v>40</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>263</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="G41" s="3"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="3">
-        <v>41</v>
-      </c>
-      <c r="B42" s="3">
-        <v>41</v>
-      </c>
-      <c r="C42" s="14" t="s">
-        <v>264</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="G42" s="3"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="3">
-        <v>42</v>
-      </c>
-      <c r="B43" s="3">
-        <v>42</v>
-      </c>
-      <c r="C43" s="13" t="s">
-        <v>265</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="G43" s="3"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="3">
-        <v>43</v>
-      </c>
-      <c r="B44" s="3">
-        <v>43</v>
-      </c>
-      <c r="C44" s="14" t="s">
-        <v>322</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="G44" s="3"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" s="3">
-        <v>44</v>
-      </c>
-      <c r="B45" s="3">
-        <v>44</v>
-      </c>
-      <c r="C45" s="14" t="s">
-        <v>266</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="G45" s="3"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" s="3">
-        <v>45</v>
-      </c>
-      <c r="B46" s="3">
-        <v>45</v>
-      </c>
-      <c r="C46" s="14" t="s">
-        <v>267</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="G46" s="3"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" s="3">
-        <v>46</v>
-      </c>
-      <c r="B47" s="3">
-        <v>46</v>
-      </c>
-      <c r="C47" s="14" t="s">
-        <v>268</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="G47" s="3"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" s="3">
-        <v>47</v>
-      </c>
-      <c r="B48" s="3">
-        <v>47</v>
-      </c>
-      <c r="C48" s="14" t="s">
-        <v>269</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="G48" s="3"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="3">
-        <v>48</v>
-      </c>
-      <c r="B49" s="3">
-        <v>48</v>
-      </c>
-      <c r="C49" s="14" t="s">
-        <v>270</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="G49" s="3"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="3">
-        <v>49</v>
-      </c>
-      <c r="B50" s="3">
-        <v>49</v>
-      </c>
-      <c r="C50" s="14" t="s">
-        <v>271</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="G50" s="3"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="3">
-        <v>50</v>
-      </c>
-      <c r="B51" s="3">
-        <v>50</v>
-      </c>
-      <c r="C51" s="14" t="s">
-        <v>272</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="G51" s="3"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="3">
-        <v>51</v>
-      </c>
-      <c r="B52" s="3">
-        <v>51</v>
-      </c>
-      <c r="C52" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="G52" s="3"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" s="3">
-        <v>52</v>
-      </c>
-      <c r="B53" s="3">
-        <v>52</v>
-      </c>
-      <c r="C53" s="14" t="s">
-        <v>274</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="G53" s="3"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54" s="3">
-        <v>53</v>
-      </c>
-      <c r="B54" s="3">
-        <v>53</v>
-      </c>
-      <c r="C54" s="14" t="s">
-        <v>275</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="G54" s="3"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55" s="3">
-        <v>54</v>
-      </c>
-      <c r="B55" s="3">
-        <v>54</v>
-      </c>
-      <c r="C55" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="G55" s="3"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56" s="3">
-        <v>55</v>
-      </c>
-      <c r="B56" s="3">
-        <v>55</v>
-      </c>
-      <c r="C56" s="14" t="s">
-        <v>277</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="G56" s="3"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57" s="3">
-        <v>56</v>
-      </c>
-      <c r="B57" s="3">
-        <v>56</v>
-      </c>
-      <c r="C57" s="14" t="s">
+      <c r="F103" s="27"/>
+    </row>
+    <row r="104" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="27">
+        <v>68</v>
+      </c>
+      <c r="B104" s="27">
+        <v>68</v>
+      </c>
+      <c r="C104" s="25" t="s">
+        <v>312</v>
+      </c>
+      <c r="D104" s="27" t="s">
         <v>278</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="G57" s="3"/>
-    </row>
-    <row r="58" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="3">
-        <v>57</v>
-      </c>
-      <c r="B58" s="3">
-        <v>57</v>
-      </c>
-      <c r="C58" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="G58" s="3"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A59" s="3">
-        <v>58</v>
-      </c>
-      <c r="B59" s="3">
-        <v>58</v>
-      </c>
-      <c r="C59" s="13" t="s">
-        <v>280</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G59" s="3"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A60" s="3">
-        <v>59</v>
-      </c>
-      <c r="B60" s="3">
-        <v>59</v>
-      </c>
-      <c r="C60" s="13" t="s">
-        <v>289</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G60" s="3"/>
-    </row>
-    <row r="61" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="3">
-        <v>60</v>
-      </c>
-      <c r="B61" s="3">
-        <v>60</v>
-      </c>
-      <c r="C61" s="20" t="s">
+      <c r="E104" s="27" t="s">
+        <v>235</v>
+      </c>
+      <c r="F104" s="27"/>
+    </row>
+    <row r="105" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="27">
+        <v>69</v>
+      </c>
+      <c r="B105" s="27">
+        <v>69</v>
+      </c>
+      <c r="C105" s="25" t="s">
         <v>290</v>
       </c>
-      <c r="D61" s="21" t="s">
-        <v>184</v>
-      </c>
-      <c r="E61" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="F61" s="21" t="s">
-        <v>173</v>
-      </c>
-      <c r="G61" s="21"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A62" s="3">
-        <v>61</v>
-      </c>
-      <c r="B62" s="3">
-        <v>61</v>
-      </c>
-      <c r="C62" s="14" t="s">
-        <v>288</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="G62" s="3"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A63" s="3">
-        <v>62</v>
-      </c>
-      <c r="B63" s="3">
-        <v>62</v>
-      </c>
-      <c r="C63" s="20" t="s">
-        <v>315</v>
-      </c>
-      <c r="D63" s="21" t="s">
-        <v>184</v>
-      </c>
-      <c r="E63" s="21" t="s">
-        <v>285</v>
-      </c>
-      <c r="F63" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="G63" s="3"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A64" s="3">
-        <v>63</v>
-      </c>
-      <c r="B64" s="3">
-        <v>63</v>
-      </c>
-      <c r="C64" s="14" t="s">
+      <c r="D105" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="E105" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="F105" s="27"/>
+    </row>
+    <row r="106" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="27">
+        <v>70</v>
+      </c>
+      <c r="B106" s="27">
+        <v>70</v>
+      </c>
+      <c r="C106" s="25" t="s">
+        <v>418</v>
+      </c>
+      <c r="D106" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="E106" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="F106" s="27"/>
+    </row>
+    <row r="107" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="27">
+        <v>71</v>
+      </c>
+      <c r="B107" s="27">
+        <v>71</v>
+      </c>
+      <c r="C107" s="25" t="s">
         <v>291</v>
       </c>
-      <c r="D64" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="G64" s="3"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A65" s="3">
-        <v>64</v>
-      </c>
-      <c r="B65" s="3">
-        <v>64</v>
-      </c>
-      <c r="C65" s="14" t="s">
+      <c r="D107" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="E107" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="F107" s="27"/>
+    </row>
+    <row r="108" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="27">
+        <v>72</v>
+      </c>
+      <c r="B108" s="27">
+        <v>72</v>
+      </c>
+      <c r="C108" s="25" t="s">
         <v>292</v>
       </c>
-      <c r="D65" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="G65" s="3"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A66" s="3">
-        <v>65</v>
-      </c>
-      <c r="B66" s="3">
-        <v>65</v>
-      </c>
-      <c r="C66" s="20" t="s">
-        <v>316</v>
-      </c>
-      <c r="D66" s="21" t="s">
-        <v>184</v>
-      </c>
-      <c r="E66" s="21" t="s">
-        <v>284</v>
-      </c>
-      <c r="F66" s="21" t="s">
-        <v>239</v>
-      </c>
-      <c r="G66" s="3"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A67" s="3">
-        <v>66</v>
-      </c>
-      <c r="B67" s="3">
-        <v>66</v>
-      </c>
-      <c r="C67" s="13" t="s">
+      <c r="D108" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="E108" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="F108" s="27"/>
+    </row>
+    <row r="109" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="27">
+        <v>73</v>
+      </c>
+      <c r="B109" s="27">
+        <v>73</v>
+      </c>
+      <c r="C109" s="25" t="s">
         <v>293</v>
       </c>
-      <c r="D67" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="F67" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="G67" s="3"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A68" s="3">
-        <v>67</v>
-      </c>
-      <c r="B68" s="3">
-        <v>67</v>
-      </c>
-      <c r="C68" s="13" t="s">
+      <c r="D109" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="E109" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="F109" s="27"/>
+    </row>
+    <row r="110" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="27">
+        <v>74</v>
+      </c>
+      <c r="B110" s="27">
+        <v>74</v>
+      </c>
+      <c r="C110" s="25" t="s">
         <v>294</v>
       </c>
-      <c r="D68" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="G68" s="3"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A69" s="3">
-        <v>68</v>
-      </c>
-      <c r="B69" s="3">
-        <v>68</v>
-      </c>
-      <c r="C69" s="20" t="s">
-        <v>317</v>
-      </c>
-      <c r="D69" s="21" t="s">
-        <v>184</v>
-      </c>
-      <c r="E69" s="21" t="s">
-        <v>283</v>
-      </c>
-      <c r="F69" s="21" t="s">
-        <v>240</v>
-      </c>
-      <c r="G69" s="3"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A70" s="3">
-        <v>69</v>
-      </c>
-      <c r="B70" s="3">
-        <v>69</v>
-      </c>
-      <c r="C70" s="14" t="s">
+      <c r="D110" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="E110" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="F110" s="27"/>
+    </row>
+    <row r="111" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="27">
+        <v>75</v>
+      </c>
+      <c r="B111" s="27">
+        <v>75</v>
+      </c>
+      <c r="C111" s="25" t="s">
         <v>295</v>
       </c>
-      <c r="D70" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="F70" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="G70" s="3"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A71" s="3">
-        <v>70</v>
-      </c>
-      <c r="B71" s="3">
-        <v>70</v>
-      </c>
-      <c r="C71" s="14" t="s">
-        <v>426</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="F71" s="3" t="s">
+      <c r="D111" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="E111" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="F111" s="27"/>
+    </row>
+    <row r="112" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="27">
+        <v>76</v>
+      </c>
+      <c r="B112" s="27">
+        <v>76</v>
+      </c>
+      <c r="C112" s="25" t="s">
+        <v>296</v>
+      </c>
+      <c r="D112" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="E112" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="F112" s="27"/>
+    </row>
+    <row r="113" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="27">
+        <v>77</v>
+      </c>
+      <c r="B113" s="27">
+        <v>77</v>
+      </c>
+      <c r="C113" s="25" t="s">
+        <v>297</v>
+      </c>
+      <c r="D113" s="27" t="s">
+        <v>219</v>
+      </c>
+      <c r="E113" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="G71" s="3"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A72" s="3">
-        <v>71</v>
-      </c>
-      <c r="B72" s="3">
-        <v>71</v>
-      </c>
-      <c r="C72" s="14" t="s">
-        <v>296</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="G72" s="3"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A73" s="3">
-        <v>72</v>
-      </c>
-      <c r="B73" s="3">
-        <v>72</v>
-      </c>
-      <c r="C73" s="14" t="s">
-        <v>297</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="F73" s="3" t="s">
+      <c r="F113" s="27"/>
+    </row>
+    <row r="114" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="27">
+        <v>78</v>
+      </c>
+      <c r="B114" s="27">
+        <v>78</v>
+      </c>
+      <c r="C114" s="25" t="s">
+        <v>298</v>
+      </c>
+      <c r="D114" s="27" t="s">
+        <v>219</v>
+      </c>
+      <c r="E114" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="F114" s="27"/>
+    </row>
+    <row r="115" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="27">
+        <v>79</v>
+      </c>
+      <c r="B115" s="27">
+        <v>79</v>
+      </c>
+      <c r="C115" s="25" t="s">
+        <v>299</v>
+      </c>
+      <c r="D115" s="27" t="s">
+        <v>219</v>
+      </c>
+      <c r="E115" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="F115" s="27"/>
+    </row>
+    <row r="116" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="27">
+        <v>80</v>
+      </c>
+      <c r="B116" s="27">
+        <v>80</v>
+      </c>
+      <c r="C116" s="25" t="s">
+        <v>300</v>
+      </c>
+      <c r="D116" s="27" t="s">
+        <v>219</v>
+      </c>
+      <c r="E116" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="F116" s="27"/>
+    </row>
+    <row r="117" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="27">
+        <v>81</v>
+      </c>
+      <c r="B117" s="27">
+        <v>81</v>
+      </c>
+      <c r="C117" s="25" t="s">
+        <v>301</v>
+      </c>
+      <c r="D117" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="E117" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="G73" s="3"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A74" s="3">
-        <v>73</v>
-      </c>
-      <c r="B74" s="3">
-        <v>73</v>
-      </c>
-      <c r="C74" s="14" t="s">
-        <v>298</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="F74" s="3" t="s">
+      <c r="F117" s="27"/>
+    </row>
+    <row r="118" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="27">
+        <v>82</v>
+      </c>
+      <c r="B118" s="27">
+        <v>82</v>
+      </c>
+      <c r="C118" s="25" t="s">
+        <v>302</v>
+      </c>
+      <c r="D118" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="E118" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="G74" s="3"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A75" s="3">
-        <v>74</v>
-      </c>
-      <c r="B75" s="3">
-        <v>74</v>
-      </c>
-      <c r="C75" s="14" t="s">
-        <v>299</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="F75" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="G75" s="3"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A76" s="3">
-        <v>75</v>
-      </c>
-      <c r="B76" s="3">
-        <v>75</v>
-      </c>
-      <c r="C76" s="14" t="s">
-        <v>300</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="G76" s="3"/>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A77" s="3">
-        <v>76</v>
-      </c>
-      <c r="B77" s="3">
-        <v>76</v>
-      </c>
-      <c r="C77" s="14" t="s">
-        <v>301</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="F77" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="G77" s="3"/>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A78" s="3">
-        <v>77</v>
-      </c>
-      <c r="B78" s="3">
-        <v>77</v>
-      </c>
-      <c r="C78" s="14" t="s">
-        <v>302</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E78" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="F78" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="G78" s="3"/>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A79" s="3">
-        <v>78</v>
-      </c>
-      <c r="B79" s="3">
-        <v>78</v>
-      </c>
-      <c r="C79" s="14" t="s">
+      <c r="F118" s="27"/>
+    </row>
+    <row r="119" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="27">
+        <v>83</v>
+      </c>
+      <c r="B119" s="27">
+        <v>83</v>
+      </c>
+      <c r="C119" s="25" t="s">
         <v>303</v>
       </c>
-      <c r="D79" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="F79" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="G79" s="3"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A80" s="3">
-        <v>79</v>
-      </c>
-      <c r="B80" s="3">
-        <v>79</v>
-      </c>
-      <c r="C80" s="14" t="s">
+      <c r="D119" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="E119" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="F119" s="27"/>
+    </row>
+    <row r="120" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="27">
+        <v>84</v>
+      </c>
+      <c r="B120" s="27">
+        <v>84</v>
+      </c>
+      <c r="C120" s="25" t="s">
         <v>304</v>
       </c>
-      <c r="D80" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="F80" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="G80" s="3"/>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A81" s="3">
-        <v>80</v>
-      </c>
-      <c r="B81" s="3">
-        <v>80</v>
-      </c>
-      <c r="C81" s="14" t="s">
+      <c r="D120" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="E120" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="F120" s="27"/>
+    </row>
+    <row r="121" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="27">
+        <v>85</v>
+      </c>
+      <c r="B121" s="27">
+        <v>85</v>
+      </c>
+      <c r="C121" s="25" t="s">
         <v>305</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="G81" s="3"/>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A82" s="3">
-        <v>81</v>
-      </c>
-      <c r="B82" s="3">
-        <v>81</v>
-      </c>
-      <c r="C82" s="14" t="s">
+      <c r="D121" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="E121" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="F121" s="27"/>
+    </row>
+    <row r="122" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="27">
+        <v>86</v>
+      </c>
+      <c r="B122" s="27">
+        <v>86</v>
+      </c>
+      <c r="C122" s="25" t="s">
         <v>306</v>
       </c>
-      <c r="D82" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="F82" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="G82" s="3"/>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A83" s="3">
-        <v>82</v>
-      </c>
-      <c r="B83" s="3">
-        <v>82</v>
-      </c>
-      <c r="C83" s="14" t="s">
+      <c r="D122" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="E122" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="F122" s="27"/>
+    </row>
+    <row r="123" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="27">
+        <v>87</v>
+      </c>
+      <c r="B123" s="27">
+        <v>87</v>
+      </c>
+      <c r="C123" s="25" t="s">
         <v>307</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="G83" s="3"/>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A84" s="3">
-        <v>83</v>
-      </c>
-      <c r="B84" s="3">
-        <v>83</v>
-      </c>
-      <c r="C84" s="14" t="s">
+      <c r="D123" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="E123" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="F123" s="27"/>
+    </row>
+    <row r="124" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="27">
+        <v>88</v>
+      </c>
+      <c r="B124" s="27">
+        <v>88</v>
+      </c>
+      <c r="C124" s="25" t="s">
         <v>308</v>
       </c>
-      <c r="D84" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E84" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="F84" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="G84" s="3"/>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A85" s="3">
-        <v>84</v>
-      </c>
-      <c r="B85" s="3">
-        <v>84</v>
-      </c>
-      <c r="C85" s="14" t="s">
+      <c r="D124" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="E124" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="F124" s="27"/>
+    </row>
+    <row r="125" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="27">
+        <v>89</v>
+      </c>
+      <c r="B125" s="27">
+        <v>89</v>
+      </c>
+      <c r="C125" s="25" t="s">
         <v>309</v>
       </c>
-      <c r="D85" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E85" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="F85" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="G85" s="3"/>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A86" s="3">
-        <v>85</v>
-      </c>
-      <c r="B86" s="3">
-        <v>85</v>
-      </c>
-      <c r="C86" s="14" t="s">
-        <v>310</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E86" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="F86" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="G86" s="3"/>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A87" s="3">
-        <v>86</v>
-      </c>
-      <c r="B87" s="3">
-        <v>86</v>
-      </c>
-      <c r="C87" s="14" t="s">
-        <v>311</v>
-      </c>
-      <c r="D87" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E87" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="F87" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="G87" s="3"/>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A88" s="3">
-        <v>87</v>
-      </c>
-      <c r="B88" s="3">
-        <v>87</v>
-      </c>
-      <c r="C88" s="14" t="s">
-        <v>312</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E88" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="F88" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="G88" s="3"/>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A89" s="3">
-        <v>88</v>
-      </c>
-      <c r="B89" s="3">
-        <v>88</v>
-      </c>
-      <c r="C89" s="14" t="s">
-        <v>313</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="F89" s="3" t="s">
+      <c r="D125" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="E125" s="27" t="s">
         <v>174</v>
       </c>
-      <c r="G89" s="3"/>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A90" s="3">
-        <v>89</v>
-      </c>
-      <c r="B90" s="3">
-        <v>89</v>
-      </c>
-      <c r="C90" s="14" t="s">
-        <v>314</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E90" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="F90" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="G90" s="3"/>
+      <c r="F125" s="27"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4780,12 +5086,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
       <c r="F1" s="10" t="s">
         <v>35</v>
       </c>
@@ -4816,7 +5122,7 @@
         <v>-1</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -4872,687 +5178,687 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.875" style="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.75" style="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5" style="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9" style="24"/>
-    <col min="6" max="6" width="11.25" style="24" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="24"/>
+    <col min="1" max="1" width="7.875" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.75" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9" style="20"/>
+    <col min="6" max="6" width="11.25" style="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="19" t="s">
+        <v>339</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="19">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>341</v>
+      </c>
+      <c r="C2" s="19"/>
+      <c r="F2" s="20" t="s">
+        <v>409</v>
+      </c>
+      <c r="G2" s="20">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="19">
+        <v>2</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>342</v>
+      </c>
+      <c r="C3" s="19"/>
+      <c r="F3" s="20" t="s">
+        <v>410</v>
+      </c>
+      <c r="G3" s="20">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="19">
+        <v>3</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>343</v>
+      </c>
+      <c r="C4" s="19"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="19">
+        <v>4</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>344</v>
+      </c>
+      <c r="C5" s="19"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="19">
+        <v>5</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>345</v>
+      </c>
+      <c r="C6" s="19"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="19">
+        <v>6</v>
+      </c>
+      <c r="B7" s="19" t="s">
         <v>346</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C7" s="19"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="19">
+        <v>7</v>
+      </c>
+      <c r="B8" s="19" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="23">
-        <v>1</v>
-      </c>
-      <c r="B2" s="23" t="s">
+      <c r="C8" s="19"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="19">
+        <v>8</v>
+      </c>
+      <c r="B9" s="19" t="s">
         <v>348</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="F2" s="24" t="s">
-        <v>416</v>
-      </c>
-      <c r="G2" s="24">
+      <c r="C9" s="19"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="19">
+        <v>9</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>349</v>
+      </c>
+      <c r="C10" s="19"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="19">
+        <v>10</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>350</v>
+      </c>
+      <c r="C11" s="19"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="19">
+        <v>11</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>351</v>
+      </c>
+      <c r="C12" s="19"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="19">
+        <v>12</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>352</v>
+      </c>
+      <c r="C13" s="19"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="19">
+        <v>13</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>353</v>
+      </c>
+      <c r="C14" s="19"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="19">
+        <v>14</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>354</v>
+      </c>
+      <c r="C15" s="19"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="19">
+        <v>15</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>355</v>
+      </c>
+      <c r="C16" s="19"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="19">
+        <v>16</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>356</v>
+      </c>
+      <c r="C17" s="19"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="19">
+        <v>17</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>357</v>
+      </c>
+      <c r="C18" s="19"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="C19" s="19"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="19">
+        <v>19</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>359</v>
+      </c>
+      <c r="C20" s="19"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="19">
+        <v>20</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>360</v>
+      </c>
+      <c r="C21" s="19"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="19">
+        <v>21</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>361</v>
+      </c>
+      <c r="C22" s="19"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="19">
+        <v>22</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>362</v>
+      </c>
+      <c r="C23" s="19"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="19">
+        <v>23</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>363</v>
+      </c>
+      <c r="C24" s="19"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="19">
+        <v>24</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>364</v>
+      </c>
+      <c r="C25" s="19"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="19">
+        <v>25</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>365</v>
+      </c>
+      <c r="C26" s="19"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="19">
+        <v>26</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>366</v>
+      </c>
+      <c r="C27" s="19"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="19">
+        <v>27</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>367</v>
+      </c>
+      <c r="C28" s="19"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="19">
+        <v>28</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>368</v>
+      </c>
+      <c r="C29" s="19"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="19">
+        <v>29</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>369</v>
+      </c>
+      <c r="C30" s="19"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="19">
+        <v>30</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>370</v>
+      </c>
+      <c r="C31" s="19"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="19">
+        <v>31</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>371</v>
+      </c>
+      <c r="C32" s="19"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="19">
+        <v>32</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>372</v>
+      </c>
+      <c r="C33" s="19"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="19">
+        <v>33</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>373</v>
+      </c>
+      <c r="C34" s="19"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="19">
+        <v>34</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>374</v>
+      </c>
+      <c r="C35" s="19"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="19">
+        <v>35</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="C36" s="19"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="19">
         <v>36</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="23">
-        <v>2</v>
-      </c>
-      <c r="B3" s="23" t="s">
-        <v>349</v>
-      </c>
-      <c r="C3" s="23"/>
-      <c r="F3" s="24" t="s">
-        <v>417</v>
-      </c>
-      <c r="G3" s="24">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="23">
-        <v>3</v>
-      </c>
-      <c r="B4" s="23" t="s">
-        <v>350</v>
-      </c>
-      <c r="C4" s="23"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="23">
-        <v>4</v>
-      </c>
-      <c r="B5" s="23" t="s">
-        <v>351</v>
-      </c>
-      <c r="C5" s="23"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="23">
-        <v>5</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>352</v>
-      </c>
-      <c r="C6" s="23"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="23">
-        <v>6</v>
-      </c>
-      <c r="B7" s="23" t="s">
-        <v>353</v>
-      </c>
-      <c r="C7" s="23"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="23">
-        <v>7</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>354</v>
-      </c>
-      <c r="C8" s="23"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="23">
-        <v>8</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="C9" s="23"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="23">
-        <v>9</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>356</v>
-      </c>
-      <c r="C10" s="23"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="23">
-        <v>10</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>357</v>
-      </c>
-      <c r="C11" s="23"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="23">
-        <v>11</v>
-      </c>
-      <c r="B12" s="23" t="s">
-        <v>358</v>
-      </c>
-      <c r="C12" s="23"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="23">
-        <v>12</v>
-      </c>
-      <c r="B13" s="23" t="s">
-        <v>359</v>
-      </c>
-      <c r="C13" s="23"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="23">
-        <v>13</v>
-      </c>
-      <c r="B14" s="23" t="s">
-        <v>360</v>
-      </c>
-      <c r="C14" s="23"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="23">
-        <v>14</v>
-      </c>
-      <c r="B15" s="23" t="s">
-        <v>361</v>
-      </c>
-      <c r="C15" s="23"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="23">
-        <v>15</v>
-      </c>
-      <c r="B16" s="23" t="s">
-        <v>362</v>
-      </c>
-      <c r="C16" s="23"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="23">
-        <v>16</v>
-      </c>
-      <c r="B17" s="23" t="s">
-        <v>363</v>
-      </c>
-      <c r="C17" s="23"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="23">
-        <v>17</v>
-      </c>
-      <c r="B18" s="23" t="s">
-        <v>364</v>
-      </c>
-      <c r="C18" s="23"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="23">
-        <v>18</v>
-      </c>
-      <c r="B19" s="23" t="s">
-        <v>365</v>
-      </c>
-      <c r="C19" s="23"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="23">
-        <v>19</v>
-      </c>
-      <c r="B20" s="23" t="s">
-        <v>366</v>
-      </c>
-      <c r="C20" s="23"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="23">
-        <v>20</v>
-      </c>
-      <c r="B21" s="23" t="s">
-        <v>367</v>
-      </c>
-      <c r="C21" s="23"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="23">
-        <v>21</v>
-      </c>
-      <c r="B22" s="23" t="s">
-        <v>368</v>
-      </c>
-      <c r="C22" s="23"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="23">
-        <v>22</v>
-      </c>
-      <c r="B23" s="23" t="s">
-        <v>369</v>
-      </c>
-      <c r="C23" s="23"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="23">
-        <v>23</v>
-      </c>
-      <c r="B24" s="23" t="s">
-        <v>370</v>
-      </c>
-      <c r="C24" s="23"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="23">
-        <v>24</v>
-      </c>
-      <c r="B25" s="23" t="s">
-        <v>371</v>
-      </c>
-      <c r="C25" s="23"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="23">
-        <v>25</v>
-      </c>
-      <c r="B26" s="23" t="s">
-        <v>372</v>
-      </c>
-      <c r="C26" s="23"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="23">
-        <v>26</v>
-      </c>
-      <c r="B27" s="23" t="s">
-        <v>373</v>
-      </c>
-      <c r="C27" s="23"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="23">
-        <v>27</v>
-      </c>
-      <c r="B28" s="23" t="s">
-        <v>374</v>
-      </c>
-      <c r="C28" s="23"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="23">
-        <v>28</v>
-      </c>
-      <c r="B29" s="23" t="s">
-        <v>375</v>
-      </c>
-      <c r="C29" s="23"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="23">
-        <v>29</v>
-      </c>
-      <c r="B30" s="23" t="s">
+      <c r="B37" s="19" t="s">
         <v>376</v>
       </c>
-      <c r="C30" s="23"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="23">
-        <v>30</v>
-      </c>
-      <c r="B31" s="23" t="s">
+      <c r="C37" s="19"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="19">
+        <v>37</v>
+      </c>
+      <c r="B38" s="19" t="s">
         <v>377</v>
       </c>
-      <c r="C31" s="23"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="23">
-        <v>31</v>
-      </c>
-      <c r="B32" s="23" t="s">
+      <c r="C38" s="19"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="19">
+        <v>38</v>
+      </c>
+      <c r="B39" s="19" t="s">
         <v>378</v>
       </c>
-      <c r="C32" s="23"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="23">
-        <v>32</v>
-      </c>
-      <c r="B33" s="23" t="s">
+      <c r="C39" s="19"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="19">
+        <v>39</v>
+      </c>
+      <c r="B40" s="19" t="s">
         <v>379</v>
       </c>
-      <c r="C33" s="23"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="23">
-        <v>33</v>
-      </c>
-      <c r="B34" s="23" t="s">
+      <c r="C40" s="19"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="19">
+        <v>40</v>
+      </c>
+      <c r="B41" s="19" t="s">
         <v>380</v>
       </c>
-      <c r="C34" s="23"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="23">
-        <v>34</v>
-      </c>
-      <c r="B35" s="23" t="s">
+      <c r="C41" s="19"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="19">
+        <v>41</v>
+      </c>
+      <c r="B42" s="19" t="s">
         <v>381</v>
       </c>
-      <c r="C35" s="23"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="23">
-        <v>35</v>
-      </c>
-      <c r="B36" s="23" t="s">
+      <c r="C42" s="19"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="19">
+        <v>42</v>
+      </c>
+      <c r="B43" s="19" t="s">
         <v>382</v>
       </c>
-      <c r="C36" s="23"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="23">
-        <v>36</v>
-      </c>
-      <c r="B37" s="23" t="s">
+      <c r="C43" s="19"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="19">
+        <v>43</v>
+      </c>
+      <c r="B44" s="19" t="s">
         <v>383</v>
       </c>
-      <c r="C37" s="23"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="23">
-        <v>37</v>
-      </c>
-      <c r="B38" s="23" t="s">
+      <c r="C44" s="19"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="19">
+        <v>44</v>
+      </c>
+      <c r="B45" s="19" t="s">
         <v>384</v>
       </c>
-      <c r="C38" s="23"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="23">
-        <v>38</v>
-      </c>
-      <c r="B39" s="23" t="s">
+      <c r="C45" s="19"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="19">
+        <v>45</v>
+      </c>
+      <c r="B46" s="19" t="s">
         <v>385</v>
       </c>
-      <c r="C39" s="23"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="23">
-        <v>39</v>
-      </c>
-      <c r="B40" s="23" t="s">
+      <c r="C46" s="19"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="19">
+        <v>46</v>
+      </c>
+      <c r="B47" s="19" t="s">
         <v>386</v>
       </c>
-      <c r="C40" s="23"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="23">
-        <v>40</v>
-      </c>
-      <c r="B41" s="23" t="s">
+      <c r="C47" s="19"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="19">
+        <v>47</v>
+      </c>
+      <c r="B48" s="19" t="s">
         <v>387</v>
       </c>
-      <c r="C41" s="23"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="23">
-        <v>41</v>
-      </c>
-      <c r="B42" s="23" t="s">
+      <c r="C48" s="19"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="19">
+        <v>48</v>
+      </c>
+      <c r="B49" s="19" t="s">
         <v>388</v>
       </c>
-      <c r="C42" s="23"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="23">
-        <v>42</v>
-      </c>
-      <c r="B43" s="23" t="s">
+      <c r="C49" s="19"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="19">
+        <v>49</v>
+      </c>
+      <c r="B50" s="19" t="s">
         <v>389</v>
       </c>
-      <c r="C43" s="23"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="23">
-        <v>43</v>
-      </c>
-      <c r="B44" s="23" t="s">
+      <c r="C50" s="19"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="19">
+        <v>50</v>
+      </c>
+      <c r="B51" s="19" t="s">
         <v>390</v>
       </c>
-      <c r="C44" s="23"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="23">
-        <v>44</v>
-      </c>
-      <c r="B45" s="23" t="s">
+      <c r="C51" s="19"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="19">
+        <v>51</v>
+      </c>
+      <c r="B52" s="19" t="s">
         <v>391</v>
       </c>
-      <c r="C45" s="23"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="23">
-        <v>45</v>
-      </c>
-      <c r="B46" s="23" t="s">
+      <c r="C52" s="19"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="19">
+        <v>52</v>
+      </c>
+      <c r="B53" s="19" t="s">
         <v>392</v>
       </c>
-      <c r="C46" s="23"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="23">
-        <v>46</v>
-      </c>
-      <c r="B47" s="23" t="s">
+      <c r="C53" s="19"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="19">
+        <v>53</v>
+      </c>
+      <c r="B54" s="19" t="s">
         <v>393</v>
       </c>
-      <c r="C47" s="23"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="23">
-        <v>47</v>
-      </c>
-      <c r="B48" s="23" t="s">
-        <v>394</v>
-      </c>
-      <c r="C48" s="23"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="23">
-        <v>48</v>
-      </c>
-      <c r="B49" s="23" t="s">
-        <v>395</v>
-      </c>
-      <c r="C49" s="23"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="23">
-        <v>49</v>
-      </c>
-      <c r="B50" s="23" t="s">
-        <v>396</v>
-      </c>
-      <c r="C50" s="23"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="23">
-        <v>50</v>
-      </c>
-      <c r="B51" s="23" t="s">
-        <v>397</v>
-      </c>
-      <c r="C51" s="23"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="23">
-        <v>51</v>
-      </c>
-      <c r="B52" s="23" t="s">
-        <v>398</v>
-      </c>
-      <c r="C52" s="23"/>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="23">
-        <v>52</v>
-      </c>
-      <c r="B53" s="23" t="s">
-        <v>399</v>
-      </c>
-      <c r="C53" s="23"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="23">
-        <v>53</v>
-      </c>
-      <c r="B54" s="23" t="s">
-        <v>400</v>
-      </c>
-      <c r="C54" s="23"/>
+      <c r="C54" s="19"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="23">
+      <c r="A55" s="19">
         <v>54</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C55" s="23"/>
+      <c r="C55" s="19"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="23">
+      <c r="A56" s="19">
         <v>55</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C56" s="23"/>
+      <c r="C56" s="19"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="23">
+      <c r="A57" s="19">
         <v>56</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C57" s="23"/>
+      <c r="C57" s="19"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="23">
+      <c r="A58" s="19">
         <v>57</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C58" s="23"/>
+      <c r="C58" s="19"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="23">
+      <c r="A59" s="19">
         <v>58</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C59" s="23" t="s">
-        <v>401</v>
+      <c r="C59" s="19" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="23">
+      <c r="A60" s="19">
         <v>59</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="23">
+      <c r="A61" s="19">
         <v>60</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>76</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="23">
+      <c r="A62" s="19">
         <v>61</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>75</v>
       </c>
       <c r="C62" s="3" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="19">
+        <v>62</v>
+      </c>
+      <c r="B63" s="19" t="s">
+        <v>398</v>
+      </c>
+      <c r="C63" s="19"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="19">
+        <v>63</v>
+      </c>
+      <c r="B64" s="19" t="s">
+        <v>399</v>
+      </c>
+      <c r="C64" s="19"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="19">
+        <v>64</v>
+      </c>
+      <c r="B65" s="19" t="s">
+        <v>400</v>
+      </c>
+      <c r="C65" s="19" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="19">
+        <v>65</v>
+      </c>
+      <c r="B66" s="19" t="s">
+        <v>402</v>
+      </c>
+      <c r="C66" s="19" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="19">
+        <v>66</v>
+      </c>
+      <c r="B67" s="19" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="23">
-        <v>62</v>
-      </c>
-      <c r="B63" s="23" t="s">
+      <c r="C67" s="19" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="19">
+        <v>67</v>
+      </c>
+      <c r="B68" s="19" t="s">
         <v>405</v>
       </c>
-      <c r="C63" s="23"/>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="23">
-        <v>63</v>
-      </c>
-      <c r="B64" s="23" t="s">
+      <c r="C68" s="19" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="19">
+        <v>68</v>
+      </c>
+      <c r="B69" s="19" t="s">
         <v>406</v>
       </c>
-      <c r="C64" s="23"/>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="23">
-        <v>64</v>
-      </c>
-      <c r="B65" s="23" t="s">
+      <c r="C69" s="19" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="19">
+        <v>69</v>
+      </c>
+      <c r="B70" s="19" t="s">
         <v>407</v>
       </c>
-      <c r="C65" s="23" t="s">
+      <c r="C70" s="19" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="19">
+        <v>70</v>
+      </c>
+      <c r="B71" s="19" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="23">
-        <v>65</v>
-      </c>
-      <c r="B66" s="23" t="s">
-        <v>409</v>
-      </c>
-      <c r="C66" s="23" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="23">
-        <v>66</v>
-      </c>
-      <c r="B67" s="23" t="s">
-        <v>411</v>
-      </c>
-      <c r="C67" s="23" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" s="23">
-        <v>67</v>
-      </c>
-      <c r="B68" s="23" t="s">
-        <v>412</v>
-      </c>
-      <c r="C68" s="23" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" s="23">
-        <v>68</v>
-      </c>
-      <c r="B69" s="23" t="s">
-        <v>413</v>
-      </c>
-      <c r="C69" s="23" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" s="23">
-        <v>69</v>
-      </c>
-      <c r="B70" s="23" t="s">
-        <v>414</v>
-      </c>
-      <c r="C70" s="23" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" s="23">
-        <v>70</v>
-      </c>
-      <c r="B71" s="23" t="s">
-        <v>415</v>
-      </c>
-      <c r="C71" s="23" t="s">
-        <v>410</v>
+      <c r="C71" s="19" t="s">
+        <v>403</v>
       </c>
     </row>
   </sheetData>
